--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,8 @@
           <t>JISA VENTURES LTD</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>16455405</t>
-        </is>
+      <c r="B2" t="n">
+        <v>16455405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -513,10 +511,8 @@
           <t>MARKOVIAN INVESTMENTS LIMITED</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>16455443</t>
-        </is>
+      <c r="B3" t="n">
+        <v>16455443</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -541,6 +537,1375 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>2025-05-18 01:10:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>R. KENDALL INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16454651</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>INDO-EURO VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16454655</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>SLAM DUNK INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>16455167</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DAVISON FAMILY CAPITAL LTD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16455115</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TALKSGPT AI LTD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16455313</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>NEW TOWER CAPITAL LTD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16454704</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GPS BUILDERS LTD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>16454759</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ALPHA HEDONIST ENTERPRISES LTD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16454743</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>DEARG INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16455090</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>STEVE'S VENTURES LIMITED</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16455332</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ARISSA INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16455197</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>E.Q. EQUITY LTD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16454966</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>BKH PROPERTY INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16454907</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CROWTHER CAPITAL SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16454539</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JL NEW INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16454813</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:24</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BELGRAVIA HEIGHTS ESTATES LTD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>16454964</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HOOK INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16454933</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CALLA LILY PROPERTY LTD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16455024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>LIBERA CAPITAL MANAGEMENT LIMITED</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16455027</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GOODBREACH LTD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16455072</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ANUGRAHA BENEFICIAL HOLDINGS &amp; INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16455184</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ONE-TENT PROPERTIES LIMITED</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16455350</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>HAMATECH GLOBAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16455295</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>DOUBLE U PROPERTY INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SC848872</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>GW CAPITAL HOLDINGS LIMITED</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16455129</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>CENTERWOOD SUB LIMITED</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16455117</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EMERSON CAPITAL HOLDINGS LTD</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16455220</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>KARNAVATI GLOBAL VENTURES LIMITED</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16454965</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>TRADIA CAPITAL ACADEMY LTD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>16455007</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>D HAYDEN CAPITAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16455013</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ALPHA DISPATCH SERVICES LTD</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>16454873</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>VKS CAPITAL LTD</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>16454770</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ARLO EQUITY LTD</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>16455284</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Keyword+SIC</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ARMAGH INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>NI729471</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>NIRVANA ADVERTISING VENTURES LIMITED</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>16454522</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>WK CAPITAL LTD</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>16454711</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MSY UK INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>16455242</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-05-17</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>2025-05-18 01:13:33</t>
         </is>
       </c>
     </row>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G614"/>
+  <dimension ref="A1:G615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23147,6 +23147,43 @@
         </is>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" t="inlineStr">
+        <is>
+          <t>TALLY M E VENTURES LIMITED</t>
+        </is>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>16455468</t>
+        </is>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E615" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F615" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G615" t="inlineStr">
+        <is>
+          <t>2025-05-18 07:42:05</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G615"/>
+  <dimension ref="A1:G616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23184,6 +23184,43 @@
         </is>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" t="inlineStr">
+        <is>
+          <t>LENDING CONSULTANCY LTD</t>
+        </is>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>16455471</t>
+        </is>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E616" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F616" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G616" t="inlineStr">
+        <is>
+          <t>2025-05-18 08:41:44</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G616"/>
+  <dimension ref="A1:G617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23221,6 +23221,43 @@
         </is>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" t="inlineStr">
+        <is>
+          <t>BIEN DEVELOPMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>16455494</t>
+        </is>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E617" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F617" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G617" t="inlineStr">
+        <is>
+          <t>2025-05-18 10:40:21</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:G618"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23258,6 +23258,43 @@
         </is>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" t="inlineStr">
+        <is>
+          <t>PARTNERS AMERICAN WHISKEY LTD</t>
+        </is>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>16455528</t>
+        </is>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E618" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F618" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G618" t="inlineStr">
+        <is>
+          <t>2025-05-18 13:16:36</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G618"/>
+  <dimension ref="A1:G619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23295,6 +23295,43 @@
         </is>
       </c>
     </row>
+    <row r="619">
+      <c r="A619" t="inlineStr">
+        <is>
+          <t>ALPHA HAULAGE SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>16455573</t>
+        </is>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E619" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F619" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G619" t="inlineStr">
+        <is>
+          <t>2025-05-18 14:36:02</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G619"/>
+  <dimension ref="A1:G620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23332,6 +23332,43 @@
         </is>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" t="inlineStr">
+        <is>
+          <t>PERFICIENT VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>16455594</t>
+        </is>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E620" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F620" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G620" t="inlineStr">
+        <is>
+          <t>2025-05-18 14:48:42</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G620"/>
+  <dimension ref="A1:G621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23369,6 +23369,43 @@
         </is>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" t="inlineStr">
+        <is>
+          <t>BLUEBOW TECHNOLOGIES LTD</t>
+        </is>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>16455597</t>
+        </is>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E621" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F621" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G621" t="inlineStr">
+        <is>
+          <t>2025-05-18 15:24:53</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,8 @@
           <t>LENDING CONSULTANCY LTD</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>16455471</t>
-        </is>
+      <c r="B2" t="n">
+        <v>16455471</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -513,10 +511,8 @@
           <t>JISA VENTURES LTD</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>16455405</t>
-        </is>
+      <c r="B3" t="n">
+        <v>16455405</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -550,10 +546,8 @@
           <t>TALLY M E VENTURES LIMITED</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>16455468</t>
-        </is>
+      <c r="B4" t="n">
+        <v>16455468</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -587,10 +581,8 @@
           <t>PERFICIENT VENTURES LTD</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>16455594</t>
-        </is>
+      <c r="B5" t="n">
+        <v>16455594</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -624,10 +616,8 @@
           <t>BLUEBOW TECHNOLOGIES LTD</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>16455597</t>
-        </is>
+      <c r="B6" t="n">
+        <v>16455597</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -661,10 +651,8 @@
           <t>BIEN DEVELOPMENTS LTD</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>16455494</t>
-        </is>
+      <c r="B7" t="n">
+        <v>16455494</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -698,10 +686,8 @@
           <t>ALPHA HAULAGE SOLUTIONS LTD</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>16455573</t>
-        </is>
+      <c r="B8" t="n">
+        <v>16455573</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -735,10 +721,8 @@
           <t>MARKOVIAN INVESTMENTS LIMITED</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>16455443</t>
-        </is>
+      <c r="B9" t="n">
+        <v>16455443</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -772,34 +756,513 @@
           <t>PARTNERS AMERICAN WHISKEY LTD</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>16455528</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2025-05-18 15:36:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>LENDING CONSULTANCY LTD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16455471</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>ECHO VENTURES GROUP LIMITED</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16455744</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ESLB INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>16455669</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>JISA VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16455405</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>TALLY M E VENTURES LIMITED</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16455468</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>PERFICIENT VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16455594</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>BLUEBOW TECHNOLOGIES LTD</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16455597</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>JENKINS VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16455788</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:49</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>BIEN DEVELOPMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>16455494</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ALPHA HAULAGE SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16455573</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MARIOS PROPERTY INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16455816</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MARKOVIAN INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16455443</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>PARTNERS AMERICAN WHISKEY LTD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
         <is>
           <t>16455528</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Keyword</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>2025-05-18 15:36:00</t>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-18 21:42:50</t>
         </is>
       </c>
     </row>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -788,13 +788,11 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>LENDING CONSULTANCY LTD</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>16455471</t>
-        </is>
+          <t>ECHO VENTURES GROUP LIMITED</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>16455744</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -808,7 +806,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>SIC</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -825,13 +823,11 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ECHO VENTURES GROUP LIMITED</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>16455744</t>
-        </is>
+          <t>ESLB INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>16455669</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -862,13 +858,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ESLB INVESTMENTS LIMITED</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>16455669</t>
-        </is>
+          <t>JENKINS VENTURES LTD</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>16455788</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -892,20 +886,18 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:48</t>
+          <t>2025-05-18 21:42:49</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JISA VENTURES LTD</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>16455405</t>
-        </is>
+          <t>MARIOS PROPERTY INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>16455816</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -929,19 +921,19 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:49</t>
+          <t>2025-05-18 21:42:50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>TALLY M E VENTURES LIMITED</t>
+          <t>LENDING CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16455468</t>
+          <t>16455471</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -956,7 +948,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>SIC</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -966,19 +958,19 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:49</t>
+          <t>2025-05-18 23:26:26</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>PERFICIENT VENTURES LTD</t>
+          <t>ECHO VENTURES GROUP LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16455594</t>
+          <t>16455744</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1003,19 +995,19 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:49</t>
+          <t>2025-05-18 23:26:27</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BLUEBOW TECHNOLOGIES LTD</t>
+          <t>ESLB INVESTMENTS LIMITED</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16455597</t>
+          <t>16455669</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1030,7 +1022,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>SIC</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1040,19 +1032,19 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:49</t>
+          <t>2025-05-18 23:26:27</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JENKINS VENTURES LTD</t>
+          <t>JISA VENTURES LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16455788</t>
+          <t>16455405</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1077,19 +1069,19 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:49</t>
+          <t>2025-05-18 23:26:27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BIEN DEVELOPMENTS LTD</t>
+          <t>TALLY M E VENTURES LIMITED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16455494</t>
+          <t>16455468</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1104,7 +1096,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>SIC</t>
+          <t>Keyword</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1114,19 +1106,19 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:50</t>
+          <t>2025-05-18 23:26:27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ALPHA HAULAGE SOLUTIONS LTD</t>
+          <t>PERFICIENT VENTURES LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16455573</t>
+          <t>16455594</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1151,19 +1143,19 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:50</t>
+          <t>2025-05-18 23:26:28</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MARIOS PROPERTY INVESTMENTS LTD</t>
+          <t>BLUEBOW TECHNOLOGIES LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16455816</t>
+          <t>16455597</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1178,7 +1170,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Keyword</t>
+          <t>SIC</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1188,19 +1180,19 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:50</t>
+          <t>2025-05-18 23:26:28</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MARKOVIAN INVESTMENTS LIMITED</t>
+          <t>JENKINS VENTURES LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16455443</t>
+          <t>16455788</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1225,44 +1217,192 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-18 21:42:50</t>
+          <t>2025-05-18 23:26:28</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>BIEN DEVELOPMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16455494</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>SIC</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2025-05-18 23:26:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ALPHA HAULAGE SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16455573</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>2025-05-18 23:26:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MARIOS PROPERTY INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16455816</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2025-05-18 23:26:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MARKOVIAN INVESTMENTS LIMITED</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16455443</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>2025-05-18 23:26:29</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>PARTNERS AMERICAN WHISKEY LTD</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B27" t="inlineStr">
         <is>
           <t>16455528</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>active</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Keyword</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2025-05-18</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>2025-05-18 21:42:50</t>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Keyword</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>2025-05-18 23:26:29</t>
         </is>
       </c>
     </row>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -958,7 +958,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:26</t>
+          <t>2025-05-18 23:35:01</t>
         </is>
       </c>
     </row>
@@ -995,7 +995,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:27</t>
+          <t>2025-05-18 23:35:01</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:27</t>
+          <t>2025-05-18 23:35:01</t>
         </is>
       </c>
     </row>
@@ -1069,7 +1069,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:27</t>
+          <t>2025-05-18 23:35:02</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:27</t>
+          <t>2025-05-18 23:35:02</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:28</t>
+          <t>2025-05-18 23:35:02</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:28</t>
+          <t>2025-05-18 23:35:02</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:28</t>
+          <t>2025-05-18 23:35:03</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:28</t>
+          <t>2025-05-18 23:35:03</t>
         </is>
       </c>
     </row>
@@ -1291,7 +1291,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:29</t>
+          <t>2025-05-18 23:35:03</t>
         </is>
       </c>
     </row>
@@ -1328,7 +1328,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:29</t>
+          <t>2025-05-18 23:35:03</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:29</t>
+          <t>2025-05-18 23:35:03</t>
         </is>
       </c>
     </row>
@@ -1402,7 +1402,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>2025-05-18 23:26:29</t>
+          <t>2025-05-18 23:35:04</t>
         </is>
       </c>
     </row>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,52 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Company Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Incorporation Date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Status</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Source</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Date Downloaded</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Time Discovered</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,6 +470,3706 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>FOOD ORDERS LTD</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>16455525</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>WELLNESS PHYSIOTHERAPY LIMITED</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>16455527</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ARBOR VENTURE SALES LTD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>16455529</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>C&amp;CSERVICESS.C LIMITED</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>16455531</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>DID NOT FAIL LTD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SC848891</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>INFINITY MART SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>16455611</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AZEE MANUFACTURING LTD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>16455613</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TURNER MOTOR GROUP LTD</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>16455610</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>STORM MART LTD</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>16455609</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>OPEN PATHWAYS LTD</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>16455620</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>BLUE HORN GROUP LIMITED</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16455614</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MAYA M LTD</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>NI729489</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AIMBASE LTD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>16455624</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>JAAJ HEALTH LTD</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>16455617</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>LAURA'S LITTLE EXPLORERS LTD</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>16455738</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>INVICTUS PROPERTY MANAGEMENT LTD</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>16455739</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MIND BRIDGE LIMITED</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>16455736</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>TARAKS FURNITURE LTD</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>16455732</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>HK PERFORMANCE SURREY LTD</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>16455823</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>BEST DRIVE ACADEMY LTD</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>16455829</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MOUNTAINTOP MEDALS LIMITED</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>16455450</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>NAFAELS HOLDINGS LTD</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>16455455</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ARCHIGOLD LIMITED</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16455454</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>LEGMAN LIMITED</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>SC848885</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>GENEXTAR LTD</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16455452</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>STELLA MADE LTD</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>16455487</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>PEARL GENERAL TRADING LTD</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>16455507</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>HASENAS TUITION LIMITED</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16455505</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ZAA GLOBAL LTD</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>16455504</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>HAMI HOMES LTD</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>16455401</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>JUST LIKE MAMA’S LTD</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>NI729486</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MOHAMMED PLUMBING SERVICE LTD</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>16455425</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>PRIMERO PROPERTY SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>16455433</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>BUSINESS FOR CHANGE LTD</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>16455421</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>UKGOODS LIMITED</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>16455403</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>REDICAL RETAIL LONDON LIMITED</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>16455402</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7 DAYS SOUTH LIMITED</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>16455404</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ATYD PROPERTY LTD</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>16455418</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>VUNIFY LTD</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>SC848882</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ELEGANT BEAUTY AND AESTHETICS LTD</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>16455475</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>LENDING CONSULTANCY LTD</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>16455471</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>YVONNE'S CAKES LTD</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>16455499</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>EASE TRAVEL LTD LTD</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>16455495</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>12 BACKFIELDS LANE MANAGEMENT COMPANY LTD</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>16455545</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>HL LEBANESE LTD</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>16455544</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>PASARGARD LTD</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>16455543</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>WESTBURY TENANTED SOLUTIONS LIMITED</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>16455548</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>JAYKAY HOLDINGS LTD</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>16455551</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>HITHE INC LTD</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>16455579</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>SYSTON STAIRCRAFT LTD</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>16455589</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>VANAMALA UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>16455588</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>ARIS MANAGEMENT LTD</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>16455577</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BRAVA COACHING AND CONSULTING LTD</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>16455590</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>GYM UNIT FITNESS CLOTHING LTD</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>16455584</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CITY SKIPS LTD</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>16455581</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>SC ONLINE SUPPLY LTD</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>16455691</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BOWN DRINKS LIMITED</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>16455683</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>WILDISH'S BRUNCH &amp; BAKES LTD</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>16455687</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>ROPER &amp; ROPER PROPERTIES LTD</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>16455685</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>KAMANDA STS LTD</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>16455773</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NKREATE INNOVATIONS LTD</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>16455781</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>SAFEZONE GUARDING LTD</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>16455777</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>KRUBY LTD</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>16455745</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>ECHO VENTURES GROUP LIMITED</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>16455744</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>MYST AND MUSK UK LTD</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>16455742</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>TEN POUNDS LTD</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>16455768</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>PINDI CHEFS LTD</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>16455765</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>SMART HOMES ACCOMMODATION LIMITED</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>16455766</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SUSAN TRADE LTD</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>16455767</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>KJAG ACQUISITIONS LTD</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>16455763</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>RN SURE CARE UK LTD</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>16455604</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>EASEDALE HOLDINGS UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>16455608</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>SHARPEST MARKETING LIMITED</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>16455598</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>GRANVILLE JA CAR SALES LIMITED</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>16455601</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>LH CONSULTANTS LTD</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>16455637</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>GHOSTSUITEAI LTD</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>16455635</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>A&amp;A SYSTEMS LIMITED</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>16455642</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SDESTATE78 LTD</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>16455720</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>HONEY BADGER HAULAGE LTD</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>SC848902</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>LIFT2LAUNCH LTD</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>16455717</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>MS ELECTRO SERVICES LTD</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>16455726</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>CFI RENDERING UK LTD</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>16455812</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>MCLEAN HAULAGE LTD</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>NI729491</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NESTWALL ENERGY LTD</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>16455808</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>KAR CARE LTD</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>16455817</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>BAWABUILDERS LTD</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>16455819</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BEEBA MOTORS LTD</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>16455814</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>OOCELOT LTD</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>NI729487</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>MAD SKIN WEAR LIMITED</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>16455457</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>DARICS CLEANING SERVICES LIMITED</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>16455462</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>STARTUP ACCOUNTANCY LTD</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>16455510</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>MUSICROOTS LTD</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>16455514</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>SUSAN LERSKI LTD</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>16455561</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>P.V.T RENTAL LTD</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>16455559</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>BUGHINICI LTD</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>16455554</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>TOWN SPARES LTD</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>16455664</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>SNAP HOME LTD</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>16455666</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>JAYRWORKS LTD</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>16455658</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>MAROK TRANSPORT LTD</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>16455663</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>REPENT RECORDS LTD</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>16455667</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>2025-05-18</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Companies House API</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>17:58:19</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -510,12 +510,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -547,12 +547,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -584,12 +584,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,12 +621,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -658,12 +658,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -695,12 +695,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -732,12 +732,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -769,12 +769,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -806,12 +806,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -843,12 +843,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -880,12 +880,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -917,12 +917,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -954,12 +954,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -991,12 +991,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1028,12 +1028,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1065,12 +1065,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1102,12 +1102,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1139,12 +1139,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1176,12 +1176,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1213,12 +1213,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1250,12 +1250,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1287,12 +1287,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1324,12 +1324,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1361,12 +1361,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1398,12 +1398,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1435,12 +1435,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1472,12 +1472,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1509,12 +1509,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1546,12 +1546,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1583,12 +1583,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1620,12 +1620,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1657,12 +1657,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1731,12 +1731,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1768,12 +1768,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1805,12 +1805,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1842,12 +1842,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1879,12 +1879,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1916,12 +1916,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1953,12 +1953,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1990,12 +1990,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2027,12 +2027,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2064,12 +2064,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2101,12 +2101,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2138,12 +2138,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>FINTIVITY LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2175,12 +2175,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>FASHLER LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2212,12 +2212,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>CTPROPS LIMITED</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2249,12 +2249,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2286,12 +2286,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>NEW MOUNT DAISY LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2360,12 +2360,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2397,12 +2397,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2434,12 +2434,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2471,12 +2471,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>LEOFRIC LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2508,12 +2508,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2545,12 +2545,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2582,12 +2582,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2619,12 +2619,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2656,12 +2656,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2693,12 +2693,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2730,12 +2730,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>HOUSE OF RODEOS LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2767,12 +2767,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2804,12 +2804,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2841,12 +2841,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2878,12 +2878,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2915,12 +2915,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2952,12 +2952,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2989,12 +2989,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3026,12 +3026,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3063,12 +3063,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3137,12 +3137,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3174,12 +3174,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3211,12 +3211,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3248,12 +3248,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3285,12 +3285,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3322,12 +3322,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3359,12 +3359,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3396,12 +3396,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3433,12 +3433,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3470,12 +3470,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3507,12 +3507,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3544,12 +3544,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3581,12 +3581,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3618,12 +3618,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3655,12 +3655,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3692,12 +3692,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3729,12 +3729,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3766,12 +3766,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3803,12 +3803,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3840,12 +3840,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3877,12 +3877,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3914,12 +3914,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3951,12 +3951,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3988,12 +3988,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4025,12 +4025,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4062,12 +4062,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4099,12 +4099,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -503,7 +503,7 @@
       <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -532,7 +532,7 @@
       <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +561,7 @@
       <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -590,7 +590,7 @@
       <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,7 +619,7 @@
       <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,7 +648,7 @@
       <c r="A8" t="inlineStr"/>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +677,7 @@
       <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -706,7 +706,7 @@
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -735,7 +735,7 @@
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -764,7 +764,7 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -793,7 +793,7 @@
       <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -822,7 +822,7 @@
       <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -851,7 +851,7 @@
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -880,7 +880,7 @@
       <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -909,7 +909,7 @@
       <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -938,7 +938,7 @@
       <c r="A18" t="inlineStr"/>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -967,7 +967,7 @@
       <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -996,7 +996,7 @@
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1025,7 +1025,7 @@
       <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1054,7 +1054,7 @@
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1083,7 +1083,7 @@
       <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1112,7 +1112,7 @@
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1141,7 +1141,7 @@
       <c r="A25" t="inlineStr"/>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1170,7 +1170,7 @@
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1199,7 +1199,7 @@
       <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1228,7 +1228,7 @@
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1257,7 +1257,7 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1286,7 +1286,7 @@
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1315,7 +1315,7 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1344,7 +1344,7 @@
       <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1373,7 +1373,7 @@
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1402,7 +1402,7 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1431,7 +1431,7 @@
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1460,7 +1460,7 @@
       <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1489,7 +1489,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1518,7 +1518,7 @@
       <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1547,7 +1547,7 @@
       <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1576,7 +1576,7 @@
       <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1605,7 +1605,7 @@
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1634,7 +1634,7 @@
       <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1663,7 +1663,7 @@
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1721,7 +1721,7 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1750,7 +1750,7 @@
       <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1779,7 +1779,7 @@
       <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1808,7 +1808,7 @@
       <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1837,7 +1837,7 @@
       <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1866,7 +1866,7 @@
       <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1895,7 +1895,7 @@
       <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1953,7 +1953,7 @@
       <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1982,7 +1982,7 @@
       <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2011,7 +2011,7 @@
       <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2040,7 +2040,7 @@
       <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2069,7 +2069,7 @@
       <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2098,7 +2098,7 @@
       <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2127,7 +2127,7 @@
       <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2156,7 +2156,7 @@
       <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2185,7 +2185,7 @@
       <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2214,7 +2214,7 @@
       <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2243,7 +2243,7 @@
       <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2272,7 +2272,7 @@
       <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2301,7 +2301,7 @@
       <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2330,7 +2330,7 @@
       <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2359,7 +2359,7 @@
       <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2388,7 +2388,7 @@
       <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2417,7 +2417,7 @@
       <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2446,7 +2446,7 @@
       <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2475,7 +2475,7 @@
       <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2504,7 +2504,7 @@
       <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2533,7 +2533,7 @@
       <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2562,7 +2562,7 @@
       <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2591,7 +2591,7 @@
       <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2620,7 +2620,7 @@
       <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2649,7 +2649,7 @@
       <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2678,7 +2678,7 @@
       <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -2707,7 +2707,7 @@
       <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -2736,7 +2736,7 @@
       <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -2765,7 +2765,7 @@
       <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -2794,7 +2794,7 @@
       <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -2823,7 +2823,7 @@
       <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -2852,7 +2852,7 @@
       <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -2881,7 +2881,7 @@
       <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -2910,7 +2910,7 @@
       <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -2939,7 +2939,7 @@
       <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -2968,7 +2968,7 @@
       <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -2997,7 +2997,7 @@
       <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3026,7 +3026,7 @@
       <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3055,7 +3055,7 @@
       <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3084,7 +3084,7 @@
       <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3113,7 +3113,7 @@
       <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3142,7 +3142,7 @@
       <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3171,7 +3171,7 @@
       <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3200,7 +3200,7 @@
       <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3229,7 +3229,7 @@
       <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3258,7 +3258,7 @@
       <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3287,7 +3287,7 @@
       <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3316,7 +3316,7 @@
       <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,11 @@
           <t>Time Discovered</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -502,16 +507,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -535,16 +541,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -568,16 +575,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -601,16 +609,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -634,16 +643,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -667,16 +677,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -700,16 +711,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -733,16 +745,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -766,16 +779,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -799,16 +813,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -832,16 +847,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -865,16 +881,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -898,16 +915,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -931,16 +949,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>HOUSE OF RODEOS LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -964,16 +983,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -997,16 +1017,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1030,16 +1051,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1063,16 +1085,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1096,16 +1119,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1129,16 +1153,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1162,16 +1187,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>LEOFRIC LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1195,16 +1221,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1228,16 +1255,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1261,16 +1289,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1294,16 +1323,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1327,16 +1357,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1360,16 +1391,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1393,16 +1425,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1426,16 +1459,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1459,16 +1493,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1492,16 +1527,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1525,16 +1561,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1558,16 +1595,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1591,16 +1629,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1624,16 +1663,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1657,16 +1697,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1690,16 +1731,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1723,16 +1765,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1756,16 +1799,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1789,16 +1833,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1822,16 +1867,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1855,16 +1901,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1888,16 +1935,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1921,16 +1969,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1954,16 +2003,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1987,16 +2037,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2020,16 +2071,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2053,16 +2105,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2086,16 +2139,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2119,6 +2173,7 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2152,16 +2207,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>NEW MOUNT DAISY LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2185,16 +2241,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2218,16 +2275,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2251,16 +2309,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2284,16 +2343,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2317,16 +2377,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2350,16 +2411,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2383,16 +2445,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2416,16 +2479,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2449,16 +2513,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2482,16 +2547,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2515,16 +2581,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2548,16 +2615,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2581,16 +2649,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2614,16 +2683,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2647,16 +2717,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2680,16 +2751,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -2713,16 +2785,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2746,16 +2819,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2779,16 +2853,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2812,16 +2887,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -2845,16 +2921,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2878,16 +2955,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2911,16 +2989,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -2944,16 +3023,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -2977,16 +3057,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3010,16 +3091,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3043,16 +3125,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>CTPROPS LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3076,16 +3159,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>FASHLER LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3109,16 +3193,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>FINTIVITY LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3142,16 +3227,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3175,16 +3261,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3208,16 +3295,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3241,16 +3329,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3274,16 +3363,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3307,16 +3397,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3340,16 +3431,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3373,16 +3465,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3406,16 +3499,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3439,16 +3533,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3472,16 +3567,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3505,16 +3601,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -3538,16 +3635,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -3571,16 +3669,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -3604,16 +3703,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -3637,16 +3737,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -3670,16 +3771,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -3703,16 +3805,17 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -3736,6 +3839,7 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3769,6 +3873,7 @@
           <t>20:46:00</t>
         </is>
       </c>
+      <c r="H101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>HOUSE OF RODEOS LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>LEOFRIC LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1497,19 +1497,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>NEW MOUNT DAISY LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3397,19 +3397,19 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3442,12 +3442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>CTPROPS LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>FASHLER LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>FINTIVITY LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4081,19 +4081,19 @@
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1497,19 +1497,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>FINTIVITY LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>FASHLER LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>CTPROPS LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>NEW MOUNT DAISY LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>LEOFRIC LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>HOUSE OF RODEOS LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3435,19 +3435,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4043,19 +4043,19 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -478,17 +478,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>KILICBABACATERING LTD</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16460380</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -499,12 +499,12 @@
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -516,17 +516,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,12 +537,12 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -554,17 +554,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,12 +575,12 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -592,17 +592,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -613,12 +613,12 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -630,17 +630,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -651,12 +651,12 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -668,17 +668,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -689,12 +689,12 @@
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -706,17 +706,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -727,12 +727,12 @@
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -744,17 +744,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -765,12 +765,12 @@
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -782,17 +782,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -803,12 +803,12 @@
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -820,17 +820,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -841,12 +841,12 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -858,17 +858,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -879,12 +879,12 @@
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -896,17 +896,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -917,12 +917,12 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -934,17 +934,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -955,12 +955,12 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -972,17 +972,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -993,12 +993,12 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,17 +1010,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1031,12 +1031,12 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1048,17 +1048,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1069,12 +1069,12 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1086,17 +1086,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1107,12 +1107,12 @@
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,17 +1124,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1145,12 +1145,12 @@
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1162,17 +1162,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1183,12 +1183,12 @@
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1200,17 +1200,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>DERICA SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16460357</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1221,12 +1221,12 @@
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1238,17 +1238,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1259,12 +1259,12 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1276,17 +1276,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1297,12 +1297,12 @@
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1314,17 +1314,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1335,12 +1335,12 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1352,17 +1352,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1373,12 +1373,12 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1390,17 +1390,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1411,12 +1411,12 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1428,17 +1428,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1449,12 +1449,12 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1466,17 +1466,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1487,12 +1487,12 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1504,17 +1504,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1525,12 +1525,12 @@
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1542,17 +1542,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1563,12 +1563,12 @@
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1580,17 +1580,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1601,12 +1601,12 @@
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1618,17 +1618,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1639,12 +1639,12 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1877,19 +1877,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>AMIKOBA LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16459545</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2371,19 +2371,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>NEWMINERALS LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16455878</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3435,19 +3435,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4043,19 +4043,19 @@
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4240,12 +4240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4270,6 +4270,1184 @@
         </is>
       </c>
       <c r="H101" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>16459547</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>JANITZA UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>16456233</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>CALIBRE LDN LIMITED</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>16457945</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>HOUSE OF RODEOS LTD</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>16456218</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>JAI-HO STAFFING LTD</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>16456221</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>16456227</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>IDCHEM CONSULTING LIMITED</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>16456205</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>16456208</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>STOA PROJECTS LTD</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>16456212</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>CHIMNEY CHAPS LTD</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>16456261</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>LEOFRIC LTD</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>16456712</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>BREEZY HOMES LIMITED</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>16456709</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>ATSP FIN LTD</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>16456749</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>16457279</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>FITCARDIOLOGY LTD</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>16457244</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NEW MOUNT DAISY LIMITED</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>16457237</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>CTPROPS LIMITED</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>16459084</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>FASHLER LTD</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>16459082</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>FINTIVITY LTD</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>16459072</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>WANNABEE LTD</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>16459526</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>S&amp;S ISTITHMĀR LTD</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>16459522</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>TASHAN MEDIA LTD</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>16459523</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>CLICKSPHARE CRAFT LTD</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>16459521</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>16459520</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>THE CHAIR SALON LONDON LTD</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>16459512</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>SPYRO APPAREL LTD</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>16459515</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>MILLE TRADING LTD</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>16459518</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>CLARK AND CO DESIGN LIMITED</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>16459516</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>16459514</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>16459549</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>JC DEEP TECH LTD</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>16456256</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H132"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BANDOS BY ADEBISI LTD</t>
+          <t>DERICA SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16460361</t>
+          <t>16460357</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2BCLOTHING LTD</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460354</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SKYFREIGHTGLOBAL LTD</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16460366</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LITBUILD LTD</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16460368</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ACCORD FIRE DOORS LTD</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16460363</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>LUXCOMMERCE LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460360</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MAK'S TRADERS LTD</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460355</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16460374</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16460375</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ETECH VENTURE LIMITED</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460372</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BY FATOU JAI LTD</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16460371</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ORIENT CANTEEN LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460365</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CLEANING MONK LTD</t>
+          <t>VITANOVA LEARNING LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460369</t>
+          <t>16460384</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MASR PROPERTIES LTD</t>
+          <t>MEARNS CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460367</t>
+          <t>16460387</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>FIND YOUR INDUSTRY LTD</t>
+          <t>MONEY MART LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460362</t>
+          <t>16460383</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OMID'S ENTERPRISE LTD</t>
+          <t>AA SELLER HUB LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460381</t>
+          <t>16460385</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CLEARLABS PERFORMANCE LTD</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460364</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>NARCISSIST APPAREL LTD</t>
+          <t>GMS7 LIMITED</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16460378</t>
+          <t>16460386</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>DERICA SOLUTIONS LTD</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460357</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MOTIVATION AND PROSPERITY LTD</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460379</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CLARITY VENTURE SUPPORT LTD</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460376</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MISBAH GOODS LTD</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460377</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PAVITA LOGISTICS LTD</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16460373</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ROAMING RETAIL LIMITED</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16460382</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>TRUE NORTH JOINERY LTD</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16460359</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VIVID MART LTD</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16460370</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MASTER THE CHAIN LTD</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16460358</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FONETHICS SOLUTIONS LTD</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SC848969</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16460353</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>FAMILY COMMREPORT LTD</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16460356</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1656,17 +1656,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1677,12 +1677,12 @@
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1694,17 +1694,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1715,12 +1715,12 @@
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1732,17 +1732,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1753,12 +1753,12 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1770,17 +1770,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1791,12 +1791,12 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1808,17 +1808,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1829,12 +1829,12 @@
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1877,19 +1877,19 @@
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>HOUSE OF RODEOS LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2371,19 +2371,19 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>FITCARDIOLOGY LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16457244</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>FINTIVITY LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>FASHLER LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>CTPROPS LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>NEW MOUNT DAISY LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3442,12 +3442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>LEOFRIC LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3929,19 +3929,19 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>AMIKOBA LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16459545</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4240,12 +4240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4278,12 +4278,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4354,12 +4354,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4423,19 +4423,19 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4506,12 +4506,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4544,12 +4544,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4582,12 +4582,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4620,12 +4620,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4658,12 +4658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4696,12 +4696,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4734,12 +4734,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4772,12 +4772,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4810,12 +4810,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4848,12 +4848,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4924,12 +4924,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4962,12 +4962,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5000,12 +5000,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5038,12 +5038,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5152,12 +5152,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5190,12 +5190,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5228,12 +5228,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5304,12 +5304,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>NEWMINERALS LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16455878</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5380,12 +5380,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5418,12 +5418,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5448,6 +5448,196 @@
         </is>
       </c>
       <c r="H132" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>16456765</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>OPM ILL GO SHOP 4U LTD</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>16456764</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>WGHR JI LTD</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>16456731</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>BKK EQUESTRIAN LTD</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>16456733</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>16459542</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CLARITY VENTURE SUPPORT LTD</t>
+          <t>BILLION SCENTS LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460376</t>
+          <t>16460413</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MISBAH GOODS LTD</t>
+          <t>SKINNY SISTERS LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16460377</t>
+          <t>16460411</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PAVITA LOGISTICS LTD</t>
+          <t>HEART OF TOWN II LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16460373</t>
+          <t>16460410</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ROAMING RETAIL LIMITED</t>
+          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16460382</t>
+          <t>16460407</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TRUE NORTH JOINERY LTD</t>
+          <t>JAMIL TALIB LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460359</t>
+          <t>16460389</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>VIVID MART LTD</t>
+          <t>PRACTICE MAKES PERFECT LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460370</t>
+          <t>16460388</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MASTER THE CHAIN LTD</t>
+          <t>YAKO CASINO LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16460358</t>
+          <t>16460391</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FONETHICS SOLUTIONS LTD</t>
+          <t>MINESHOCK LABS LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>SC848969</t>
+          <t>16460393</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
+          <t>SURREYSIDECOMPS LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460353</t>
+          <t>16460422</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>FAMILY COMMREPORT LTD</t>
+          <t>HAYES PARTNERS LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16460356</t>
+          <t>16460412</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -922,24 +922,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BANDOS BY ADEBISI LTD</t>
+          <t>NPP RF2 LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460361</t>
+          <t>16460409</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VITANOVA LEARNING LIMITED</t>
+          <t>PROTO DSGN LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460384</t>
+          <t>16460406</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>MEARNS CLEANING SERVICES LTD</t>
+          <t>TIMBRA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460387</t>
+          <t>16460396</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MONEY MART LTD</t>
+          <t>CORNISH IT CONSULTING LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460383</t>
+          <t>16460395</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AA SELLER HUB LTD</t>
+          <t>RESTORCARE HEALTH LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460385</t>
+          <t>16460404</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MOTIVATION AND PROSPERITY LTD</t>
+          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460379</t>
+          <t>16460402</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>GMS7 LIMITED</t>
+          <t>COACHED BY JESS LIMITED</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16460386</t>
+          <t>16460392</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>NARCISSIST APPAREL LTD</t>
+          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460378</t>
+          <t>16460403</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
+          <t>ARORA MATERIALS LIMITED</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460375</t>
+          <t>16460405</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LUXCOMMERCE LTD</t>
+          <t>UNCOMFORTABLE CHATS LIMITED</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460360</t>
+          <t>16460394</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CLEARLABS PERFORMANCE LTD</t>
+          <t>CC GARAGE LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460364</t>
+          <t>16460397</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ACCORD FIRE DOORS LTD</t>
+          <t>GS GEPE II SIDECAR IV GP LLP</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16460363</t>
+          <t>SO308186</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1378,24 +1378,24 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>LITBUILD LTD</t>
+          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16460368</t>
+          <t>SC848970</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2BCLOTHING LTD</t>
+          <t>PREMSPY HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16460354</t>
+          <t>SC848971</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>MAK'S TRADERS LTD</t>
+          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16460355</t>
+          <t>16460400</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
+          <t>AMGT HOLDING LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16460374</t>
+          <t>16460401</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SKYFREIGHTGLOBAL LTD</t>
+          <t>DOME DYNAMICS LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16460366</t>
+          <t>16460416</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>ETECH VENTURE LIMITED</t>
+          <t>LC COURIERS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16460372</t>
+          <t>16460390</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ORIENT CANTEEN LTD</t>
+          <t>LA AUTOMOTIVE LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16460365</t>
+          <t>16460421</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>OMID'S ENTERPRISE LTD</t>
+          <t>SMARTY SPROUTS LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16460381</t>
+          <t>16460399</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CLEANING MONK LTD</t>
+          <t>DEXKAANE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16460369</t>
+          <t>16460419</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MASR PROPERTIES LTD</t>
+          <t>AGS STRUCTURAL OUTPUTS LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16460367</t>
+          <t>16460420</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>BY FATOU JAI LTD</t>
+          <t>NEW CROSS LOCAL LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16460371</t>
+          <t>16460417</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FIND YOUR INDUSTRY LTD</t>
+          <t>INJECTIVE AESTHETICS LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16460362</t>
+          <t>16460415</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1846,17 +1846,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>PARDS MART LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16460414</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1867,12 +1867,12 @@
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1884,17 +1884,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>16460408</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1905,12 +1905,12 @@
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1922,17 +1922,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>RATHDOWN LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16460398</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1943,12 +1943,12 @@
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1960,33 +1960,33 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>HOLMCROFT LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>OE033935</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1998,17 +1998,17 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>HEALTHY SWEETS UK LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16460418</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2019,12 +2019,12 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2036,17 +2036,17 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2057,12 +2057,12 @@
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2074,17 +2074,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2095,12 +2095,12 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2112,17 +2112,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2133,12 +2133,12 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2150,17 +2150,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2171,12 +2171,12 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2188,17 +2188,17 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2209,12 +2209,12 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2226,17 +2226,17 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2247,12 +2247,12 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2264,17 +2264,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2285,12 +2285,12 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2302,17 +2302,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2323,12 +2323,12 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2340,17 +2340,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2361,12 +2361,12 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2378,17 +2378,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>GMS7 LIMITED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16460386</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2399,12 +2399,12 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2416,17 +2416,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2437,12 +2437,12 @@
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2454,17 +2454,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2475,12 +2475,12 @@
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2492,17 +2492,17 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2513,12 +2513,12 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2530,17 +2530,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2551,12 +2551,12 @@
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2568,17 +2568,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2589,12 +2589,12 @@
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2606,17 +2606,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2627,12 +2627,12 @@
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2644,17 +2644,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2665,12 +2665,12 @@
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2682,17 +2682,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2703,12 +2703,12 @@
       <c r="E60" t="inlineStr"/>
       <c r="F60" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2720,17 +2720,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2741,12 +2741,12 @@
       <c r="E61" t="inlineStr"/>
       <c r="F61" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2758,17 +2758,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2779,12 +2779,12 @@
       <c r="E62" t="inlineStr"/>
       <c r="F62" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2796,17 +2796,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2817,12 +2817,12 @@
       <c r="E63" t="inlineStr"/>
       <c r="F63" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2834,17 +2834,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>AA SELLER HUB LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16460385</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2855,12 +2855,12 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2872,17 +2872,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2893,12 +2893,12 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2910,17 +2910,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2931,12 +2931,12 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2948,17 +2948,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2969,12 +2969,12 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2986,17 +2986,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -3007,12 +3007,12 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3024,17 +3024,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -3045,12 +3045,12 @@
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3062,17 +3062,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -3083,12 +3083,12 @@
       <c r="E70" t="inlineStr"/>
       <c r="F70" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3100,17 +3100,17 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -3121,12 +3121,12 @@
       <c r="E71" t="inlineStr"/>
       <c r="F71" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3138,17 +3138,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -3159,12 +3159,12 @@
       <c r="E72" t="inlineStr"/>
       <c r="F72" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3176,17 +3176,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -3197,12 +3197,12 @@
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3214,17 +3214,17 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>VITANOVA LEARNING LIMITED</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16460384</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -3235,12 +3235,12 @@
       <c r="E74" t="inlineStr"/>
       <c r="F74" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3252,17 +3252,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>MEARNS CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16460387</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3273,12 +3273,12 @@
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3290,17 +3290,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>MONEY MART LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16460383</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3311,12 +3311,12 @@
       <c r="E76" t="inlineStr"/>
       <c r="F76" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3442,12 +3442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3929,19 +3929,19 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>NEWMINERALS LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16455878</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4240,12 +4240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4278,12 +4278,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4354,12 +4354,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4423,19 +4423,19 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4506,12 +4506,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4544,12 +4544,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4620,12 +4620,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4658,12 +4658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>FITCARDIOLOGY LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16457244</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4696,12 +4696,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4734,12 +4734,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4772,12 +4772,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4810,12 +4810,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4848,12 +4848,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4924,12 +4924,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4962,12 +4962,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -5000,12 +5000,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5038,12 +5038,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5152,12 +5152,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5190,12 +5190,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5228,12 +5228,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5304,12 +5304,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5380,12 +5380,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5418,12 +5418,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5456,12 +5456,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5494,12 +5494,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5532,12 +5532,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5570,12 +5570,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5608,12 +5608,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5638,6 +5638,1488 @@
         </is>
       </c>
       <c r="H137" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>CAZAM PROPERTY LTD</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>16459061</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>PANEER CRAFT LTD. LIMITED</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>16457973</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>16459543</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>16459062</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>16456227</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>FINTIVITY LTD</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>16459072</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>FASHLER LTD</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>16459082</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>CTPROPS LIMITED</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>16459084</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>NEW MOUNT DAISY LIMITED</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>16457237</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>GLIMORA GLOBAL LTD</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>16457265</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>POWERS ELECTRICAL LTD</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>16457270</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>16457272</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>16457267</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>MARKETING DG LTD</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>16456254</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>ELLISA'S BEAUTY LTD</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>16456750</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>16456242</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>16456243</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>SOCIAL SLOT LTD</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>16456245</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>UKG BB HOLDINGS LTD</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>16456246</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>KINARA PROPERTIES LTD</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>16456244</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>JORDAN CAMPBELL LTD</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>NI729519</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Y-3 APARTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>16457262</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>AMIKOBA LTD</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>16459545</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>16457230</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>LP024176</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>16456250</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>FARYAL ENTERPRISE LIMITED</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>16456748</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>HOUSE OF RODEOS LTD</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>16456218</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>DEHBINI LIMITED</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>16456493</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>DEVIPROX LTD</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>16457970</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>LEADANICS LIMITED</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>16457965</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>AUSTIN RICE LTD</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>NI729522</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>A STAR HEALTH LTD</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>16456234</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>LEOFRIC LTD</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>16456712</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>BREEZY HOMES LIMITED</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>16456709</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ATSP FIN LTD</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>16456749</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>16457279</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>INSPOCL LTD</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>16457967</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>16456735</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H176"/>
+  <dimension ref="A1:H231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DERICA SOLUTIONS LTD</t>
+          <t>BARKADEMY LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16460357</t>
+          <t>16460454</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BILLION SCENTS LTD</t>
+          <t>LOGENTIA LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460413</t>
+          <t>16460448</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SKINNY SISTERS LTD</t>
+          <t>FARIS ELHADI GLOBAL . LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16460411</t>
+          <t>16460498</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HEART OF TOWN II LIMITED</t>
+          <t>ASHTON PROPERTY HOLDING LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16460410</t>
+          <t>16460486</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
+          <t>KINTBURY ECO CENTRE CIC</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16460407</t>
+          <t>16460500</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JAMIL TALIB LTD</t>
+          <t>JBNC LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460389</t>
+          <t>16460484</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PRACTICE MAKES PERFECT LTD</t>
+          <t>J W PUBS NE LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460388</t>
+          <t>16460482</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>YAKO CASINO LTD</t>
+          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16460391</t>
+          <t>16460487</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>MINESHOCK LABS LTD</t>
+          <t>XYZ COMMERCE LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16460393</t>
+          <t>16460489</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SURREYSIDECOMPS LTD</t>
+          <t>SHOWBIZ PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460422</t>
+          <t>16460496</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HAYES PARTNERS LTD</t>
+          <t>IMPERIUM ECHELON LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16460412</t>
+          <t>16460493</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -922,24 +922,24 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>NPP RF2 LIMITED</t>
+          <t>DELTA ROMEO ONE LIMITED</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460409</t>
+          <t>16460495</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PROTO DSGN LIMITED</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460406</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TIMBRA PROJECTS LTD</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460396</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CORNISH IT CONSULTING LTD</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460395</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1074,24 +1074,24 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>RESTORCARE HEALTH LTD</t>
+          <t>VIRTUAL CO. UK LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460404</t>
+          <t>16460502</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
+          <t>DEESTORE LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460402</t>
+          <t>16460510</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>COACHED BY JESS LIMITED</t>
+          <t>AAH MART LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16460392</t>
+          <t>16460464</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
+          <t>THE GOBLIN WORKSHOP LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460403</t>
+          <t>16460465</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ARORA MATERIALS LIMITED</t>
+          <t>ABSAILING NDT LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460405</t>
+          <t>16460462</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>UNCOMFORTABLE CHATS LIMITED</t>
+          <t>TONPA LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460394</t>
+          <t>16460471</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CC GARAGE LTD</t>
+          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460397</t>
+          <t>16460478</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>GS GEPE II SIDECAR IV GP LLP</t>
+          <t>DERICA SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SO308186</t>
+          <t>16460357</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1378,24 +1378,24 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
+          <t>MONEY MART LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SC848970</t>
+          <t>16460383</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>PREMSPY HOLDING LIMITED</t>
+          <t>MEARNS CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>SC848971</t>
+          <t>16460387</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
+          <t>VITANOVA LEARNING LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16460400</t>
+          <t>16460384</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AMGT HOLDING LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16460401</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>DOME DYNAMICS LTD</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16460416</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>LC COURIERS LTD</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16460390</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>LA AUTOMOTIVE LTD</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16460421</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SMARTY SPROUTS LTD</t>
+          <t>EDI&amp;ALEX LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16460399</t>
+          <t>16460449</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>DEXKAANE SERVICES LIMITED</t>
+          <t>FAST FREE WEBSITES LIMITED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16460419</t>
+          <t>16460451</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AGS STRUCTURAL OUTPUTS LTD</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16460420</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>NEW CROSS LOCAL LIMITED</t>
+          <t>A&amp;A OPTICS LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16460417</t>
+          <t>SC848975</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>INJECTIVE AESTHETICS LTD</t>
+          <t>NEON LOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16460415</t>
+          <t>16460453</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>PARDS MART LTD</t>
+          <t>TNKLOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16460414</t>
+          <t>16460447</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
+          <t>CLIFTON DOG TRAINING LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16460408</t>
+          <t>16460445</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>RATHDOWN LTD</t>
+          <t>DMOJ 2025 LIMITED</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16460398</t>
+          <t>16460446</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HOLMCROFT LIMITED</t>
+          <t>JJ BROS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>OE033935</t>
+          <t>16460519</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HEALTHY SWEETS UK LTD</t>
+          <t>RICH LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16460418</t>
+          <t>16460512</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MASR PROPERTIES LTD</t>
+          <t>ANAM CARA JEWELLERY LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16460367</t>
+          <t>16460516</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
+          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16460374</t>
+          <t>16460442</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
+          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16460375</t>
+          <t>16460430</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LUXCOMMERCE LTD</t>
+          <t>LASHESBYS LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16460360</t>
+          <t>SC848973</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CLEARLABS PERFORMANCE LTD</t>
+          <t>MAAM CO. LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16460364</t>
+          <t>SC848972</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>ACCORD FIRE DOORS LTD</t>
+          <t>CLASSFORGE LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16460363</t>
+          <t>16460436</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LITBUILD LTD</t>
+          <t>LIMITLESSCONTRACTS LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16460368</t>
+          <t>16460553</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>MAK'S TRADERS LTD</t>
+          <t>CLOSUR LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16460355</t>
+          <t>16460556</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SKYFREIGHTGLOBAL LTD</t>
+          <t>CONTINENTAL COACHES LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16460366</t>
+          <t>16460551</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2378,12 +2378,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GMS7 LIMITED</t>
+          <t>THE SOL COLLECTION LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16460386</t>
+          <t>16460547</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ETECH VENTURE LIMITED</t>
+          <t>C &amp; D ENVIRONMENT LIMITED</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16460372</t>
+          <t>16460548</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ORIENT CANTEEN LTD</t>
+          <t>ALFA HG LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16460365</t>
+          <t>16460543</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>OMID'S ENTERPRISE LTD</t>
+          <t>PEARTREE GARAGE LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16460381</t>
+          <t>16460535</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CLEANING MONK LTD</t>
+          <t>SOTAMI LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16460369</t>
+          <t>16460531</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>BY FATOU JAI LTD</t>
+          <t>MAITI HOMES LIMITED</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16460371</t>
+          <t>16460530</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>FIND YOUR INDUSTRY LTD</t>
+          <t>X1 UK SOLUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16460362</t>
+          <t>16460527</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>NARCISSIST APPAREL LTD</t>
+          <t>CINNABAR HEALTH TRADING CO., LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16460378</t>
+          <t>16460515</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>2BCLOTHING LTD</t>
+          <t>BUILDERS SCOPE LIMITED</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16460354</t>
+          <t>16460514</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>MOTIVATION AND PROSPERITY LTD</t>
+          <t>NICTHEBOY TECHNOLOGY LTD.</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16460379</t>
+          <t>16460520</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>FONETHICS SOLUTIONS LTD</t>
+          <t>SPIDOCRAFT LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>SC848969</t>
+          <t>16460439</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CLARITY VENTURE SUPPORT LTD</t>
+          <t>KVP VENTURES LIMITED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16460376</t>
+          <t>16460424</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2822,24 +2822,24 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>AA SELLER HUB LTD</t>
+          <t>GMEDVEDGROUP LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16460385</t>
+          <t>16460434</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>PAVITA LOGISTICS LTD</t>
+          <t>EXTERIOR EDGE LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16460373</t>
+          <t>16460426</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ROAMING RETAIL LIMITED</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16460382</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>TRUE NORTH JOINERY LTD</t>
+          <t>BUILDASSIST SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16460359</t>
+          <t>16460452</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>VIVID MART LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16460370</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MASTER THE CHAIN LTD</t>
+          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16460358</t>
+          <t>16460400</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MISBAH GOODS LTD</t>
+          <t>DOME DYNAMICS LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16460377</t>
+          <t>16460416</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
+          <t>LC COURIERS LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16460353</t>
+          <t>16460390</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>FAMILY COMMREPORT LTD</t>
+          <t>LA AUTOMOTIVE LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16460356</t>
+          <t>16460421</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BANDOS BY ADEBISI LTD</t>
+          <t>SMARTY SPROUTS LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16460361</t>
+          <t>16460399</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>VITANOVA LEARNING LIMITED</t>
+          <t>DEXKAANE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16460384</t>
+          <t>16460419</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MEARNS CLEANING SERVICES LTD</t>
+          <t>AGS STRUCTURAL OUTPUTS LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16460387</t>
+          <t>16460420</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MONEY MART LTD</t>
+          <t>NEW CROSS LOCAL LIMITED</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16460383</t>
+          <t>16460417</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3328,17 +3328,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>INJECTIVE AESTHETICS LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16460415</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3349,12 +3349,12 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3366,17 +3366,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16460408</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -3387,12 +3387,12 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3404,17 +3404,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>RATHDOWN LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16460398</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -3425,12 +3425,12 @@
       <c r="E79" t="inlineStr"/>
       <c r="F79" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3442,33 +3442,33 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>HOLMCROFT LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>OE033935</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3480,17 +3480,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>HEALTHY SWEETS UK LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16460418</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3501,12 +3501,12 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3518,17 +3518,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -3539,12 +3539,12 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3556,17 +3556,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -3577,12 +3577,12 @@
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3594,17 +3594,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -3615,12 +3615,12 @@
       <c r="E84" t="inlineStr"/>
       <c r="F84" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3632,17 +3632,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -3653,12 +3653,12 @@
       <c r="E85" t="inlineStr"/>
       <c r="F85" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3670,17 +3670,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -3691,12 +3691,12 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3708,17 +3708,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -3729,12 +3729,12 @@
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3746,17 +3746,17 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -3767,12 +3767,12 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3784,17 +3784,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3805,12 +3805,12 @@
       <c r="E89" t="inlineStr"/>
       <c r="F89" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3822,17 +3822,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3843,12 +3843,12 @@
       <c r="E90" t="inlineStr"/>
       <c r="F90" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3860,17 +3860,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3881,12 +3881,12 @@
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3898,17 +3898,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>GMS7 LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16460386</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -3919,12 +3919,12 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3936,17 +3936,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -3957,12 +3957,12 @@
       <c r="E93" t="inlineStr"/>
       <c r="F93" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3974,17 +3974,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
@@ -3995,12 +3995,12 @@
       <c r="E94" t="inlineStr"/>
       <c r="F94" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4012,17 +4012,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -4033,12 +4033,12 @@
       <c r="E95" t="inlineStr"/>
       <c r="F95" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4050,17 +4050,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -4071,12 +4071,12 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4088,17 +4088,17 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -4109,12 +4109,12 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4126,17 +4126,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -4147,12 +4147,12 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4164,17 +4164,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>AMGT HOLDING LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16460401</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -4185,12 +4185,12 @@
       <c r="E99" t="inlineStr"/>
       <c r="F99" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4202,17 +4202,17 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>PARDS MART LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16460414</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -4223,12 +4223,12 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4240,17 +4240,17 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>PREMSPY HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>SC848971</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -4261,12 +4261,12 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4278,17 +4278,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>MINESHOCK LABS LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16460393</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -4299,12 +4299,12 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4316,17 +4316,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -4337,12 +4337,12 @@
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4354,17 +4354,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>AA SELLER HUB LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16460385</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -4375,12 +4375,12 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4392,17 +4392,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -4413,12 +4413,12 @@
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4430,17 +4430,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4451,12 +4451,12 @@
       <c r="E106" t="inlineStr"/>
       <c r="F106" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4468,17 +4468,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -4489,12 +4489,12 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4506,17 +4506,17 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>SC848970</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -4527,12 +4527,12 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4544,17 +4544,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -4565,12 +4565,12 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4582,17 +4582,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>BILLION SCENTS LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16460413</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -4603,12 +4603,12 @@
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4620,17 +4620,17 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>SKINNY SISTERS LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16460411</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -4641,12 +4641,12 @@
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4658,17 +4658,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>HEART OF TOWN II LIMITED</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16460410</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -4679,12 +4679,12 @@
       <c r="E112" t="inlineStr"/>
       <c r="F112" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4696,17 +4696,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16460407</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -4717,12 +4717,12 @@
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4734,17 +4734,17 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>JAMIL TALIB LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16460389</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -4755,12 +4755,12 @@
       <c r="E114" t="inlineStr"/>
       <c r="F114" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4772,17 +4772,17 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>PRACTICE MAKES PERFECT LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>16460388</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -4793,12 +4793,12 @@
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4810,17 +4810,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>YAKO CASINO LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16460391</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -4831,12 +4831,12 @@
       <c r="E116" t="inlineStr"/>
       <c r="F116" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4848,17 +4848,17 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -4869,12 +4869,12 @@
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -4886,17 +4886,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>SURREYSIDECOMPS LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16460422</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -4907,12 +4907,12 @@
       <c r="E118" t="inlineStr"/>
       <c r="F118" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4924,17 +4924,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16460402</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -4945,12 +4945,12 @@
       <c r="E119" t="inlineStr"/>
       <c r="F119" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4962,17 +4962,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>HAYES PARTNERS LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16460412</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -4983,34 +4983,34 @@
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>GS GEPE II SIDECAR IV GP LLP</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>SO308186</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -5021,34 +5021,34 @@
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>CC GARAGE LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16460397</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -5059,12 +5059,12 @@
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5076,17 +5076,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>ARORA MATERIALS LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16460405</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -5097,12 +5097,12 @@
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5114,17 +5114,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16460403</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -5135,12 +5135,12 @@
       <c r="E124" t="inlineStr"/>
       <c r="F124" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5152,17 +5152,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>COACHED BY JESS LIMITED</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16460392</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -5173,12 +5173,12 @@
       <c r="E125" t="inlineStr"/>
       <c r="F125" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5190,17 +5190,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>UNCOMFORTABLE CHATS LIMITED</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16460394</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -5211,12 +5211,12 @@
       <c r="E126" t="inlineStr"/>
       <c r="F126" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5228,17 +5228,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>RESTORCARE HEALTH LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16460404</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -5249,12 +5249,12 @@
       <c r="E127" t="inlineStr"/>
       <c r="F127" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5266,17 +5266,17 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>CORNISH IT CONSULTING LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16460395</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -5287,12 +5287,12 @@
       <c r="E128" t="inlineStr"/>
       <c r="F128" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5304,17 +5304,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>TIMBRA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16460396</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -5325,12 +5325,12 @@
       <c r="E129" t="inlineStr"/>
       <c r="F129" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5342,17 +5342,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>PROTO DSGN LIMITED</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16460406</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -5363,12 +5363,12 @@
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5380,17 +5380,17 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>NPP RF2 LIMITED</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16460409</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
@@ -5401,12 +5401,12 @@
       <c r="E131" t="inlineStr"/>
       <c r="F131" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5418,12 +5418,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5456,12 +5456,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5494,12 +5494,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5532,12 +5532,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5570,12 +5570,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>AMIKOBA LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16459545</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5608,12 +5608,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5646,12 +5646,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5677,19 +5677,19 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5722,12 +5722,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>HOUSE OF RODEOS LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5836,12 +5836,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5874,12 +5874,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5912,12 +5912,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5950,12 +5950,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5988,12 +5988,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>LEOFRIC LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6026,12 +6026,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6064,12 +6064,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6095,19 +6095,19 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6140,12 +6140,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6178,12 +6178,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6216,12 +6216,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6254,12 +6254,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6292,12 +6292,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6330,12 +6330,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6368,12 +6368,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6406,12 +6406,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6444,12 +6444,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6482,12 +6482,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6520,12 +6520,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6589,19 +6589,19 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6634,12 +6634,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6672,12 +6672,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6710,12 +6710,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6748,12 +6748,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6786,12 +6786,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6824,12 +6824,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6900,12 +6900,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6938,12 +6938,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6976,12 +6976,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>NEWMINERALS LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16455878</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7014,12 +7014,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7052,12 +7052,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7090,12 +7090,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7120,6 +7120,2096 @@
         </is>
       </c>
       <c r="H176" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>HOLYWELL HOMES LTD</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>16457259</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SSFBN LIMITED</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>16459541</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>16459077</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>16459064</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr"/>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>16459078</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>16457238</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>GODMADE LTD</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>16459074</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr"/>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>BUILTBRITE LTD</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>16457962</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>OMR ELECTRICAL LTD</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>16457261</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>GUIDED BRAKE SERVICE LTD</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>16457264</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>INDEXIE LTD</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>16459546</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>LGAM PROPERTIES LTD</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>16457957</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>INP SERVICES LTD</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>16459069</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr"/>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>MEC SURVEYORS LTD</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>16456734</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>16456756</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>FITCARDIOLOGY LTD</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>16457244</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>S&amp;S ISTITHMĀR LTD</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>16459522</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr"/>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>16456242</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>FINTIVITY LTD</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>16459072</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>16459059</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>M S GROUP FIRST UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>16459057</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>CAZAM PROPERTY LTD</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>16459061</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>PANEER CRAFT LTD. LIMITED</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>16457973</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>16459543</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>16459062</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>16456227</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>FASHLER LTD</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>16459082</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>TASHAN MEDIA LTD</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>16459523</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>CTPROPS LIMITED</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>16459084</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>NEW MOUNT DAISY LIMITED</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>16457237</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>GLIMORA GLOBAL LTD</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>16457265</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>POWERS ELECTRICAL LTD</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>16457270</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>16457272</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>MARKETING DG LTD</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>16456254</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>ELLISA'S BEAUTY LTD</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>16456750</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>DRIVERIGHT REPAIRS LTD</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>16459058</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>GK ZYGALA LIMITED</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>16457953</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>MAPLE (510) LIMITED</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>16457954</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>16456208</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>CLICKSPHARE CRAFT LTD</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>16459521</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>THE CHAIR SALON LONDON LTD</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>16459512</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>SPYRO APPAREL LTD</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>16459515</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>MILLE TRADING LTD</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>16459518</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>CLARK AND CO DESIGN LIMITED</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>16459516</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>16459514</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>16459549</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>JC DEEP TECH LTD</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>16456256</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>CHIMNEY CHAPS LTD</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>16456261</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>STOA PROJECTS LTD</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>16456212</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>IDCHEM CONSULTING LIMITED</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>16456205</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>METAHAVEN LTD</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>16457273</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>16456203</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>ROCK&amp;WALLS LTD</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>16457974</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE VETS LTD</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>16457975</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>16459520</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H231"/>
+  <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BARKADEMY LTD</t>
+          <t>TIMBRA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16460454</t>
+          <t>16460396</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LOGENTIA LTD</t>
+          <t>HAYES PARTNERS LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460448</t>
+          <t>16460412</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -580,24 +580,24 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FARIS ELHADI GLOBAL . LTD</t>
+          <t>GS GEPE II SIDECAR IV GP LLP</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16460498</t>
+          <t>SO308186</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,24 +618,24 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ASHTON PROPERTY HOLDING LTD</t>
+          <t>CC GARAGE LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16460486</t>
+          <t>16460397</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>KINTBURY ECO CENTRE CIC</t>
+          <t>ARORA MATERIALS LIMITED</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16460500</t>
+          <t>16460405</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>JBNC LIMITED</t>
+          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460484</t>
+          <t>16460403</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>J W PUBS NE LTD</t>
+          <t>COACHED BY JESS LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460482</t>
+          <t>16460392</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
+          <t>UNCOMFORTABLE CHATS LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16460487</t>
+          <t>16460394</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>XYZ COMMERCE LTD</t>
+          <t>RESTORCARE HEALTH LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16460489</t>
+          <t>16460404</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SHOWBIZ PRODUCTIONS LTD</t>
+          <t>CORNISH IT CONSULTING LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460496</t>
+          <t>16460395</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IMPERIUM ECHELON LTD</t>
+          <t>PROTO DSGN LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16460493</t>
+          <t>16460406</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>DELTA ROMEO ONE LIMITED</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460495</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DEE BEE TRADING LTD</t>
+          <t>NPP RF2 LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460511</t>
+          <t>16460409</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>THE SPICE INVADERS LTD</t>
+          <t>BARKADEMY LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460505</t>
+          <t>16460454</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
+          <t>SIMPLY MLC LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460503</t>
+          <t>16460691</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1074,24 +1074,24 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>VIRTUAL CO. UK LTD</t>
+          <t>LXG LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460502</t>
+          <t>16460686</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DEESTORE LTD</t>
+          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460510</t>
+          <t>16460690</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AAH MART LTD</t>
+          <t>WENSUM MEDIATION LIMITED</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16460464</t>
+          <t>16460696</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>THE GOBLIN WORKSHOP LTD</t>
+          <t>THE EMMANUEL CENTRE CIC</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460465</t>
+          <t>16460695</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ABSAILING NDT LTD</t>
+          <t>DB RAIL INFRASTRUCTURE LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460462</t>
+          <t>16460719</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>TONPA LTD</t>
+          <t>STUDIO FOUNDLING LIMITED</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460471</t>
+          <t>16460717</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
+          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460478</t>
+          <t>16460402</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DERICA SOLUTIONS LTD</t>
+          <t>SURREYSIDECOMPS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16460357</t>
+          <t>16460422</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MONEY MART LTD</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16460383</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>MEARNS CLEANING SERVICES LTD</t>
+          <t>YAKO CASINO LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16460387</t>
+          <t>16460391</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VITANOVA LEARNING LIMITED</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16460384</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BANDOS BY ADEBISI LTD</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16460361</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FAMILY COMMREPORT LTD</t>
+          <t>AMGT HOLDING LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16460356</t>
+          <t>16460401</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
+          <t>PARDS MART LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16460353</t>
+          <t>16460414</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>MISBAH GOODS LTD</t>
+          <t>PREMSPY HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16460377</t>
+          <t>SC848971</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>EDI&amp;ALEX LTD</t>
+          <t>MINESHOCK LABS LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16460449</t>
+          <t>16460393</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>FAST FREE WEBSITES LIMITED</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16460451</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>VIVID MART LTD</t>
+          <t>AA SELLER HUB LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16460370</t>
+          <t>16460385</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A&amp;A OPTICS LTD</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SC848975</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>NEON LOGISTICS LIMITED</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16460453</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TNKLOGISTICS LIMITED</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16460447</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CLIFTON DOG TRAINING LTD</t>
+          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16460445</t>
+          <t>SC848970</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>DMOJ 2025 LIMITED</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16460446</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>JJ BROS CONSTRUCTION LTD</t>
+          <t>BILLION SCENTS LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16460519</t>
+          <t>16460413</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>RICH LOGISTICS LTD</t>
+          <t>SKINNY SISTERS LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16460512</t>
+          <t>16460411</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ANAM CARA JEWELLERY LTD</t>
+          <t>HEART OF TOWN II LIMITED</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16460516</t>
+          <t>16460410</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
+          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16460442</t>
+          <t>16460407</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
+          <t>JAMIL TALIB LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16460430</t>
+          <t>16460389</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>LASHESBYS LIMITED</t>
+          <t>PRACTICE MAKES PERFECT LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>SC848973</t>
+          <t>16460388</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MAAM CO. LTD</t>
+          <t>INFINITE CARDS LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SC848972</t>
+          <t>16460713</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CLASSFORGE LTD</t>
+          <t>CORE YOU MEDIA LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16460436</t>
+          <t>16460709</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LIMITLESSCONTRACTS LTD</t>
+          <t>GOWERTON GOLF RANGE LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16460553</t>
+          <t>16460710</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CLOSUR LIMITED</t>
+          <t>INAYA HEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16460556</t>
+          <t>16460657</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CONTINENTAL COACHES LTD</t>
+          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16460551</t>
+          <t>16460624</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2378,12 +2378,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>THE SOL COLLECTION LTD</t>
+          <t>PADELHAUS (STRATFORD) LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16460547</t>
+          <t>16460627</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>C &amp; D ENVIRONMENT LIMITED</t>
+          <t>KINGS BARBER BOLTON LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16460548</t>
+          <t>16460636</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>ALFA HG LTD</t>
+          <t>TRIZITION LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16460543</t>
+          <t>16460611</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>PEARTREE GARAGE LTD</t>
+          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16460535</t>
+          <t>16460615</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2518,24 +2518,24 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOTAMI LTD</t>
+          <t>BLOOMSBURY EAST LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16460531</t>
+          <t>16460616</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MAITI HOMES LIMITED</t>
+          <t>NOMAD RIG LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16460530</t>
+          <t>16460571</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>X1 UK SOLUTIONS LIMITED</t>
+          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16460527</t>
+          <t>16460569</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CINNABAR HEALTH TRADING CO., LTD</t>
+          <t>SMART SKILLS ACADEMY LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16460515</t>
+          <t>16460568</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BUILDERS SCOPE LIMITED</t>
+          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16460514</t>
+          <t>16460582</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>NICTHEBOY TECHNOLOGY LTD.</t>
+          <t>H A REGISTRATIONS LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16460520</t>
+          <t>16460586</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SPIDOCRAFT LTD</t>
+          <t>DELWAR INVESTMENTS LIMITED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16460439</t>
+          <t>16460585</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2784,24 +2784,24 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>KVP VENTURES LIMITED</t>
+          <t>PRESSED &amp; FRESH LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16460424</t>
+          <t>16460587</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2822,24 +2822,24 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>GMEDVEDGROUP LTD</t>
+          <t>TADSTARMAN LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16460434</t>
+          <t>16460579</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EXTERIOR EDGE LTD</t>
+          <t>AMATHYST LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16460426</t>
+          <t>16460595</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>MASTER THE CHAIN LTD</t>
+          <t>BEEL WORLDWIDE SERVICES LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16460358</t>
+          <t>16460594</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BUILDASSIST SERVICES LIMITED</t>
+          <t>STYLED BY LC LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16460452</t>
+          <t>16460563</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>TRUE NORTH JOINERY LTD</t>
+          <t>STRIPCO LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16460359</t>
+          <t>16460564</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
+          <t>CLOCK IT TECH LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16460400</t>
+          <t>16460573</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>DOME DYNAMICS LTD</t>
+          <t>MIGHTY MARGATE CIC</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16460416</t>
+          <t>16460626</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LC COURIERS LTD</t>
+          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16460390</t>
+          <t>16460659</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>LA AUTOMOTIVE LTD</t>
+          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16460421</t>
+          <t>16460694</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SMARTY SPROUTS LTD</t>
+          <t>HOMEASE LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16460399</t>
+          <t>16460666</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>DEXKAANE SERVICES LIMITED</t>
+          <t>SADORP GLOBAL HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16460419</t>
+          <t>16460692</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>AGS STRUCTURAL OUTPUTS LTD</t>
+          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16460420</t>
+          <t>OC456787</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>NEW CROSS LOCAL LIMITED</t>
+          <t>INNOVATION MT LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16460417</t>
+          <t>16460646</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>INJECTIVE AESTHETICS LTD</t>
+          <t>BRANWELL PROJECTS LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16460415</t>
+          <t>16460653</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
+          <t>MAYTREE ELITE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16460408</t>
+          <t>16460650</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>RATHDOWN LTD</t>
+          <t>MEDIA WEB PRO LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16460398</t>
+          <t>16460644</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3442,12 +3442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HOLMCROFT LIMITED</t>
+          <t>ASPC CONTENT CO LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>OE033935</t>
+          <t>16460643</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3457,7 +3457,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -3468,7 +3468,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HEALTHY SWEETS UK LTD</t>
+          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16460418</t>
+          <t>16460649</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>MASR PROPERTIES LTD</t>
+          <t>SARASI LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16460367</t>
+          <t>16460670</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>FIND YOUR INDUSTRY LTD</t>
+          <t>YANG HAIJUN LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16460362</t>
+          <t>16460671</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
+          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16460374</t>
+          <t>16460669</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
+          <t>SAMVIV PARTNERS LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16460375</t>
+          <t>16460672</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3658,24 +3658,24 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>LUXCOMMERCE LTD</t>
+          <t>COREMARINE SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16460360</t>
+          <t>16460663</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CLEARLABS PERFORMANCE LTD</t>
+          <t>AMPERSAND MANAGEMENT UK LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16460364</t>
+          <t>16460662</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>ACCORD FIRE DOORS LTD</t>
+          <t>TRIPLE J HOUSING LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16460363</t>
+          <t>16460681</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>LITBUILD LTD</t>
+          <t>DXI DAILY NECESSITIES CO., LTD.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16460368</t>
+          <t>16460679</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>MAK'S TRADERS LTD</t>
+          <t>PREVENTR ACTIVE FIRE LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16460355</t>
+          <t>16460677</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SKYFREIGHTGLOBAL LTD</t>
+          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16460366</t>
+          <t>16460640</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GMS7 LIMITED</t>
+          <t>T-REX (GUILDFORD) LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16460386</t>
+          <t>16460637</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ETECH VENTURE LIMITED</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16460372</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ORIENT CANTEEN LTD</t>
+          <t>HORUSKY LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16460365</t>
+          <t>16460558</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>OMID'S ENTERPRISE LTD</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16460381</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CLEANING MONK LTD</t>
+          <t>DERICA SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16460369</t>
+          <t>16460357</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>BY FATOU JAI LTD</t>
+          <t>FAST FREE WEBSITES LIMITED</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16460371</t>
+          <t>16460451</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>ROAMING RETAIL LIMITED</t>
+          <t>EDI&amp;ALEX LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16460382</t>
+          <t>16460449</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>AMGT HOLDING LTD</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16460401</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>PARDS MART LTD</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16460414</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4240,12 +4240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>PREMSPY HOLDING LIMITED</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>SC848971</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4278,12 +4278,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>MINESHOCK LABS LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16460393</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>PAVITA LOGISTICS LTD</t>
+          <t>VITANOVA LEARNING LIMITED</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16460373</t>
+          <t>16460384</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4354,12 +4354,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>AA SELLER HUB LTD</t>
+          <t>MEARNS CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16460385</t>
+          <t>16460387</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CLARITY VENTURE SUPPORT LTD</t>
+          <t>MONEY MART LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16460376</t>
+          <t>16460383</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4430,12 +4430,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>FONETHICS SOLUTIONS LTD</t>
+          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>SC848969</t>
+          <t>16460478</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MOTIVATION AND PROSPERITY LTD</t>
+          <t>IMPERIUM ECHELON LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16460379</t>
+          <t>16460493</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4506,12 +4506,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
+          <t>ABSAILING NDT LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>SC848970</t>
+          <t>16460462</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4544,12 +4544,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>NARCISSIST APPAREL LTD</t>
+          <t>THE GOBLIN WORKSHOP LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16460378</t>
+          <t>16460465</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4582,12 +4582,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>BILLION SCENTS LTD</t>
+          <t>AAH MART LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16460413</t>
+          <t>16460464</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4620,12 +4620,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SKINNY SISTERS LTD</t>
+          <t>DEESTORE LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16460411</t>
+          <t>16460510</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4658,12 +4658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HEART OF TOWN II LIMITED</t>
+          <t>VIRTUAL CO. UK LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16460410</t>
+          <t>16460502</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4696,12 +4696,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16460407</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4722,24 +4722,24 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>JAMIL TALIB LTD</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16460389</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4772,12 +4772,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>PRACTICE MAKES PERFECT LTD</t>
+          <t>MAITI HOMES LIMITED</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16460388</t>
+          <t>16460530</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4810,12 +4810,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>YAKO CASINO LTD</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16460391</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4848,12 +4848,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>2BCLOTHING LTD</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16460354</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SURREYSIDECOMPS LTD</t>
+          <t>A&amp;A OPTICS LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16460422</t>
+          <t>SC848975</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4924,12 +4924,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
+          <t>NEON LOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16460402</t>
+          <t>16460453</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4962,12 +4962,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HAYES PARTNERS LTD</t>
+          <t>TNKLOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16460412</t>
+          <t>16460447</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4988,24 +4988,24 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>GS GEPE II SIDECAR IV GP LLP</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>SO308186</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5026,24 +5026,24 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CC GARAGE LTD</t>
+          <t>SOTAMI LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16460397</t>
+          <t>16460531</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>ARORA MATERIALS LIMITED</t>
+          <t>PEARTREE GARAGE LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16460405</t>
+          <t>16460535</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
+          <t>ALFA HG LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16460403</t>
+          <t>16460543</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5152,12 +5152,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>COACHED BY JESS LIMITED</t>
+          <t>C &amp; D ENVIRONMENT LIMITED</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16460392</t>
+          <t>16460548</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5190,12 +5190,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>UNCOMFORTABLE CHATS LIMITED</t>
+          <t>THE SOL COLLECTION LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16460394</t>
+          <t>16460547</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5228,12 +5228,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>RESTORCARE HEALTH LTD</t>
+          <t>CONTINENTAL COACHES LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16460404</t>
+          <t>16460551</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CORNISH IT CONSULTING LTD</t>
+          <t>CLOSUR LIMITED</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16460395</t>
+          <t>16460556</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5304,12 +5304,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TIMBRA PROJECTS LTD</t>
+          <t>LIMITLESSCONTRACTS LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16460396</t>
+          <t>16460553</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>PROTO DSGN LIMITED</t>
+          <t>CLASSFORGE LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16460406</t>
+          <t>16460436</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5380,12 +5380,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NPP RF2 LIMITED</t>
+          <t>MAAM CO. LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16460409</t>
+          <t>SC848972</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5418,17 +5418,17 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>LASHESBYS LIMITED</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>SC848973</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
@@ -5439,12 +5439,12 @@
       <c r="E132" t="inlineStr"/>
       <c r="F132" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5456,17 +5456,17 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16460430</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
@@ -5477,12 +5477,12 @@
       <c r="E133" t="inlineStr"/>
       <c r="F133" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5494,17 +5494,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16460442</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -5515,12 +5515,12 @@
       <c r="E134" t="inlineStr"/>
       <c r="F134" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5532,17 +5532,17 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>ANAM CARA JEWELLERY LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16460516</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -5553,12 +5553,12 @@
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5570,17 +5570,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>RICH LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16460512</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -5591,12 +5591,12 @@
       <c r="E136" t="inlineStr"/>
       <c r="F136" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5608,17 +5608,17 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>JJ BROS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16460519</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -5629,12 +5629,12 @@
       <c r="E137" t="inlineStr"/>
       <c r="F137" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5646,17 +5646,17 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>DMOJ 2025 LIMITED</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16460446</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -5667,34 +5667,34 @@
       <c r="E138" t="inlineStr"/>
       <c r="F138" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>CLIFTON DOG TRAINING LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16460445</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
@@ -5705,12 +5705,12 @@
       <c r="E139" t="inlineStr"/>
       <c r="F139" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5722,17 +5722,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>DELTA ROMEO ONE LIMITED</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16460495</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -5743,12 +5743,12 @@
       <c r="E140" t="inlineStr"/>
       <c r="F140" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -5760,17 +5760,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>TONPA LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16460471</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -5781,12 +5781,12 @@
       <c r="E141" t="inlineStr"/>
       <c r="F141" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -5798,17 +5798,17 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>SHOWBIZ PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16460496</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -5819,12 +5819,12 @@
       <c r="E142" t="inlineStr"/>
       <c r="F142" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -5836,17 +5836,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -5857,12 +5857,12 @@
       <c r="E143" t="inlineStr"/>
       <c r="F143" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -5874,17 +5874,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>SMARTY SPROUTS LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16460399</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -5895,12 +5895,12 @@
       <c r="E144" t="inlineStr"/>
       <c r="F144" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -5912,17 +5912,17 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>DEXKAANE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16460419</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -5933,12 +5933,12 @@
       <c r="E145" t="inlineStr"/>
       <c r="F145" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -5950,17 +5950,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>AGS STRUCTURAL OUTPUTS LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16460420</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -5971,12 +5971,12 @@
       <c r="E146" t="inlineStr"/>
       <c r="F146" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -5988,17 +5988,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>NEW CROSS LOCAL LIMITED</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16460417</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -6009,12 +6009,12 @@
       <c r="E147" t="inlineStr"/>
       <c r="F147" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6026,17 +6026,17 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>INJECTIVE AESTHETICS LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16460415</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -6047,12 +6047,12 @@
       <c r="E148" t="inlineStr"/>
       <c r="F148" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6064,17 +6064,17 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16460408</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -6085,12 +6085,12 @@
       <c r="E149" t="inlineStr"/>
       <c r="F149" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6102,17 +6102,17 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>RATHDOWN LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16460398</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -6123,12 +6123,12 @@
       <c r="E150" t="inlineStr"/>
       <c r="F150" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6140,33 +6140,33 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>HOLMCROFT LIMITED</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>OE033935</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
       <c r="F151" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6178,17 +6178,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>XYZ COMMERCE LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16460489</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -6199,12 +6199,12 @@
       <c r="E152" t="inlineStr"/>
       <c r="F152" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6216,17 +6216,17 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -6237,12 +6237,12 @@
       <c r="E153" t="inlineStr"/>
       <c r="F153" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6254,17 +6254,17 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>LC COURIERS LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16460390</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
@@ -6275,12 +6275,12 @@
       <c r="E154" t="inlineStr"/>
       <c r="F154" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6292,17 +6292,17 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
@@ -6313,12 +6313,12 @@
       <c r="E155" t="inlineStr"/>
       <c r="F155" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6330,17 +6330,17 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -6351,12 +6351,12 @@
       <c r="E156" t="inlineStr"/>
       <c r="F156" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6368,17 +6368,17 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -6389,12 +6389,12 @@
       <c r="E157" t="inlineStr"/>
       <c r="F157" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6406,17 +6406,17 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -6427,12 +6427,12 @@
       <c r="E158" t="inlineStr"/>
       <c r="F158" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6444,17 +6444,17 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
@@ -6465,12 +6465,12 @@
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6482,17 +6482,17 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
@@ -6503,12 +6503,12 @@
       <c r="E160" t="inlineStr"/>
       <c r="F160" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6520,17 +6520,17 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -6541,12 +6541,12 @@
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -6558,17 +6558,17 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -6579,12 +6579,12 @@
       <c r="E162" t="inlineStr"/>
       <c r="F162" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -6596,17 +6596,17 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>GMS7 LIMITED</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16460386</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
@@ -6617,12 +6617,12 @@
       <c r="E163" t="inlineStr"/>
       <c r="F163" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6634,17 +6634,17 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>LA AUTOMOTIVE LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16460421</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -6655,12 +6655,12 @@
       <c r="E164" t="inlineStr"/>
       <c r="F164" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -6672,17 +6672,17 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>HEALTHY SWEETS UK LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16460418</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -6693,12 +6693,12 @@
       <c r="E165" t="inlineStr"/>
       <c r="F165" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -6710,17 +6710,17 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>DOME DYNAMICS LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16460416</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
@@ -6731,12 +6731,12 @@
       <c r="E166" t="inlineStr"/>
       <c r="F166" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -6748,17 +6748,17 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>CINNABAR HEALTH TRADING CO., LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>16460515</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -6769,12 +6769,12 @@
       <c r="E167" t="inlineStr"/>
       <c r="F167" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6786,17 +6786,17 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16460487</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
@@ -6807,12 +6807,12 @@
       <c r="E168" t="inlineStr"/>
       <c r="F168" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -6824,17 +6824,17 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16460400</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
@@ -6845,12 +6845,12 @@
       <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -6862,17 +6862,17 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>J W PUBS NE LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16460482</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
@@ -6883,12 +6883,12 @@
       <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -6900,17 +6900,17 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>JBNC LIMITED</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16460484</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
@@ -6921,12 +6921,12 @@
       <c r="E171" t="inlineStr"/>
       <c r="F171" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -6938,17 +6938,17 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>KINTBURY ECO CENTRE CIC</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16460500</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
@@ -6959,12 +6959,12 @@
       <c r="E172" t="inlineStr"/>
       <c r="F172" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -6976,17 +6976,17 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>ASHTON PROPERTY HOLDING LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16460486</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
@@ -6997,12 +6997,12 @@
       <c r="E173" t="inlineStr"/>
       <c r="F173" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7014,17 +7014,17 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>LOGENTIA LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16460448</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
@@ -7035,12 +7035,12 @@
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7052,17 +7052,17 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>X1 UK SOLUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16460527</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
@@ -7073,12 +7073,12 @@
       <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7090,17 +7090,17 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>FARIS ELHADI GLOBAL . LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16460498</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
@@ -7111,12 +7111,12 @@
       <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7128,17 +7128,17 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>BUILDERS SCOPE LIMITED</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16460514</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D177" t="inlineStr">
@@ -7149,12 +7149,12 @@
       <c r="E177" t="inlineStr"/>
       <c r="F177" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7166,17 +7166,17 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>GMEDVEDGROUP LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16460434</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
@@ -7187,12 +7187,12 @@
       <c r="E178" t="inlineStr"/>
       <c r="F178" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7204,17 +7204,17 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
@@ -7225,12 +7225,12 @@
       <c r="E179" t="inlineStr"/>
       <c r="F179" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7242,17 +7242,17 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
@@ -7263,12 +7263,12 @@
       <c r="E180" t="inlineStr"/>
       <c r="F180" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7280,17 +7280,17 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>EXTERIOR EDGE LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16460426</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
@@ -7301,12 +7301,12 @@
       <c r="E181" t="inlineStr"/>
       <c r="F181" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7318,17 +7318,17 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>BUILDASSIST SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16460452</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
@@ -7339,12 +7339,12 @@
       <c r="E182" t="inlineStr"/>
       <c r="F182" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7356,17 +7356,17 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>KVP VENTURES LIMITED</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16460424</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
@@ -7377,34 +7377,34 @@
       <c r="E183" t="inlineStr"/>
       <c r="F183" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>SPIDOCRAFT LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16460439</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
@@ -7415,12 +7415,12 @@
       <c r="E184" t="inlineStr"/>
       <c r="F184" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7432,17 +7432,17 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>NICTHEBOY TECHNOLOGY LTD.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16460520</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
@@ -7453,12 +7453,12 @@
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -7470,12 +7470,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7508,12 +7508,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7546,12 +7546,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7584,12 +7584,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7622,12 +7622,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7660,12 +7660,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7698,12 +7698,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7736,12 +7736,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7774,12 +7774,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7812,12 +7812,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7850,12 +7850,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7888,12 +7888,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7926,12 +7926,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7964,12 +7964,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8002,12 +8002,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8040,12 +8040,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8078,12 +8078,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8116,12 +8116,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8154,12 +8154,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8192,12 +8192,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8230,12 +8230,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8268,12 +8268,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8299,19 +8299,19 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8344,12 +8344,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8375,19 +8375,19 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8420,12 +8420,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8458,12 +8458,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8496,12 +8496,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8534,12 +8534,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8572,12 +8572,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8610,12 +8610,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8648,12 +8648,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8686,12 +8686,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8724,12 +8724,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8762,12 +8762,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8800,12 +8800,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8838,12 +8838,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8876,12 +8876,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8914,12 +8914,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8952,12 +8952,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8990,12 +8990,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9028,12 +9028,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9066,12 +9066,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9104,12 +9104,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9142,12 +9142,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9180,12 +9180,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9210,6 +9210,2058 @@
         </is>
       </c>
       <c r="H231" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>KINARA PROPERTIES LTD</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>16456244</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>DEHBINI LIMITED</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>16456493</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>JORDAN CAMPBELL LTD</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>NI729519</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Y-3 APARTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>16457262</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>AMIKOBA LTD</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>16459545</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>16457230</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>LP024176</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>16456250</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr"/>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>FARYAL ENTERPRISE LIMITED</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>16456748</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>HOUSE OF RODEOS LTD</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>16456218</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>BREEZY HOMES LIMITED</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>16456709</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr"/>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>DEVIPROX LTD</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>16457970</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr"/>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>AUSTIN RICE LTD</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>NI729522</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>A STAR HEALTH LTD</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>16456234</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>LEOFRIC LTD</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>16456712</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr"/>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>JANITZA UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>16456233</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr"/>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>JAI-HO STAFFING LTD</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>16456221</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>FLIP IT GLOBAL LTD</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>16456758</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>INP SERVICES LTD</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>16459069</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>FITCARDIOLOGY LTD</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>16457244</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>S&amp;S ISTITHMĀR LTD</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>16459522</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>16456242</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>FINTIVITY LTD</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>16459072</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>16459059</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>M S GROUP FIRST UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>16459057</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr"/>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>CAZAM PROPERTY LTD</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>16459061</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr"/>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>PANEER CRAFT LTD. LIMITED</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>16457973</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr"/>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>16459543</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr"/>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>16459062</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr"/>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>16456227</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>FASHLER LTD</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>16459082</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>TASHAN MEDIA LTD</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>16459523</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>CTPROPS LIMITED</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>16459084</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>NEW MOUNT DAISY LIMITED</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>16457237</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>16456756</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>LGAM PROPERTIES LTD</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>16457957</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>16456754</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>INDEXIE LTD</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>16459546</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>YSGARLAD PROPERTIES LTD</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>16457268</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>NEWMINERALS LTD</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>16455878</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>PROOFENANCE LTD</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>16457943</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>CALIBRE LDN LIMITED</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>16457945</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>NEHHEALTHCARE LTD</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>16456708</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>HOLYWELL HOMES LTD</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>16457259</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>SSFBN LIMITED</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>16459541</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>16459077</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>16459064</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>16459078</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>16457238</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr"/>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>GODMADE LTD</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>16459074</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr"/>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>BUILTBRITE LTD</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>16457962</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr"/>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>OMR ELECTRICAL LTD</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>16457261</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr"/>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>GUIDED BRAKE SERVICE LTD</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>16457264</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr"/>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>LEADANICS LIMITED</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>16457965</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr"/>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H285"/>
+  <dimension ref="A1:H327"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>TIMBRA PROJECTS LTD</t>
+          <t>JBNC LIMITED</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16460396</t>
+          <t>16460484</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HAYES PARTNERS LTD</t>
+          <t>DEXKAANE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460412</t>
+          <t>16460419</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,19 +585,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>GS GEPE II SIDECAR IV GP LLP</t>
+          <t>AGS STRUCTURAL OUTPUTS LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SO308186</t>
+          <t>16460420</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -623,19 +623,19 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CC GARAGE LTD</t>
+          <t>NEW CROSS LOCAL LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16460397</t>
+          <t>16460417</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ARORA MATERIALS LIMITED</t>
+          <t>INJECTIVE AESTHETICS LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16460405</t>
+          <t>16460415</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
+          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460403</t>
+          <t>16460408</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>COACHED BY JESS LIMITED</t>
+          <t>RATHDOWN LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460392</t>
+          <t>16460398</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UNCOMFORTABLE CHATS LIMITED</t>
+          <t>HOLMCROFT LIMITED</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16460394</t>
+          <t>OE033935</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>RESTORCARE HEALTH LTD</t>
+          <t>XYZ COMMERCE LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16460404</t>
+          <t>16460489</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CORNISH IT CONSULTING LTD</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460395</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>PROTO DSGN LIMITED</t>
+          <t>LC COURIERS LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16460406</t>
+          <t>16460390</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OMID'S ENTERPRISE LTD</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460381</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>NPP RF2 LIMITED</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460409</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>BARKADEMY LTD</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460454</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SIMPLY MLC LTD</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460691</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LXG LTD</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460686</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460690</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>WENSUM MEDIATION LIMITED</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16460696</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>THE EMMANUEL CENTRE CIC</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460695</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>DB RAIL INFRASTRUCTURE LTD</t>
+          <t>GMS7 LIMITED</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460719</t>
+          <t>16460386</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>STUDIO FOUNDLING LIMITED</t>
+          <t>LA AUTOMOTIVE LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460717</t>
+          <t>16460421</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
+          <t>TIMBRA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460402</t>
+          <t>16460396</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SURREYSIDECOMPS LTD</t>
+          <t>DOME DYNAMICS LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16460422</t>
+          <t>16460416</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2BCLOTHING LTD</t>
+          <t>CINNABAR HEALTH TRADING CO., LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16460354</t>
+          <t>16460515</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>YAKO CASINO LTD</t>
+          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16460391</t>
+          <t>16460487</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BY FATOU JAI LTD</t>
+          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16460371</t>
+          <t>16460400</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ROAMING RETAIL LIMITED</t>
+          <t>SMARTY SPROUTS LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16460382</t>
+          <t>16460399</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AMGT HOLDING LTD</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16460401</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>PARDS MART LTD</t>
+          <t>SHOWBIZ PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16460414</t>
+          <t>16460496</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PREMSPY HOLDING LIMITED</t>
+          <t>CLOSUR LIMITED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SC848971</t>
+          <t>16460556</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MINESHOCK LABS LTD</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16460393</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>PAVITA LOGISTICS LTD</t>
+          <t>A&amp;A OPTICS LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16460373</t>
+          <t>SC848975</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>AA SELLER HUB LTD</t>
+          <t>NEON LOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16460385</t>
+          <t>16460453</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CLARITY VENTURE SUPPORT LTD</t>
+          <t>TNKLOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16460376</t>
+          <t>16460447</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>FONETHICS SOLUTIONS LTD</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SC848969</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MOTIVATION AND PROSPERITY LTD</t>
+          <t>SOTAMI LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16460379</t>
+          <t>16460531</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
+          <t>PEARTREE GARAGE LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SC848970</t>
+          <t>16460535</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>NARCISSIST APPAREL LTD</t>
+          <t>ALFA HG LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16460378</t>
+          <t>16460543</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>BILLION SCENTS LTD</t>
+          <t>C &amp; D ENVIRONMENT LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16460413</t>
+          <t>16460548</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SKINNY SISTERS LTD</t>
+          <t>THE SOL COLLECTION LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16460411</t>
+          <t>16460547</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HEART OF TOWN II LIMITED</t>
+          <t>CONTINENTAL COACHES LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16460410</t>
+          <t>16460551</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
+          <t>LIMITLESSCONTRACTS LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16460407</t>
+          <t>16460553</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JAMIL TALIB LTD</t>
+          <t>TONPA LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16460389</t>
+          <t>16460471</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>PRACTICE MAKES PERFECT LTD</t>
+          <t>CLASSFORGE LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16460388</t>
+          <t>16460436</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>INFINITE CARDS LTD</t>
+          <t>MAAM CO. LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16460713</t>
+          <t>SC848972</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CORE YOU MEDIA LTD</t>
+          <t>LASHESBYS LIMITED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16460709</t>
+          <t>SC848973</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>GOWERTON GOLF RANGE LTD</t>
+          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16460710</t>
+          <t>16460430</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>INAYA HEALTHCARE LTD</t>
+          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16460657</t>
+          <t>16460442</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
+          <t>ANAM CARA JEWELLERY LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16460624</t>
+          <t>16460516</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2378,12 +2378,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PADELHAUS (STRATFORD) LTD</t>
+          <t>RICH LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16460627</t>
+          <t>16460512</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>KINGS BARBER BOLTON LTD</t>
+          <t>JJ BROS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16460636</t>
+          <t>16460519</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>TRIZITION LTD</t>
+          <t>DMOJ 2025 LIMITED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16460611</t>
+          <t>16460446</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
+          <t>CLIFTON DOG TRAINING LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16460615</t>
+          <t>16460445</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2518,24 +2518,24 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BLOOMSBURY EAST LTD</t>
+          <t>DELTA ROMEO ONE LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16460616</t>
+          <t>16460495</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NOMAD RIG LTD</t>
+          <t>J W PUBS NE LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16460571</t>
+          <t>16460482</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
+          <t>KINTBURY ECO CENTRE CIC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16460569</t>
+          <t>16460500</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SMART SKILLS ACADEMY LTD</t>
+          <t>MAITI HOMES LIMITED</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16460568</t>
+          <t>16460530</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
+          <t>ASHTON PROPERTY HOLDING LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16460582</t>
+          <t>16460486</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>H A REGISTRATIONS LTD</t>
+          <t>LUNIFY LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16460586</t>
+          <t>16460802</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>DELWAR INVESTMENTS LIMITED</t>
+          <t>K&amp;C CLEANING AND PROPERTY MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16460585</t>
+          <t>16460803</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2784,24 +2784,24 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>PRESSED &amp; FRESH LTD</t>
+          <t>ADM(GB) LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16460587</t>
+          <t>SC848982</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>TADSTARMAN LTD</t>
+          <t>CHESED MAINTENANCE SERVICES CIC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16460579</t>
+          <t>16460809</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>AMATHYST LTD</t>
+          <t>ASSURED VENDING GROUP LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16460595</t>
+          <t>16460810</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>BEEL WORLDWIDE SERVICES LTD</t>
+          <t>RED DRAGON ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16460594</t>
+          <t>16460788</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>STYLED BY LC LTD</t>
+          <t>MELAKA COLLEGE CIC</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16460563</t>
+          <t>16460783</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>STRIPCO LTD</t>
+          <t>SYMPLANO LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16460564</t>
+          <t>16460787</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CLOCK IT TECH LTD</t>
+          <t>SINOBANG CONSULTING SERVICE LIMITED</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16460573</t>
+          <t>16460779</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MIGHTY MARGATE CIC</t>
+          <t>TREASURE ISLAND COINS &amp; COLLECTIBLES LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16460626</t>
+          <t>16460780</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
+          <t>AERIX LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16460659</t>
+          <t>16460775</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
+          <t>A.M.K WIND LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16460694</t>
+          <t>NI729588</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HOMEASE LTD</t>
+          <t>CNL.JJ.ENTERTAINMENT LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16460666</t>
+          <t>16461082</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SADORP GLOBAL HOLDINGS LTD</t>
+          <t>KATIE LEVI LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16460692</t>
+          <t>16461078</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
+          <t>EBONY PROPERTY LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>OC456787</t>
+          <t>16461086</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3278,24 +3278,24 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>INNOVATION MT LTD</t>
+          <t>PEAR GREEN REAL ESTATES LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16460646</t>
+          <t>16461085</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BRANWELL PROJECTS LIMITED</t>
+          <t>HEALTH WORLD TOURISM COMPANY LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16460653</t>
+          <t>16461107</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>MAYTREE ELITE PROPERTIES LTD</t>
+          <t>SK&amp;SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16460650</t>
+          <t>16461108</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>MEDIA WEB PRO LTD</t>
+          <t>COREPERFORMANCEUK LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16460644</t>
+          <t>16461105</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3442,12 +3442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ASPC CONTENT CO LTD</t>
+          <t>OCONNOR SAFETY SPECIALISTS LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16460643</t>
+          <t>NI729607</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
+          <t>TILFORD SOUTHWEST LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16460649</t>
+          <t>16461098</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SARASI LTD</t>
+          <t>CSP SURVEYING LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16460670</t>
+          <t>SC849008</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>YANG HAIJUN LTD</t>
+          <t>ARTMARRA LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16460671</t>
+          <t>16461097</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
+          <t>STRUCTURE DART LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16460669</t>
+          <t>16461096</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SAMVIV PARTNERS LTD</t>
+          <t>BG DUCTWORK LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16460672</t>
+          <t>16461100</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3658,24 +3658,24 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>COREMARINE SOLUTIONS CIC</t>
+          <t>HALTON-BROWNE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16460663</t>
+          <t>16460805</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>AMPERSAND MANAGEMENT UK LTD</t>
+          <t>BBON BAKES LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16460662</t>
+          <t>SC848981</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>TRIPLE J HOUSING LTD</t>
+          <t>LAZIZA BIRYANI LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16460681</t>
+          <t>16460770</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>DXI DAILY NECESSITIES CO., LTD.</t>
+          <t>NICTHEBOY TECHNOLOGY LTD.</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16460679</t>
+          <t>16460520</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>PREVENTR ACTIVE FIRE LTD</t>
+          <t>LOGENTIA LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16460677</t>
+          <t>16460448</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
+          <t>X1 UK SOLUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16460640</t>
+          <t>16460527</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>T-REX (GUILDFORD) LIMITED</t>
+          <t>FARIS ELHADI GLOBAL . LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16460637</t>
+          <t>16460498</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>CLEANING MONK LTD</t>
+          <t>BUILDERS SCOPE LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16460369</t>
+          <t>16460514</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HORUSKY LTD</t>
+          <t>GMEDVEDGROUP LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16460558</t>
+          <t>16460434</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ORIENT CANTEEN LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16460365</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>DERICA SOLUTIONS LTD</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16460357</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FAST FREE WEBSITES LIMITED</t>
+          <t>EXTERIOR EDGE LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16460451</t>
+          <t>16460426</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>EDI&amp;ALEX LTD</t>
+          <t>BUILDASSIST SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16460449</t>
+          <t>16460452</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MISBAH GOODS LTD</t>
+          <t>KVP VENTURES LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16460377</t>
+          <t>16460424</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4190,24 +4190,24 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
+          <t>SPIDOCRAFT LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16460353</t>
+          <t>16460439</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4240,12 +4240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>FAMILY COMMREPORT LTD</t>
+          <t>OPULENTIA DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16460356</t>
+          <t>16460833</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4278,12 +4278,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>BANDOS BY ADEBISI LTD</t>
+          <t>H2 ASSET MANAGEMENT LIMITED</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16460361</t>
+          <t>16460839</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>VITANOVA LEARNING LIMITED</t>
+          <t>THE BEAUTY COLLECTIVE (NW) LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16460384</t>
+          <t>16460830</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4354,12 +4354,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>MEARNS CLEANING SERVICES LTD</t>
+          <t>BLISSFUL LIFE GLOBAL LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16460387</t>
+          <t>16460842</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MONEY MART LTD</t>
+          <t>THE GOOD CLUB BRAND LIMITED</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16460383</t>
+          <t>16460845</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4430,12 +4430,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
+          <t>ARBITREND LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16460478</t>
+          <t>16460844</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>IMPERIUM ECHELON LTD</t>
+          <t>MYSTIC PARTNERS &amp; CO LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16460493</t>
+          <t>16460843</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4494,24 +4494,24 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ABSAILING NDT LTD</t>
+          <t>MESH OPERATIONS LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16460462</t>
+          <t>16460841</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4544,12 +4544,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>THE GOBLIN WORKSHOP LTD</t>
+          <t>WAYS FORWARD CIC</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16460465</t>
+          <t>16460827</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4582,12 +4582,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>AAH MART LTD</t>
+          <t>TRAVEL NOW GROUP LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16460464</t>
+          <t>16460847</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4620,12 +4620,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>DEESTORE LTD</t>
+          <t>NRM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16460510</t>
+          <t>16460848</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4658,12 +4658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>VIRTUAL CO. UK LTD</t>
+          <t>MYSOL CORPORATION LIMITED</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16460502</t>
+          <t>16460819</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4696,12 +4696,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
+          <t>TINGEYS AIRPORTS LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16460503</t>
+          <t>16460815</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4722,24 +4722,24 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>THE SPICE INVADERS LTD</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16460505</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4772,12 +4772,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MAITI HOMES LIMITED</t>
+          <t>HEALTHY SWEETS UK LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16460530</t>
+          <t>16460418</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4810,12 +4810,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>DEE BEE TRADING LTD</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16460511</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4848,12 +4848,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>VIVID MART LTD</t>
+          <t>NOMAD RIG LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16460370</t>
+          <t>16460571</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A&amp;A OPTICS LTD</t>
+          <t>PREMSPY HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SC848975</t>
+          <t>SC848971</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4924,12 +4924,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>NEON LOGISTICS LIMITED</t>
+          <t>MINESHOCK LABS LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16460453</t>
+          <t>16460393</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4962,12 +4962,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>TNKLOGISTICS LIMITED</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16460447</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5000,12 +5000,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>ETECH VENTURE LIMITED</t>
+          <t>AA SELLER HUB LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16460372</t>
+          <t>16460385</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5038,12 +5038,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOTAMI LTD</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16460531</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>PEARTREE GARAGE LTD</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16460535</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>ALFA HG LTD</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16460543</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5152,12 +5152,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>C &amp; D ENVIRONMENT LIMITED</t>
+          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16460548</t>
+          <t>SC848970</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5190,12 +5190,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>THE SOL COLLECTION LTD</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16460547</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5228,12 +5228,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>CONTINENTAL COACHES LTD</t>
+          <t>BILLION SCENTS LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16460551</t>
+          <t>16460413</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>CLOSUR LIMITED</t>
+          <t>SKINNY SISTERS LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16460556</t>
+          <t>16460411</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5304,12 +5304,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>LIMITLESSCONTRACTS LTD</t>
+          <t>HEART OF TOWN II LIMITED</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16460553</t>
+          <t>16460410</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CLASSFORGE LTD</t>
+          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16460436</t>
+          <t>16460407</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5380,12 +5380,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>MAAM CO. LTD</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>SC848972</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5411,19 +5411,19 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>LASHESBYS LIMITED</t>
+          <t>JAMIL TALIB LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SC848973</t>
+          <t>16460389</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5456,12 +5456,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
+          <t>PRACTICE MAKES PERFECT LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16460430</t>
+          <t>16460388</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5494,12 +5494,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
+          <t>INFINITE CARDS LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16460442</t>
+          <t>16460713</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5520,7 +5520,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
@@ -5532,12 +5532,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ANAM CARA JEWELLERY LTD</t>
+          <t>CORE YOU MEDIA LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16460516</t>
+          <t>16460709</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5570,12 +5570,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>RICH LOGISTICS LTD</t>
+          <t>GOWERTON GOLF RANGE LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16460512</t>
+          <t>16460710</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5608,12 +5608,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>JJ BROS CONSTRUCTION LTD</t>
+          <t>INAYA HEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16460519</t>
+          <t>16460657</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5646,12 +5646,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>DMOJ 2025 LIMITED</t>
+          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16460446</t>
+          <t>16460624</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -5684,12 +5684,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CLIFTON DOG TRAINING LTD</t>
+          <t>PADELHAUS (STRATFORD) LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16460445</t>
+          <t>16460627</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5722,12 +5722,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>DELTA ROMEO ONE LIMITED</t>
+          <t>KINGS BARBER BOLTON LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16460495</t>
+          <t>16460636</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TONPA LTD</t>
+          <t>TRIZITION LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16460471</t>
+          <t>16460611</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SHOWBIZ PRODUCTIONS LTD</t>
+          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16460496</t>
+          <t>16460615</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5824,24 +5824,24 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>MASR PROPERTIES LTD</t>
+          <t>PARDS MART LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16460367</t>
+          <t>16460414</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -5874,12 +5874,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SMARTY SPROUTS LTD</t>
+          <t>AMGT HOLDING LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16460399</t>
+          <t>16460401</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5912,12 +5912,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>DEXKAANE SERVICES LIMITED</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16460419</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -5950,12 +5950,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AGS STRUCTURAL OUTPUTS LTD</t>
+          <t>NPP RF2 LIMITED</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16460420</t>
+          <t>16460409</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5988,12 +5988,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NEW CROSS LOCAL LIMITED</t>
+          <t>HAYES PARTNERS LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16460417</t>
+          <t>16460412</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6019,19 +6019,19 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>INJECTIVE AESTHETICS LTD</t>
+          <t>GS GEPE II SIDECAR IV GP LLP</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16460415</t>
+          <t>SO308186</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6057,19 +6057,19 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
+          <t>CC GARAGE LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16460408</t>
+          <t>16460397</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6102,12 +6102,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>RATHDOWN LTD</t>
+          <t>ARORA MATERIALS LIMITED</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16460398</t>
+          <t>16460405</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6140,12 +6140,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HOLMCROFT LIMITED</t>
+          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>OE033935</t>
+          <t>16460403</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6155,7 +6155,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E151" t="inlineStr"/>
@@ -6178,12 +6178,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>XYZ COMMERCE LTD</t>
+          <t>COACHED BY JESS LIMITED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16460489</t>
+          <t>16460392</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6216,12 +6216,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>FIND YOUR INDUSTRY LTD</t>
+          <t>UNCOMFORTABLE CHATS LIMITED</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16460362</t>
+          <t>16460394</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6254,12 +6254,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>LC COURIERS LTD</t>
+          <t>RESTORCARE HEALTH LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16460390</t>
+          <t>16460404</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6292,12 +6292,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
+          <t>CORNISH IT CONSULTING LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16460374</t>
+          <t>16460395</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6330,12 +6330,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
+          <t>PROTO DSGN LIMITED</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16460375</t>
+          <t>16460406</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6368,12 +6368,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>LUXCOMMERCE LTD</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16460360</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6406,12 +6406,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>CLEARLABS PERFORMANCE LTD</t>
+          <t>BARKADEMY LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16460364</t>
+          <t>16460454</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6444,12 +6444,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ACCORD FIRE DOORS LTD</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16460363</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6482,12 +6482,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>LITBUILD LTD</t>
+          <t>SIMPLY MLC LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16460368</t>
+          <t>16460691</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6520,12 +6520,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>MAK'S TRADERS LTD</t>
+          <t>LXG LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16460355</t>
+          <t>16460686</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SKYFREIGHTGLOBAL LTD</t>
+          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16460366</t>
+          <t>16460690</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -6596,12 +6596,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>GMS7 LIMITED</t>
+          <t>WENSUM MEDIATION LIMITED</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16460386</t>
+          <t>16460696</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6634,12 +6634,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>LA AUTOMOTIVE LTD</t>
+          <t>THE EMMANUEL CENTRE CIC</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16460421</t>
+          <t>16460695</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -6672,12 +6672,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>HEALTHY SWEETS UK LTD</t>
+          <t>DB RAIL INFRASTRUCTURE LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16460418</t>
+          <t>16460719</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -6710,12 +6710,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>DOME DYNAMICS LTD</t>
+          <t>STUDIO FOUNDLING LIMITED</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16460416</t>
+          <t>16460717</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -6748,12 +6748,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>CINNABAR HEALTH TRADING CO., LTD</t>
+          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16460515</t>
+          <t>16460402</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6786,12 +6786,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
+          <t>SURREYSIDECOMPS LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16460487</t>
+          <t>16460422</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -6824,12 +6824,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16460400</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>J W PUBS NE LTD</t>
+          <t>YAKO CASINO LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16460482</t>
+          <t>16460391</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -6900,12 +6900,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>JBNC LIMITED</t>
+          <t>BLOOMSBURY EAST LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16460484</t>
+          <t>16460616</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -6938,12 +6938,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>KINTBURY ECO CENTRE CIC</t>
+          <t>SCP RESOURCE CONSULTING LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16460500</t>
+          <t>16461047</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -6976,12 +6976,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>ASHTON PROPERTY HOLDING LTD</t>
+          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16460486</t>
+          <t>16460569</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7014,12 +7014,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>LOGENTIA LTD</t>
+          <t>FAST FREE WEBSITES LIMITED</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16460448</t>
+          <t>16460451</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7052,12 +7052,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>X1 UK SOLUTIONS LIMITED</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16460527</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7090,12 +7090,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>FARIS ELHADI GLOBAL . LTD</t>
+          <t>HORUSKY LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16460498</t>
+          <t>16460558</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7128,12 +7128,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>BUILDERS SCOPE LIMITED</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16460514</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7166,12 +7166,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>GMEDVEDGROUP LTD</t>
+          <t>T-REX (GUILDFORD) LIMITED</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16460434</t>
+          <t>16460637</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7204,12 +7204,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>TRUE NORTH JOINERY LTD</t>
+          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16460359</t>
+          <t>16460640</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7242,12 +7242,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MASTER THE CHAIN LTD</t>
+          <t>PREVENTR ACTIVE FIRE LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16460358</t>
+          <t>16460677</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7280,12 +7280,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>EXTERIOR EDGE LTD</t>
+          <t>DXI DAILY NECESSITIES CO., LTD.</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16460426</t>
+          <t>16460679</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7318,12 +7318,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BUILDASSIST SERVICES LIMITED</t>
+          <t>TRIPLE J HOUSING LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16460452</t>
+          <t>16460681</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7356,12 +7356,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>KVP VENTURES LIMITED</t>
+          <t>AMPERSAND MANAGEMENT UK LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16460424</t>
+          <t>16460662</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7382,24 +7382,24 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>SPIDOCRAFT LTD</t>
+          <t>COREMARINE SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16460439</t>
+          <t>16460663</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7432,12 +7432,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>NICTHEBOY TECHNOLOGY LTD.</t>
+          <t>SAMVIV PARTNERS LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16460520</t>
+          <t>16460672</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7458,29 +7458,29 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16460669</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
@@ -7491,12 +7491,12 @@
       <c r="E186" t="inlineStr"/>
       <c r="F186" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7508,17 +7508,17 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>SARASI LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16460670</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
@@ -7529,12 +7529,12 @@
       <c r="E187" t="inlineStr"/>
       <c r="F187" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -7546,17 +7546,17 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16460649</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
@@ -7567,12 +7567,12 @@
       <c r="E188" t="inlineStr"/>
       <c r="F188" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7584,17 +7584,17 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>ASPC CONTENT CO LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16460643</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
@@ -7605,12 +7605,12 @@
       <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7622,17 +7622,17 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>MEDIA WEB PRO LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16460644</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
@@ -7643,12 +7643,12 @@
       <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7660,17 +7660,17 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>MAYTREE ELITE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16460650</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -7681,12 +7681,12 @@
       <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -7698,17 +7698,17 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>BRANWELL PROJECTS LIMITED</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16460653</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
@@ -7719,12 +7719,12 @@
       <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -7736,17 +7736,17 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16460659</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
@@ -7757,12 +7757,12 @@
       <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -7774,17 +7774,17 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>INNOVATION MT LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16460646</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
@@ -7795,12 +7795,12 @@
       <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -7812,17 +7812,17 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>OC456787</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
@@ -7833,34 +7833,34 @@
       <c r="E195" t="inlineStr"/>
       <c r="F195" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>SADORP GLOBAL HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16460692</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
@@ -7871,12 +7871,12 @@
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -7888,17 +7888,17 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>HOMEASE LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16460666</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D197" t="inlineStr">
@@ -7909,12 +7909,12 @@
       <c r="E197" t="inlineStr"/>
       <c r="F197" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -7926,17 +7926,17 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16460694</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
@@ -7947,12 +7947,12 @@
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -7964,17 +7964,17 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>SMART SKILLS ACADEMY LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16460568</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
@@ -7985,12 +7985,12 @@
       <c r="E199" t="inlineStr"/>
       <c r="F199" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8002,17 +8002,17 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>DERICA SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16460357</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
@@ -8023,12 +8023,12 @@
       <c r="E200" t="inlineStr"/>
       <c r="F200" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8040,17 +8040,17 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>YANG HAIJUN LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16460671</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
@@ -8061,12 +8061,12 @@
       <c r="E201" t="inlineStr"/>
       <c r="F201" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8078,17 +8078,17 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>EDI&amp;ALEX LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16460449</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D202" t="inlineStr">
@@ -8099,12 +8099,12 @@
       <c r="E202" t="inlineStr"/>
       <c r="F202" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8116,17 +8116,17 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>DEESTORE LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16460510</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
@@ -8137,12 +8137,12 @@
       <c r="E203" t="inlineStr"/>
       <c r="F203" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8154,17 +8154,17 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16460582</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D204" t="inlineStr">
@@ -8175,12 +8175,12 @@
       <c r="E204" t="inlineStr"/>
       <c r="F204" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -8192,17 +8192,17 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D205" t="inlineStr">
@@ -8213,12 +8213,12 @@
       <c r="E205" t="inlineStr"/>
       <c r="F205" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -8230,17 +8230,17 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>H A REGISTRATIONS LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16460586</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D206" t="inlineStr">
@@ -8251,12 +8251,12 @@
       <c r="E206" t="inlineStr"/>
       <c r="F206" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -8268,17 +8268,17 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>DELWAR INVESTMENTS LIMITED</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16460585</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
@@ -8289,12 +8289,12 @@
       <c r="E207" t="inlineStr"/>
       <c r="F207" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -8306,17 +8306,17 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>PRESSED &amp; FRESH LTD</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16460587</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
@@ -8327,12 +8327,12 @@
       <c r="E208" t="inlineStr"/>
       <c r="F208" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -8344,17 +8344,17 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>TADSTARMAN LTD</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16460579</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
@@ -8365,12 +8365,12 @@
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -8382,17 +8382,17 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>AMATHYST LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16460595</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
@@ -8403,12 +8403,12 @@
       <c r="E210" t="inlineStr"/>
       <c r="F210" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8420,17 +8420,17 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>BEEL WORLDWIDE SERVICES LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16460594</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
@@ -8441,12 +8441,12 @@
       <c r="E211" t="inlineStr"/>
       <c r="F211" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -8458,17 +8458,17 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>STRIPCO LTD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16460564</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D212" t="inlineStr">
@@ -8479,12 +8479,12 @@
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -8496,17 +8496,17 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>CLOCK IT TECH LTD</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16460573</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D213" t="inlineStr">
@@ -8517,12 +8517,12 @@
       <c r="E213" t="inlineStr"/>
       <c r="F213" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -8534,17 +8534,17 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>MIGHTY MARGATE CIC</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16460626</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D214" t="inlineStr">
@@ -8555,12 +8555,12 @@
       <c r="E214" t="inlineStr"/>
       <c r="F214" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -8572,17 +8572,17 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>VIRTUAL CO. UK LTD</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16460502</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D215" t="inlineStr">
@@ -8593,12 +8593,12 @@
       <c r="E215" t="inlineStr"/>
       <c r="F215" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -8610,17 +8610,17 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>STYLED BY LC LTD</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16460563</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D216" t="inlineStr">
@@ -8631,12 +8631,12 @@
       <c r="E216" t="inlineStr"/>
       <c r="F216" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -8648,17 +8648,17 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D217" t="inlineStr">
@@ -8669,12 +8669,12 @@
       <c r="E217" t="inlineStr"/>
       <c r="F217" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -8686,17 +8686,17 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16460478</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
@@ -8707,12 +8707,12 @@
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -8724,17 +8724,17 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>AAH MART LTD</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16460464</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
@@ -8745,12 +8745,12 @@
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -8762,17 +8762,17 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
@@ -8783,12 +8783,12 @@
       <c r="E220" t="inlineStr"/>
       <c r="F220" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -8800,17 +8800,17 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>VITANOVA LEARNING LIMITED</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16460384</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
@@ -8821,12 +8821,12 @@
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -8838,17 +8838,17 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>MONEY MART LTD</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16460383</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
@@ -8859,12 +8859,12 @@
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -8876,17 +8876,17 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>MEARNS CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16460387</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
@@ -8897,12 +8897,12 @@
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -8914,17 +8914,17 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>IMPERIUM ECHELON LTD</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16460493</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
@@ -8935,12 +8935,12 @@
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -8952,17 +8952,17 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>ABSAILING NDT LTD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16460462</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
@@ -8973,12 +8973,12 @@
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -8990,17 +8990,17 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>THE GOBLIN WORKSHOP LTD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16460465</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D226" t="inlineStr">
@@ -9011,12 +9011,12 @@
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9028,17 +9028,17 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D227" t="inlineStr">
@@ -9049,12 +9049,12 @@
       <c r="E227" t="inlineStr"/>
       <c r="F227" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9066,12 +9066,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>CTPROPS LIMITED</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9104,12 +9104,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9142,12 +9142,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9180,12 +9180,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9218,12 +9218,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9256,12 +9256,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>NEW MOUNT DAISY LIMITED</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9294,12 +9294,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9332,12 +9332,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9370,12 +9370,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>FASHLER LTD</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9408,12 +9408,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -9446,12 +9446,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9477,19 +9477,19 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>NEWMINERALS LTD</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16455878</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9522,12 +9522,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -9560,12 +9560,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -9598,12 +9598,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9636,12 +9636,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9674,12 +9674,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -9712,12 +9712,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9750,12 +9750,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -9788,12 +9788,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9826,12 +9826,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9864,12 +9864,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9902,12 +9902,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9940,12 +9940,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9978,12 +9978,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10016,12 +10016,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10054,12 +10054,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10092,12 +10092,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10130,12 +10130,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10168,12 +10168,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -10206,12 +10206,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -10244,12 +10244,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -10282,12 +10282,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -10320,12 +10320,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -10358,12 +10358,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -10396,12 +10396,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -10427,19 +10427,19 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -10472,12 +10472,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -10510,12 +10510,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -10548,12 +10548,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -10586,12 +10586,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -10624,12 +10624,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10662,12 +10662,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -10700,12 +10700,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -10738,12 +10738,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10776,12 +10776,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10814,12 +10814,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10852,12 +10852,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10890,12 +10890,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10928,12 +10928,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10966,12 +10966,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -11004,12 +11004,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11042,12 +11042,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -11080,12 +11080,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -11118,12 +11118,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -11156,12 +11156,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -11194,12 +11194,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -11232,12 +11232,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -11262,6 +11262,1602 @@
         </is>
       </c>
       <c r="H285" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>SPYRO APPAREL LTD</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>16459515</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>MILLE TRADING LTD</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>16459518</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr"/>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>CLARK AND CO DESIGN LIMITED</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>16459516</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr"/>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE VETS LTD</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>16457975</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr"/>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>16459549</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr"/>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>JC DEEP TECH LTD</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>16456256</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr"/>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>OILMYCAR LTD</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>16456706</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>16456765</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>GLIMORA GLOBAL LTD</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>16457265</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>LEOFRIC LTD</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>16456712</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr"/>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>FARYAL ENTERPRISE LIMITED</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>16456748</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr"/>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>HOUSE OF RODEOS LTD</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>16456218</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr"/>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>BREEZY HOMES LIMITED</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>16456709</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr"/>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>DEVIPROX LTD</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>16457970</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr"/>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>AUSTIN RICE LTD</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>NI729522</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr"/>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>A STAR HEALTH LTD</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>16456234</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr"/>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>JANITZA UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>16456233</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr"/>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>OPM ILL GO SHOP 4U LTD</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>16456764</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr"/>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>JAI-HO STAFFING LTD</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>16456221</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>FLIP IT GLOBAL LTD</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>16456758</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>FITCARDIOLOGY LTD</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>16457244</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr"/>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>S&amp;S ISTITHMĀR LTD</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>16459522</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr"/>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>16456242</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr"/>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>FINTIVITY LTD</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>16459072</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>16456250</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr"/>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>LP024176</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>LP</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>16457230</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr"/>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>AMIKOBA LTD</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>16459545</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr"/>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Y-3 APARTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>16457262</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr"/>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>JORDAN CAMPBELL LTD</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>NI729519</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr"/>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>DEHBINI LIMITED</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>16456493</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr"/>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>KINARA PROPERTIES LTD</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>16456244</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr"/>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>ATSP FIN LTD</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>16456749</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr"/>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>16457279</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>INSPOCL LTD</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>16457967</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr"/>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>16456735</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr"/>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>UBAH MEDIA LAB LTD</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>16459548</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr"/>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>HAUS OF PALETTE LTD</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>16456236</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr"/>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>WANNABEE LTD</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>16459526</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr"/>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>16459547</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>BKK EQUESTRIAN LTD</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>16456733</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>WGHR JI LTD</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>16456731</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr"/>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H327"/>
+  <dimension ref="A1:H365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>JBNC LIMITED</t>
+          <t>AMPERSAND MANAGEMENT UK LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16460484</t>
+          <t>16460662</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DEXKAANE SERVICES LIMITED</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460419</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AGS STRUCTURAL OUTPUTS LTD</t>
+          <t>YAKO CASINO LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16460420</t>
+          <t>16460391</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>NEW CROSS LOCAL LIMITED</t>
+          <t>BLOOMSBURY EAST LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16460417</t>
+          <t>16460616</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INJECTIVE AESTHETICS LTD</t>
+          <t>SCP RESOURCE CONSULTING LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16460415</t>
+          <t>16461047</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
+          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460408</t>
+          <t>16460569</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -732,7 +732,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>RATHDOWN LTD</t>
+          <t>FAST FREE WEBSITES LIMITED</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460398</t>
+          <t>16460451</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HOLMCROFT LIMITED</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>OE033935</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -797,7 +797,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -808,7 +808,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>XYZ COMMERCE LTD</t>
+          <t>HORUSKY LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16460489</t>
+          <t>16460558</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>FIND YOUR INDUSTRY LTD</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460362</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>LC COURIERS LTD</t>
+          <t>T-REX (GUILDFORD) LIMITED</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16460390</t>
+          <t>16460637</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
+          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460374</t>
+          <t>16460640</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
+          <t>PREVENTR ACTIVE FIRE LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460375</t>
+          <t>16460677</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LUXCOMMERCE LTD</t>
+          <t>DXI DAILY NECESSITIES CO., LTD.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460360</t>
+          <t>16460679</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CLEARLABS PERFORMANCE LTD</t>
+          <t>TRIPLE J HOUSING LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460364</t>
+          <t>16460681</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ACCORD FIRE DOORS LTD</t>
+          <t>JBNC LIMITED</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460363</t>
+          <t>16460484</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>LITBUILD LTD</t>
+          <t>INFINITE CARDS LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460368</t>
+          <t>16460713</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MAK'S TRADERS LTD</t>
+          <t>SAMVIV PARTNERS LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16460355</t>
+          <t>16460672</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1188,24 +1188,24 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SKYFREIGHTGLOBAL LTD</t>
+          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460366</t>
+          <t>16460669</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>GMS7 LIMITED</t>
+          <t>SARASI LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460386</t>
+          <t>16460670</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>LA AUTOMOTIVE LTD</t>
+          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460421</t>
+          <t>16460649</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>TIMBRA PROJECTS LTD</t>
+          <t>ASPC CONTENT CO LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460396</t>
+          <t>16460643</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>DOME DYNAMICS LTD</t>
+          <t>MEDIA WEB PRO LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16460416</t>
+          <t>16460644</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CINNABAR HEALTH TRADING CO., LTD</t>
+          <t>MAYTREE ELITE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16460515</t>
+          <t>16460650</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
+          <t>BRANWELL PROJECTS LIMITED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16460487</t>
+          <t>16460653</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
+          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16460400</t>
+          <t>16460659</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SMARTY SPROUTS LTD</t>
+          <t>INNOVATION MT LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16460399</t>
+          <t>16460646</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MASR PROPERTIES LTD</t>
+          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16460367</t>
+          <t>OC456787</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1568,24 +1568,24 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SHOWBIZ PRODUCTIONS LTD</t>
+          <t>SADORP GLOBAL HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16460496</t>
+          <t>16460692</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CLOSUR LIMITED</t>
+          <t>HOMEASE LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16460556</t>
+          <t>16460666</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>VIVID MART LTD</t>
+          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16460370</t>
+          <t>16460694</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A&amp;A OPTICS LTD</t>
+          <t>SURREYSIDECOMPS LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SC848975</t>
+          <t>16460422</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NEON LOGISTICS LIMITED</t>
+          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16460453</t>
+          <t>16460402</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>TNKLOGISTICS LIMITED</t>
+          <t>STUDIO FOUNDLING LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16460447</t>
+          <t>16460717</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>ETECH VENTURE LIMITED</t>
+          <t>DB RAIL INFRASTRUCTURE LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16460372</t>
+          <t>16460719</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOTAMI LTD</t>
+          <t>GOWERTON GOLF RANGE LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16460531</t>
+          <t>16460710</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>PEARTREE GARAGE LTD</t>
+          <t>INAYA HEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16460535</t>
+          <t>16460657</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ALFA HG LTD</t>
+          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16460543</t>
+          <t>16460624</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>C &amp; D ENVIRONMENT LIMITED</t>
+          <t>PADELHAUS (STRATFORD) LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16460548</t>
+          <t>16460627</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>THE SOL COLLECTION LTD</t>
+          <t>KINGS BARBER BOLTON LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16460547</t>
+          <t>16460636</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CONTINENTAL COACHES LTD</t>
+          <t>TRIZITION LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16460551</t>
+          <t>16460611</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>LIMITLESSCONTRACTS LTD</t>
+          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16460553</t>
+          <t>16460615</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2100,24 +2100,24 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>TONPA LTD</t>
+          <t>PARDS MART LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16460471</t>
+          <t>16460414</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CLASSFORGE LTD</t>
+          <t>AMGT HOLDING LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16460436</t>
+          <t>16460401</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MAAM CO. LTD</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>SC848972</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LASHESBYS LIMITED</t>
+          <t>NPP RF2 LIMITED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>SC848973</t>
+          <t>16460409</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
+          <t>HAYES PARTNERS LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16460430</t>
+          <t>16460412</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2290,24 +2290,24 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
+          <t>GS GEPE II SIDECAR IV GP LLP</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16460442</t>
+          <t>SO308186</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2328,24 +2328,24 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>ANAM CARA JEWELLERY LTD</t>
+          <t>CC GARAGE LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16460516</t>
+          <t>16460397</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2378,12 +2378,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RICH LOGISTICS LTD</t>
+          <t>ARORA MATERIALS LIMITED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16460512</t>
+          <t>16460405</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JJ BROS CONSTRUCTION LTD</t>
+          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16460519</t>
+          <t>16460403</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>DMOJ 2025 LIMITED</t>
+          <t>COACHED BY JESS LIMITED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16460446</t>
+          <t>16460392</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CLIFTON DOG TRAINING LTD</t>
+          <t>UNCOMFORTABLE CHATS LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16460445</t>
+          <t>16460394</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DELTA ROMEO ONE LIMITED</t>
+          <t>RESTORCARE HEALTH LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16460495</t>
+          <t>16460404</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>J W PUBS NE LTD</t>
+          <t>CORNISH IT CONSULTING LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16460482</t>
+          <t>16460395</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>KINTBURY ECO CENTRE CIC</t>
+          <t>PROTO DSGN LIMITED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16460500</t>
+          <t>16460406</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>MAITI HOMES LIMITED</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16460530</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>ASHTON PROPERTY HOLDING LTD</t>
+          <t>BARKADEMY LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16460486</t>
+          <t>16460454</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LUNIFY LTD</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16460802</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>K&amp;C CLEANING AND PROPERTY MANAGEMENT LTD</t>
+          <t>SIMPLY MLC LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16460803</t>
+          <t>16460691</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ADM(GB) LTD</t>
+          <t>LXG LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>SC848982</t>
+          <t>16460686</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CHESED MAINTENANCE SERVICES CIC</t>
+          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16460809</t>
+          <t>16460690</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>ASSURED VENDING GROUP LTD</t>
+          <t>WENSUM MEDIATION LIMITED</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16460810</t>
+          <t>16460696</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>RED DRAGON ELECTRICAL LTD</t>
+          <t>THE EMMANUEL CENTRE CIC</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16460788</t>
+          <t>16460695</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>MELAKA COLLEGE CIC</t>
+          <t>SMART SKILLS ACADEMY LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16460783</t>
+          <t>16460568</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SYMPLANO LTD</t>
+          <t>DERICA SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16460787</t>
+          <t>16460357</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SINOBANG CONSULTING SERVICE LIMITED</t>
+          <t>YANG HAIJUN LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16460779</t>
+          <t>16460671</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>TREASURE ISLAND COINS &amp; COLLECTIBLES LIMITED</t>
+          <t>AMINO RESTAURANT LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16460780</t>
+          <t>16461171</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>AERIX LIMITED</t>
+          <t>FOOTBALL IS FOR THE FANS LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16460775</t>
+          <t>16461167</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A.M.K WIND LTD</t>
+          <t>GREENHILLS 2 LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>NI729588</t>
+          <t>SC849017</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CNL.JJ.ENTERTAINMENT LTD</t>
+          <t>MOSU VENTURES LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16461082</t>
+          <t>16461209</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3202,24 +3202,24 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>KATIE LEVI LTD</t>
+          <t>PULSE SUMMIT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16461078</t>
+          <t>16461206</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3240,24 +3240,24 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EBONY PROPERTY LTD</t>
+          <t>MUORICA NEXOS LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16461086</t>
+          <t>16461214</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PEAR GREEN REAL ESTATES LTD</t>
+          <t>SSMC INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16461085</t>
+          <t>16461213</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3316,24 +3316,24 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HEALTH WORLD TOURISM COMPANY LTD</t>
+          <t>BOWDEN SPRING LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16461107</t>
+          <t>16461175</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SK&amp;SONS PROPERTIES LTD</t>
+          <t>BOUNDLESS RISE LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16461108</t>
+          <t>16461176</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>COREPERFORMANCEUK LTD</t>
+          <t>NERIA VICTER LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16461105</t>
+          <t>16461177</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3442,12 +3442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>OCONNOR SAFETY SPECIALISTS LTD</t>
+          <t>GILES &amp; STERLING YOUNG LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>NI729607</t>
+          <t>16461174</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TILFORD SOUTHWEST LTD</t>
+          <t>PJ MANSWORTH (ALED) LIMITED</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16461098</t>
+          <t>16461216</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CSP SURVEYING LIMITED</t>
+          <t>BM SERWIS LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>SC849008</t>
+          <t>16461219</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>ARTMARRA LTD</t>
+          <t>GREENLYTICS AI LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16461097</t>
+          <t>16461189</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>STRUCTURE DART LTD</t>
+          <t>E J WHITE &amp; SON (SCAFFOLDING) LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16461096</t>
+          <t>16461193</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BG DUCTWORK LTD</t>
+          <t>BALDAN FLOORING LIMITED</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16461100</t>
+          <t>16461191</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HALTON-BROWNE PROPERTIES LTD</t>
+          <t>FRANCE COMMERCE LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16460805</t>
+          <t>16461192</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BBON BAKES LTD</t>
+          <t>VELMI LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>SC848981</t>
+          <t>16461185</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>LAZIZA BIRYANI LTD</t>
+          <t>MEHRAS PISHGAM SADRA EXPO LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16460770</t>
+          <t>16461195</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>NICTHEBOY TECHNOLOGY LTD.</t>
+          <t>CODALYTICS LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16460520</t>
+          <t>16461182</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LOGENTIA LTD</t>
+          <t>SOULFUL SYNERGY LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16460448</t>
+          <t>16461224</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>X1 UK SOLUTIONS LIMITED</t>
+          <t>REIGNING MEDIA LIMITED</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16460527</t>
+          <t>16461275</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>FARIS ELHADI GLOBAL . LTD</t>
+          <t>CRISPY GLEN LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16460498</t>
+          <t>SC849027</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>BUILDERS SCOPE LIMITED</t>
+          <t>KGM CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16460514</t>
+          <t>16461264</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>GMEDVEDGROUP LTD</t>
+          <t>TUK TALENT LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16460434</t>
+          <t>16461265</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>TRUE NORTH JOINERY LTD</t>
+          <t>SW2 CONSTRUCTION LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16460359</t>
+          <t>16461262</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MASTER THE CHAIN LTD</t>
+          <t>FUNCTION.ALL.OVER LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16460358</t>
+          <t>16461272</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>EXTERIOR EDGE LTD</t>
+          <t>AMARA WELLS LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16460426</t>
+          <t>SC849026</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>BUILDASSIST SERVICES LIMITED</t>
+          <t>GROUND MORTGAGE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16460452</t>
+          <t>16461278</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>KVP VENTURES LIMITED</t>
+          <t>MUNCHIES KEBAB DESERT LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16460424</t>
+          <t>16461260</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4190,24 +4190,24 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SPIDOCRAFT LTD</t>
+          <t>NORDIX FREIGHT LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16460439</t>
+          <t>SC849013</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4240,12 +4240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>OPULENTIA DEVELOPMENT LTD</t>
+          <t>COMBI CARE AND REPAIR - OLLIE GIBSON LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16460833</t>
+          <t>16461168</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4278,12 +4278,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>H2 ASSET MANAGEMENT LIMITED</t>
+          <t>EDI&amp;ALEX LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16460839</t>
+          <t>16460449</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>THE BEAUTY COLLECTIVE (NW) LTD</t>
+          <t>METABOLICO2 LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16460830</t>
+          <t>SC849016</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4354,12 +4354,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BLISSFUL LIFE GLOBAL LTD</t>
+          <t>DEESTORE LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16460842</t>
+          <t>16460510</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>THE GOOD CLUB BRAND LIMITED</t>
+          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16460845</t>
+          <t>16460582</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4430,12 +4430,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>ARBITREND LTD</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16460844</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>MYSTIC PARTNERS &amp; CO LTD</t>
+          <t>H A REGISTRATIONS LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16460843</t>
+          <t>16460586</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4494,24 +4494,24 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>MESH OPERATIONS LTD</t>
+          <t>DELWAR INVESTMENTS LIMITED</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16460841</t>
+          <t>16460585</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4532,24 +4532,24 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>WAYS FORWARD CIC</t>
+          <t>PRESSED &amp; FRESH LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16460827</t>
+          <t>16460587</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4582,12 +4582,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TRAVEL NOW GROUP LTD</t>
+          <t>TADSTARMAN LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16460847</t>
+          <t>16460579</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4620,12 +4620,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NRM CONSULTING LIMITED</t>
+          <t>AMATHYST LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16460848</t>
+          <t>16460595</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4658,12 +4658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>MYSOL CORPORATION LIMITED</t>
+          <t>BEEL WORLDWIDE SERVICES LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16460819</t>
+          <t>16460594</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4696,12 +4696,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>TINGEYS AIRPORTS LTD</t>
+          <t>STRIPCO LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16460815</t>
+          <t>16460564</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4734,12 +4734,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>DEE BEE TRADING LTD</t>
+          <t>CLOCK IT TECH LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16460511</t>
+          <t>16460573</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4772,12 +4772,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HEALTHY SWEETS UK LTD</t>
+          <t>MIGHTY MARGATE CIC</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16460418</t>
+          <t>16460626</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4810,12 +4810,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>THE SPICE INVADERS LTD</t>
+          <t>VIRTUAL CO. UK LTD</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16460505</t>
+          <t>16460502</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4848,12 +4848,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NOMAD RIG LTD</t>
+          <t>STYLED BY LC LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16460571</t>
+          <t>16460563</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>PREMSPY HOLDING LIMITED</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>SC848971</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4924,12 +4924,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>MINESHOCK LABS LTD</t>
+          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16460393</t>
+          <t>16460478</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4962,12 +4962,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>PAVITA LOGISTICS LTD</t>
+          <t>AAH MART LTD</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16460373</t>
+          <t>16460464</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5000,12 +5000,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>AA SELLER HUB LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16460385</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5038,12 +5038,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CLARITY VENTURE SUPPORT LTD</t>
+          <t>VITANOVA LEARNING LIMITED</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16460376</t>
+          <t>16460384</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>FONETHICS SOLUTIONS LTD</t>
+          <t>MONEY MART LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>SC848969</t>
+          <t>16460383</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MOTIVATION AND PROSPERITY LTD</t>
+          <t>MEARNS CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16460379</t>
+          <t>16460387</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5152,12 +5152,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
+          <t>IMPERIUM ECHELON LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>SC848970</t>
+          <t>16460493</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5190,12 +5190,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>NARCISSIST APPAREL LTD</t>
+          <t>ABSAILING NDT LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16460378</t>
+          <t>16460462</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5228,12 +5228,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BILLION SCENTS LTD</t>
+          <t>THE GOBLIN WORKSHOP LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16460413</t>
+          <t>16460465</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SKINNY SISTERS LTD</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16460411</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
@@ -5304,12 +5304,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HEART OF TOWN II LIMITED</t>
+          <t>TAHI STUDIO LIMITED</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16460410</t>
+          <t>16461197</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
+          <t>NXT GEN INTERNATIONAL LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16460407</t>
+          <t>16461199</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5380,12 +5380,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
+          <t>SAFECLEAN GROUP LIMITED</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16460503</t>
+          <t>16461198</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5406,24 +5406,24 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>JAMIL TALIB LTD</t>
+          <t>RIONEST LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16460389</t>
+          <t>SC849015</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5456,12 +5456,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>PRACTICE MAKES PERFECT LTD</t>
+          <t>CORE YOU MEDIA LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16460388</t>
+          <t>16460709</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5494,12 +5494,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>INFINITE CARDS LTD</t>
+          <t>COREMARINE SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16460713</t>
+          <t>16460663</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5532,12 +5532,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CORE YOU MEDIA LTD</t>
+          <t>PRACTICE MAKES PERFECT LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16460709</t>
+          <t>16460388</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5570,12 +5570,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>GOWERTON GOLF RANGE LTD</t>
+          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16460710</t>
+          <t>16460442</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5608,12 +5608,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>INAYA HEALTHCARE LTD</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16460657</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5646,12 +5646,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
+          <t>SOTAMI LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16460624</t>
+          <t>16460531</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -5684,12 +5684,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PADELHAUS (STRATFORD) LTD</t>
+          <t>PEARTREE GARAGE LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16460627</t>
+          <t>16460535</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5722,12 +5722,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>KINGS BARBER BOLTON LTD</t>
+          <t>ALFA HG LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16460636</t>
+          <t>16460543</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>TRIZITION LTD</t>
+          <t>JAMIL TALIB LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16460611</t>
+          <t>16460389</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
+          <t>C &amp; D ENVIRONMENT LIMITED</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16460615</t>
+          <t>16460548</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5824,24 +5824,24 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>PARDS MART LTD</t>
+          <t>THE SOL COLLECTION LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16460414</t>
+          <t>16460547</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -5874,12 +5874,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>AMGT HOLDING LTD</t>
+          <t>CONTINENTAL COACHES LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16460401</t>
+          <t>16460551</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -5912,12 +5912,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>ROAMING RETAIL LIMITED</t>
+          <t>LIMITLESSCONTRACTS LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16460382</t>
+          <t>16460553</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -5950,12 +5950,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>NPP RF2 LIMITED</t>
+          <t>TONPA LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16460409</t>
+          <t>16460471</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -5988,12 +5988,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HAYES PARTNERS LTD</t>
+          <t>CLASSFORGE LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16460412</t>
+          <t>16460436</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6014,24 +6014,24 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>GS GEPE II SIDECAR IV GP LLP</t>
+          <t>MAAM CO. LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SO308186</t>
+          <t>SC848972</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6052,24 +6052,24 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CC GARAGE LTD</t>
+          <t>LASHESBYS LIMITED</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16460397</t>
+          <t>SC848973</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6102,12 +6102,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>ARORA MATERIALS LIMITED</t>
+          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16460405</t>
+          <t>16460430</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6128,7 +6128,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H150" t="inlineStr">
@@ -6140,12 +6140,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
+          <t>ANAM CARA JEWELLERY LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16460403</t>
+          <t>16460516</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6178,12 +6178,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>COACHED BY JESS LIMITED</t>
+          <t>MELAKA COLLEGE CIC</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16460392</t>
+          <t>16460783</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6216,12 +6216,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>UNCOMFORTABLE CHATS LIMITED</t>
+          <t>RICH LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16460394</t>
+          <t>16460512</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6254,12 +6254,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>RESTORCARE HEALTH LTD</t>
+          <t>JJ BROS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16460404</t>
+          <t>16460519</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6292,12 +6292,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CORNISH IT CONSULTING LTD</t>
+          <t>DMOJ 2025 LIMITED</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16460395</t>
+          <t>16460446</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6330,12 +6330,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>PROTO DSGN LIMITED</t>
+          <t>CLIFTON DOG TRAINING LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16460406</t>
+          <t>16460445</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6368,12 +6368,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>OMID'S ENTERPRISE LTD</t>
+          <t>DELTA ROMEO ONE LIMITED</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16460381</t>
+          <t>16460495</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6406,12 +6406,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>BARKADEMY LTD</t>
+          <t>J W PUBS NE LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16460454</t>
+          <t>16460482</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6444,12 +6444,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>BY FATOU JAI LTD</t>
+          <t>KINTBURY ECO CENTRE CIC</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16460371</t>
+          <t>16460500</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6482,12 +6482,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SIMPLY MLC LTD</t>
+          <t>MAITI HOMES LIMITED</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16460691</t>
+          <t>16460530</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6520,12 +6520,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>LXG LTD</t>
+          <t>ASHTON PROPERTY HOLDING LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16460686</t>
+          <t>16460486</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
+          <t>LUNIFY LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16460690</t>
+          <t>16460802</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -6596,12 +6596,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>WENSUM MEDIATION LIMITED</t>
+          <t>K&amp;C CLEANING AND PROPERTY MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16460696</t>
+          <t>16460803</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6634,12 +6634,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>THE EMMANUEL CENTRE CIC</t>
+          <t>ADM(GB) LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16460695</t>
+          <t>SC848982</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -6672,12 +6672,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>DB RAIL INFRASTRUCTURE LTD</t>
+          <t>CHESED MAINTENANCE SERVICES CIC</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16460719</t>
+          <t>16460809</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -6710,12 +6710,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>STUDIO FOUNDLING LIMITED</t>
+          <t>ASSURED VENDING GROUP LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16460717</t>
+          <t>16460810</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -6748,12 +6748,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
+          <t>TNKLOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16460402</t>
+          <t>16460447</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6786,12 +6786,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>SURREYSIDECOMPS LTD</t>
+          <t>NEON LOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16460422</t>
+          <t>16460453</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -6824,12 +6824,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>2BCLOTHING LTD</t>
+          <t>A&amp;A OPTICS LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16460354</t>
+          <t>SC848975</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>YAKO CASINO LTD</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16460391</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -6900,12 +6900,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>BLOOMSBURY EAST LTD</t>
+          <t>DEXKAANE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16460616</t>
+          <t>16460419</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -6938,12 +6938,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>SCP RESOURCE CONSULTING LTD</t>
+          <t>AGS STRUCTURAL OUTPUTS LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16461047</t>
+          <t>16460420</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -6976,12 +6976,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
+          <t>NEW CROSS LOCAL LIMITED</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16460569</t>
+          <t>16460417</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7014,12 +7014,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>FAST FREE WEBSITES LIMITED</t>
+          <t>INJECTIVE AESTHETICS LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16460451</t>
+          <t>16460415</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7052,12 +7052,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>ORIENT CANTEEN LTD</t>
+          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16460365</t>
+          <t>16460408</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7090,12 +7090,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>HORUSKY LTD</t>
+          <t>RATHDOWN LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16460558</t>
+          <t>16460398</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7128,12 +7128,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>CLEANING MONK LTD</t>
+          <t>HOLMCROFT LIMITED</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16460369</t>
+          <t>OE033935</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7166,12 +7166,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>T-REX (GUILDFORD) LIMITED</t>
+          <t>XYZ COMMERCE LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16460637</t>
+          <t>16460489</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7204,12 +7204,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16460640</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7242,12 +7242,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>PREVENTR ACTIVE FIRE LTD</t>
+          <t>LC COURIERS LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16460677</t>
+          <t>16460390</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7280,12 +7280,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>DXI DAILY NECESSITIES CO., LTD.</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16460679</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7318,12 +7318,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>TRIPLE J HOUSING LTD</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16460681</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7356,12 +7356,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>AMPERSAND MANAGEMENT UK LTD</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16460662</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7394,12 +7394,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>COREMARINE SOLUTIONS CIC</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16460663</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7432,12 +7432,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>SAMVIV PARTNERS LTD</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16460672</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7458,24 +7458,24 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16460669</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7508,12 +7508,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>SARASI LTD</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16460670</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -7546,12 +7546,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16460649</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7584,12 +7584,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>ASPC CONTENT CO LTD</t>
+          <t>GMS7 LIMITED</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16460643</t>
+          <t>16460386</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7622,12 +7622,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>MEDIA WEB PRO LTD</t>
+          <t>LA AUTOMOTIVE LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16460644</t>
+          <t>16460421</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7660,12 +7660,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>MAYTREE ELITE PROPERTIES LTD</t>
+          <t>TIMBRA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16460650</t>
+          <t>16460396</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -7698,12 +7698,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BRANWELL PROJECTS LIMITED</t>
+          <t>DOME DYNAMICS LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16460653</t>
+          <t>16460416</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -7736,12 +7736,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
+          <t>CINNABAR HEALTH TRADING CO., LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16460659</t>
+          <t>16460515</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -7774,12 +7774,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>INNOVATION MT LTD</t>
+          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16460646</t>
+          <t>16460487</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -7812,12 +7812,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
+          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>OC456787</t>
+          <t>16460400</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7838,24 +7838,24 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SADORP GLOBAL HOLDINGS LTD</t>
+          <t>SMARTY SPROUTS LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16460692</t>
+          <t>16460399</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -7888,12 +7888,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HOMEASE LTD</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16460666</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -7926,12 +7926,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
+          <t>SHOWBIZ PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16460694</t>
+          <t>16460496</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -7964,12 +7964,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>SMART SKILLS ACADEMY LTD</t>
+          <t>CLOSUR LIMITED</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16460568</t>
+          <t>16460556</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8002,12 +8002,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>DERICA SOLUTIONS LTD</t>
+          <t>RED DRAGON ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16460357</t>
+          <t>16460788</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8040,12 +8040,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>YANG HAIJUN LTD</t>
+          <t>4D CAPITAL PROPCO (44) LIMITED</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16460671</t>
+          <t>16461269</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8066,24 +8066,24 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>EDI&amp;ALEX LTD</t>
+          <t>SYMPLANO LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16460449</t>
+          <t>16460787</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8116,12 +8116,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>DEESTORE LTD</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16460510</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8154,12 +8154,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16460582</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -8192,12 +8192,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MISBAH GOODS LTD</t>
+          <t>AA SELLER HUB LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16460377</t>
+          <t>16460385</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -8230,12 +8230,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>H A REGISTRATIONS LTD</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16460586</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -8268,12 +8268,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>DELWAR INVESTMENTS LIMITED</t>
+          <t>MINESHOCK LABS LTD</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16460585</t>
+          <t>16460393</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8294,24 +8294,24 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>PRESSED &amp; FRESH LTD</t>
+          <t>PREMSPY HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16460587</t>
+          <t>SC848971</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -8344,12 +8344,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>TADSTARMAN LTD</t>
+          <t>NOMAD RIG LTD</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16460579</t>
+          <t>16460571</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8382,12 +8382,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>AMATHYST LTD</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16460595</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8420,12 +8420,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>BEEL WORLDWIDE SERVICES LTD</t>
+          <t>HEALTHY SWEETS UK LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16460594</t>
+          <t>16460418</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -8458,12 +8458,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>STRIPCO LTD</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16460564</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -8496,12 +8496,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>CLOCK IT TECH LTD</t>
+          <t>TINGEYS AIRPORTS LTD</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16460573</t>
+          <t>16460815</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -8534,12 +8534,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MIGHTY MARGATE CIC</t>
+          <t>MYSOL CORPORATION LIMITED</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16460626</t>
+          <t>16460819</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -8572,12 +8572,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>VIRTUAL CO. UK LTD</t>
+          <t>NRM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16460502</t>
+          <t>16460848</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -8610,12 +8610,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>STYLED BY LC LTD</t>
+          <t>GMEDVEDGROUP LTD</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16460563</t>
+          <t>16460434</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -8648,12 +8648,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>FAMILY COMMREPORT LTD</t>
+          <t>WAYS FORWARD CIC</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16460356</t>
+          <t>16460827</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -8686,12 +8686,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
+          <t>MESH OPERATIONS LTD</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16460478</t>
+          <t>16460841</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -8724,12 +8724,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>AAH MART LTD</t>
+          <t>MYSTIC PARTNERS &amp; CO LTD</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16460464</t>
+          <t>16460843</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8750,24 +8750,24 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>BANDOS BY ADEBISI LTD</t>
+          <t>ARBITREND LTD</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16460361</t>
+          <t>16460844</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -8800,12 +8800,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>VITANOVA LEARNING LIMITED</t>
+          <t>THE GOOD CLUB BRAND LIMITED</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16460384</t>
+          <t>16460845</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -8838,12 +8838,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>MONEY MART LTD</t>
+          <t>BLISSFUL LIFE GLOBAL LTD</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>16460383</t>
+          <t>16460842</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -8876,12 +8876,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MEARNS CLEANING SERVICES LTD</t>
+          <t>THE BEAUTY COLLECTIVE (NW) LTD</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16460387</t>
+          <t>16460830</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8902,7 +8902,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
@@ -8914,12 +8914,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>IMPERIUM ECHELON LTD</t>
+          <t>H2 ASSET MANAGEMENT LIMITED</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16460493</t>
+          <t>16460839</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -8952,12 +8952,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ABSAILING NDT LTD</t>
+          <t>OPULENTIA DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16460462</t>
+          <t>16460833</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8978,7 +8978,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -8990,12 +8990,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>THE GOBLIN WORKSHOP LTD</t>
+          <t>SPIDOCRAFT LTD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16460465</t>
+          <t>16460439</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9028,12 +9028,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
+          <t>KVP VENTURES LIMITED</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>16460353</t>
+          <t>16460424</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9054,29 +9054,29 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>BUILDASSIST SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16460452</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D228" t="inlineStr">
@@ -9087,12 +9087,12 @@
       <c r="E228" t="inlineStr"/>
       <c r="F228" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -9104,17 +9104,17 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>EXTERIOR EDGE LTD</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16460426</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D229" t="inlineStr">
@@ -9125,12 +9125,12 @@
       <c r="E229" t="inlineStr"/>
       <c r="F229" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9142,17 +9142,17 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D230" t="inlineStr">
@@ -9163,12 +9163,12 @@
       <c r="E230" t="inlineStr"/>
       <c r="F230" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -9180,17 +9180,17 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D231" t="inlineStr">
@@ -9201,12 +9201,12 @@
       <c r="E231" t="inlineStr"/>
       <c r="F231" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -9218,17 +9218,17 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>SINOBANG CONSULTING SERVICE LIMITED</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16460779</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D232" t="inlineStr">
@@ -9239,12 +9239,12 @@
       <c r="E232" t="inlineStr"/>
       <c r="F232" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -9256,17 +9256,17 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D233" t="inlineStr">
@@ -9277,12 +9277,12 @@
       <c r="E233" t="inlineStr"/>
       <c r="F233" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -9294,17 +9294,17 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>TRAVEL NOW GROUP LTD</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16460847</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
@@ -9315,12 +9315,12 @@
       <c r="E234" t="inlineStr"/>
       <c r="F234" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -9332,17 +9332,17 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>SC848970</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
@@ -9353,12 +9353,12 @@
       <c r="E235" t="inlineStr"/>
       <c r="F235" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -9370,17 +9370,17 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>STRUCTURE DART LTD</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16461096</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D236" t="inlineStr">
@@ -9391,12 +9391,12 @@
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -9408,17 +9408,17 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>TREASURE ISLAND COINS &amp; COLLECTIBLES LIMITED</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16460780</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D237" t="inlineStr">
@@ -9429,12 +9429,12 @@
       <c r="E237" t="inlineStr"/>
       <c r="F237" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -9446,17 +9446,17 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D238" t="inlineStr">
@@ -9467,12 +9467,12 @@
       <c r="E238" t="inlineStr"/>
       <c r="F238" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -9484,17 +9484,17 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>AERIX LIMITED</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16460775</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D239" t="inlineStr">
@@ -9505,12 +9505,12 @@
       <c r="E239" t="inlineStr"/>
       <c r="F239" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -9522,17 +9522,17 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>A.M.K WIND LTD</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>NI729588</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D240" t="inlineStr">
@@ -9543,12 +9543,12 @@
       <c r="E240" t="inlineStr"/>
       <c r="F240" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -9560,17 +9560,17 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>CNL.JJ.ENTERTAINMENT LTD</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16461082</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D241" t="inlineStr">
@@ -9581,12 +9581,12 @@
       <c r="E241" t="inlineStr"/>
       <c r="F241" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -9598,17 +9598,17 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>KATIE LEVI LTD</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16461078</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D242" t="inlineStr">
@@ -9619,12 +9619,12 @@
       <c r="E242" t="inlineStr"/>
       <c r="F242" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -9636,17 +9636,17 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>EBONY PROPERTY LTD</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16461086</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D243" t="inlineStr">
@@ -9657,12 +9657,12 @@
       <c r="E243" t="inlineStr"/>
       <c r="F243" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -9674,17 +9674,17 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>PEAR GREEN REAL ESTATES LTD</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16461085</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D244" t="inlineStr">
@@ -9695,12 +9695,12 @@
       <c r="E244" t="inlineStr"/>
       <c r="F244" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -9712,17 +9712,17 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>HEALTH WORLD TOURISM COMPANY LTD</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16461107</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D245" t="inlineStr">
@@ -9733,12 +9733,12 @@
       <c r="E245" t="inlineStr"/>
       <c r="F245" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -9750,17 +9750,17 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>SK&amp;SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16461108</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
@@ -9771,12 +9771,12 @@
       <c r="E246" t="inlineStr"/>
       <c r="F246" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -9788,17 +9788,17 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>OCONNOR SAFETY SPECIALISTS LTD</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>NI729607</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
@@ -9809,12 +9809,12 @@
       <c r="E247" t="inlineStr"/>
       <c r="F247" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -9826,17 +9826,17 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>TILFORD SOUTHWEST LTD</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16461098</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
@@ -9847,12 +9847,12 @@
       <c r="E248" t="inlineStr"/>
       <c r="F248" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -9864,17 +9864,17 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>CSP SURVEYING LIMITED</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>SC849008</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
@@ -9885,12 +9885,12 @@
       <c r="E249" t="inlineStr"/>
       <c r="F249" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -9902,17 +9902,17 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>ARTMARRA LTD</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16461097</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
@@ -9923,12 +9923,12 @@
       <c r="E250" t="inlineStr"/>
       <c r="F250" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -9940,17 +9940,17 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>COREPERFORMANCEUK LTD</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16461105</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
@@ -9961,12 +9961,12 @@
       <c r="E251" t="inlineStr"/>
       <c r="F251" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -9978,17 +9978,17 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>BG DUCTWORK LTD</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16461100</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
@@ -9999,12 +9999,12 @@
       <c r="E252" t="inlineStr"/>
       <c r="F252" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -10016,17 +10016,17 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>FARIS ELHADI GLOBAL . LTD</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16460498</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
@@ -10037,12 +10037,12 @@
       <c r="E253" t="inlineStr"/>
       <c r="F253" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -10054,17 +10054,17 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>BILLION SCENTS LTD</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16460413</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
@@ -10075,12 +10075,12 @@
       <c r="E254" t="inlineStr"/>
       <c r="F254" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -10092,17 +10092,17 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>HALTON-BROWNE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16460805</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D255" t="inlineStr">
@@ -10113,12 +10113,12 @@
       <c r="E255" t="inlineStr"/>
       <c r="F255" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -10130,17 +10130,17 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>HEART OF TOWN II LIMITED</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16460410</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D256" t="inlineStr">
@@ -10151,12 +10151,12 @@
       <c r="E256" t="inlineStr"/>
       <c r="F256" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -10168,17 +10168,17 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16460407</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D257" t="inlineStr">
@@ -10189,12 +10189,12 @@
       <c r="E257" t="inlineStr"/>
       <c r="F257" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -10206,17 +10206,17 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D258" t="inlineStr">
@@ -10227,34 +10227,34 @@
       <c r="E258" t="inlineStr"/>
       <c r="F258" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>BUILDERS SCOPE LIMITED</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16460514</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D259" t="inlineStr">
@@ -10265,12 +10265,12 @@
       <c r="E259" t="inlineStr"/>
       <c r="F259" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -10282,17 +10282,17 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>SKINNY SISTERS LTD</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16460411</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D260" t="inlineStr">
@@ -10303,12 +10303,12 @@
       <c r="E260" t="inlineStr"/>
       <c r="F260" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -10320,17 +10320,17 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>X1 UK SOLUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16460527</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D261" t="inlineStr">
@@ -10341,12 +10341,12 @@
       <c r="E261" t="inlineStr"/>
       <c r="F261" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -10358,17 +10358,17 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>NICTHEBOY TECHNOLOGY LTD.</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16460520</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D262" t="inlineStr">
@@ -10379,12 +10379,12 @@
       <c r="E262" t="inlineStr"/>
       <c r="F262" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -10396,17 +10396,17 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>LAZIZA BIRYANI LTD</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16460770</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
@@ -10417,34 +10417,34 @@
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>BBON BAKES LTD</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>SC848981</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
@@ -10455,12 +10455,12 @@
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -10472,17 +10472,17 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>LOGENTIA LTD</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16460448</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
@@ -10493,12 +10493,12 @@
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -10510,12 +10510,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>FITCARDIOLOGY LTD</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16457244</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -10548,12 +10548,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -10586,12 +10586,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -10624,12 +10624,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>FINTIVITY LTD</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10662,12 +10662,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -10700,12 +10700,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -10738,12 +10738,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10776,12 +10776,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10814,12 +10814,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10852,12 +10852,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10890,12 +10890,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10928,12 +10928,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10966,12 +10966,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -11004,12 +11004,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11035,19 +11035,19 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -11080,12 +11080,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>AMIKOBA LTD</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16459545</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -11118,12 +11118,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -11156,12 +11156,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -11194,12 +11194,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -11232,12 +11232,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -11270,12 +11270,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -11308,12 +11308,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -11346,12 +11346,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -11384,12 +11384,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -11422,12 +11422,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -11460,12 +11460,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -11498,12 +11498,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -11536,12 +11536,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11574,12 +11574,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -11612,12 +11612,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>HOUSE OF RODEOS LTD</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -11650,12 +11650,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -11688,12 +11688,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -11726,12 +11726,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -11764,12 +11764,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -11802,12 +11802,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -11840,12 +11840,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -11878,12 +11878,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -11916,12 +11916,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11954,12 +11954,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11992,12 +11992,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -12030,12 +12030,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -12068,12 +12068,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>LEOFRIC LTD</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -12106,12 +12106,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -12144,12 +12144,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -12182,12 +12182,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -12220,12 +12220,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -12251,19 +12251,19 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -12296,12 +12296,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -12334,12 +12334,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -12372,12 +12372,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -12410,12 +12410,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -12448,12 +12448,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -12486,12 +12486,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12524,12 +12524,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>NEWMINERALS LTD</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16455878</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -12562,12 +12562,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -12600,12 +12600,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12638,12 +12638,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>FASHLER LTD</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -12676,12 +12676,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -12714,12 +12714,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -12752,12 +12752,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>NEW MOUNT DAISY LIMITED</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12790,12 +12790,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -12828,12 +12828,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -12858,6 +12858,1450 @@
         </is>
       </c>
       <c r="H327" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>16456754</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr"/>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>INDEXIE LTD</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>16459546</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr"/>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>CTPROPS LIMITED</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>16459084</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>16456203</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr"/>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>ROCK&amp;WALLS LTD</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>16457974</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr"/>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>16459520</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr"/>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>DRIVERIGHT REPAIRS LTD</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>16459058</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr"/>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>GLIMORA GLOBAL LTD</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>16457265</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr"/>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>16456765</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>OILMYCAR LTD</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>16456706</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>JC DEEP TECH LTD</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>16456256</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr"/>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>16459549</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr"/>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>CAMBRIDGE VETS LTD</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>16457975</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>CLARK AND CO DESIGN LIMITED</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>16459516</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr"/>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>MILLE TRADING LTD</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>16459518</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr"/>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>SPYRO APPAREL LTD</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>16459515</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr"/>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>CHIMNEY CHAPS LTD</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>16456261</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr"/>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>16456208</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E345" t="inlineStr"/>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G345" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>MAPLE (510) LIMITED</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>16457954</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E346" t="inlineStr"/>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G346" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>GK ZYGALA LIMITED</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>16457953</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E347" t="inlineStr"/>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G347" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>ELLISA'S BEAUTY LTD</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>16456750</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E348" t="inlineStr"/>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G348" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>16459514</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E349" t="inlineStr"/>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G349" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>16457272</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E350" t="inlineStr"/>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G350" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Investments</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>CLICKSPHARE CRAFT LTD</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>16459521</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E351" t="inlineStr"/>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G351" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>16459059</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E352" t="inlineStr"/>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G352" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>STOA PROJECTS LTD</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>16456212</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E353" t="inlineStr"/>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G353" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>METAHAVEN LTD</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>16457273</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E354" t="inlineStr"/>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G354" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>EVO AVIATION LIMITED</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>16456253</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E355" t="inlineStr"/>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G355" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>16459542</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E356" t="inlineStr"/>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G356" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>16456243</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E357" t="inlineStr"/>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G357" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>16457267</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E358" t="inlineStr"/>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G358" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>UKG BB HOLDINGS LTD</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>16456246</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E359" t="inlineStr"/>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G359" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>SOCIAL SLOT LTD</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>16456245</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E360" t="inlineStr"/>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G360" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H360" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>IDCHEM CONSULTING LIMITED</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>16456205</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G361" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H361" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>CTLO LTD</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>16456701</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G362" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H362" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>MEC SURVEYORS LTD</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>16456734</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G363" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H363" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>MARKETING DG LTD</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>16456254</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E364" t="inlineStr"/>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G364" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H364" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>16457238</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G365" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H365" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H365"/>
+  <dimension ref="A1:H396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AMPERSAND MANAGEMENT UK LTD</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16460662</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2BCLOTHING LTD</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460354</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>YAKO CASINO LTD</t>
+          <t>SYMPLANO LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16460391</t>
+          <t>16460787</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BLOOMSBURY EAST LTD</t>
+          <t>4D CAPITAL PROPCO (44) LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16460616</t>
+          <t>16461269</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,24 +656,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SCP RESOURCE CONSULTING LTD</t>
+          <t>RED DRAGON ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16461047</t>
+          <t>16460788</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
+          <t>AMPERSAND MANAGEMENT UK LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460569</t>
+          <t>16460662</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FAST FREE WEBSITES LIMITED</t>
+          <t>SHOWBIZ PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460451</t>
+          <t>16460496</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ORIENT CANTEEN LTD</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16460365</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HORUSKY LTD</t>
+          <t>SMARTY SPROUTS LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16460558</t>
+          <t>16460399</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CLEANING MONK LTD</t>
+          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460369</t>
+          <t>16460400</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>T-REX (GUILDFORD) LIMITED</t>
+          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16460637</t>
+          <t>16460487</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
+          <t>CINNABAR HEALTH TRADING CO., LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460640</t>
+          <t>16460515</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>PREVENTR ACTIVE FIRE LTD</t>
+          <t>DOME DYNAMICS LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460677</t>
+          <t>16460416</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>DXI DAILY NECESSITIES CO., LTD.</t>
+          <t>TIMBRA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460679</t>
+          <t>16460396</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TRIPLE J HOUSING LTD</t>
+          <t>LA AUTOMOTIVE LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460681</t>
+          <t>16460421</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>JBNC LIMITED</t>
+          <t>GMS7 LIMITED</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460484</t>
+          <t>16460386</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>INFINITE CARDS LTD</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460713</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SAMVIV PARTNERS LTD</t>
+          <t>AA SELLER HUB LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16460672</t>
+          <t>16460385</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1188,24 +1188,24 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460669</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SARASI LTD</t>
+          <t>NRM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460670</t>
+          <t>16460848</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
+          <t>THE GOOD CLUB BRAND LIMITED</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460649</t>
+          <t>16460845</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ASPC CONTENT CO LTD</t>
+          <t>ARBITREND LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460643</t>
+          <t>16460844</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MEDIA WEB PRO LTD</t>
+          <t>MYSTIC PARTNERS &amp; CO LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16460644</t>
+          <t>16460843</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1378,24 +1378,24 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MAYTREE ELITE PROPERTIES LTD</t>
+          <t>MESH OPERATIONS LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16460650</t>
+          <t>16460841</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>BRANWELL PROJECTS LIMITED</t>
+          <t>WAYS FORWARD CIC</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16460653</t>
+          <t>16460827</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
+          <t>GMEDVEDGROUP LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16460659</t>
+          <t>16460434</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1492,7 +1492,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INNOVATION MT LTD</t>
+          <t>MYSOL CORPORATION LIMITED</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16460646</t>
+          <t>16460819</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
+          <t>MINESHOCK LABS LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>OC456787</t>
+          <t>16460393</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1568,24 +1568,24 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SADORP GLOBAL HOLDINGS LTD</t>
+          <t>TINGEYS AIRPORTS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16460692</t>
+          <t>16460815</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HOMEASE LTD</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16460666</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
+          <t>HEALTHY SWEETS UK LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16460694</t>
+          <t>16460418</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SURREYSIDECOMPS LTD</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16460422</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
+          <t>NOMAD RIG LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16460402</t>
+          <t>16460571</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>STUDIO FOUNDLING LIMITED</t>
+          <t>PREMSPY HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16460717</t>
+          <t>SC848971</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>DB RAIL INFRASTRUCTURE LTD</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16460719</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GOWERTON GOLF RANGE LTD</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16460710</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>INAYA HEALTHCARE LTD</t>
+          <t>THE BEAUTY COLLECTIVE (NW) LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16460657</t>
+          <t>16460830</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16460624</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PADELHAUS (STRATFORD) LTD</t>
+          <t>ASSURED VENDING GROUP LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16460627</t>
+          <t>16460810</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>KINGS BARBER BOLTON LTD</t>
+          <t>CHESED MAINTENANCE SERVICES CIC</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16460636</t>
+          <t>16460809</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>TRIZITION LTD</t>
+          <t>ADM(GB) LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16460611</t>
+          <t>SC848982</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2062,7 +2062,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
+          <t>K&amp;C CLEANING AND PROPERTY MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16460615</t>
+          <t>16460803</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2100,24 +2100,24 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>PARDS MART LTD</t>
+          <t>LUNIFY LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16460414</t>
+          <t>16460802</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>AMGT HOLDING LTD</t>
+          <t>ASHTON PROPERTY HOLDING LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16460401</t>
+          <t>16460486</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>ROAMING RETAIL LIMITED</t>
+          <t>MAITI HOMES LIMITED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16460382</t>
+          <t>16460530</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>NPP RF2 LIMITED</t>
+          <t>KINTBURY ECO CENTRE CIC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16460409</t>
+          <t>16460500</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HAYES PARTNERS LTD</t>
+          <t>J W PUBS NE LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16460412</t>
+          <t>16460482</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2290,24 +2290,24 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>GS GEPE II SIDECAR IV GP LLP</t>
+          <t>DELTA ROMEO ONE LIMITED</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SO308186</t>
+          <t>16460495</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2328,24 +2328,24 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CC GARAGE LTD</t>
+          <t>CLIFTON DOG TRAINING LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16460397</t>
+          <t>16460445</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2378,12 +2378,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>ARORA MATERIALS LIMITED</t>
+          <t>DMOJ 2025 LIMITED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16460405</t>
+          <t>16460446</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2404,7 +2404,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
+          <t>JJ BROS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16460403</t>
+          <t>16460519</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>COACHED BY JESS LIMITED</t>
+          <t>RICH LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16460392</t>
+          <t>16460512</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>UNCOMFORTABLE CHATS LIMITED</t>
+          <t>MELAKA COLLEGE CIC</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16460394</t>
+          <t>16460783</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>RESTORCARE HEALTH LTD</t>
+          <t>TNKLOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16460404</t>
+          <t>16460447</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CORNISH IT CONSULTING LTD</t>
+          <t>NEON LOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16460395</t>
+          <t>16460453</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2594,7 +2594,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PROTO DSGN LIMITED</t>
+          <t>A&amp;A OPTICS LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16460406</t>
+          <t>SC848975</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>OMID'S ENTERPRISE LTD</t>
+          <t>XYZ COMMERCE LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16460381</t>
+          <t>16460489</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>BARKADEMY LTD</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16460454</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>BY FATOU JAI LTD</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16460371</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SIMPLY MLC LTD</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16460691</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>LXG LTD</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16460686</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
+          <t>LC COURIERS LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16460690</t>
+          <t>16460390</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>WENSUM MEDIATION LIMITED</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16460696</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>THE EMMANUEL CENTRE CIC</t>
+          <t>HOLMCROFT LIMITED</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16460695</t>
+          <t>OE033935</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SMART SKILLS ACADEMY LTD</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16460568</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>DERICA SOLUTIONS LTD</t>
+          <t>RATHDOWN LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16460357</t>
+          <t>16460398</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>YANG HAIJUN LTD</t>
+          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16460671</t>
+          <t>16460408</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AMINO RESTAURANT LTD</t>
+          <t>INJECTIVE AESTHETICS LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16461171</t>
+          <t>16460415</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>FOOTBALL IS FOR THE FANS LTD</t>
+          <t>NEW CROSS LOCAL LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16461167</t>
+          <t>16460417</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>GREENHILLS 2 LIMITED</t>
+          <t>AGS STRUCTURAL OUTPUTS LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SC849017</t>
+          <t>16460420</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>MOSU VENTURES LTD</t>
+          <t>DEXKAANE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16461209</t>
+          <t>16460419</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3202,24 +3202,24 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PULSE SUMMIT CAPITAL LTD</t>
+          <t>BLISSFUL LIFE GLOBAL LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16461206</t>
+          <t>16460842</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3240,24 +3240,24 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>MUORICA NEXOS LTD</t>
+          <t>H2 ASSET MANAGEMENT LIMITED</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16461214</t>
+          <t>16460839</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SSMC INVESTMENTS LTD</t>
+          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16461213</t>
+          <t>16460430</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3316,24 +3316,24 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>BOWDEN SPRING LIMITED</t>
+          <t>X1 UK SOLUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16461175</t>
+          <t>16460527</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>BOUNDLESS RISE LIMITED</t>
+          <t>ECOMEXUS LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16461176</t>
+          <t>16461607</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>NERIA VICTER LTD</t>
+          <t>YOUR LOCAL PROPERTY HUB LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16461177</t>
+          <t>16461603</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3442,12 +3442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>GILES &amp; STERLING YOUNG LIMITED</t>
+          <t>ECOMM SHARK LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16461174</t>
+          <t>16461605</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>PJ MANSWORTH (ALED) LIMITED</t>
+          <t>MICHAEL MACKENZIE ENTERPRISES LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16461216</t>
+          <t>SC849048</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>BM SERWIS LTD</t>
+          <t>PARASETS LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16461219</t>
+          <t>16461657</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GREENLYTICS AI LTD</t>
+          <t>MAZAJ WHOLESALE LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16461189</t>
+          <t>16461658</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3582,7 +3582,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>E J WHITE &amp; SON (SCAFFOLDING) LTD</t>
+          <t>AREAVERTA TECHNOLOGIES LOGISTICS &amp; FACILITIES MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16461193</t>
+          <t>16461652</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>BALDAN FLOORING LIMITED</t>
+          <t>LAWNHOPPER (RUNCORN) LIMITED</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16461191</t>
+          <t>16461653</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>FRANCE COMMERCE LTD</t>
+          <t>KT16 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16461192</t>
+          <t>16461656</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>VELMI LTD</t>
+          <t>DPAREKH’S LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16461185</t>
+          <t>16461659</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>MEHRAS PISHGAM SADRA EXPO LTD</t>
+          <t>RISE AND SHINE HOMES LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16461195</t>
+          <t>16461593</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CODALYTICS LIMITED</t>
+          <t>PLANET POSITIVE GROUP LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16461182</t>
+          <t>16461597</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOULFUL SYNERGY LTD</t>
+          <t>LOGENTIA LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16461224</t>
+          <t>16460448</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>REIGNING MEDIA LIMITED</t>
+          <t>BBON BAKES LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16461275</t>
+          <t>SC848981</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CRISPY GLEN LTD</t>
+          <t>LAZIZA BIRYANI LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SC849027</t>
+          <t>16460770</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>KGM CONSTRUCTION LTD</t>
+          <t>KNOOPS (LSC) LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16461264</t>
+          <t>16461602</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TUK TALENT LTD</t>
+          <t>M.FATY LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16461265</t>
+          <t>16461586</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SW2 CONSTRUCTION LIMITED</t>
+          <t>HAMPTON HOUSE CARE SERVICES LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16461262</t>
+          <t>16461590</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>FUNCTION.ALL.OVER LTD</t>
+          <t>GB AGENT LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16461272</t>
+          <t>16461614</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>AMARA WELLS LTD</t>
+          <t>KLOUDBAR LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>SC849026</t>
+          <t>16461621</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>GROUND MORTGAGE SERVICES LIMITED</t>
+          <t>MALIK MANSIONS LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16461278</t>
+          <t>16461623</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>MUNCHIES KEBAB DESERT LTD</t>
+          <t>TO BE CROWNED GROUP LIMITED</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16461260</t>
+          <t>16461630</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>NORDIX FREIGHT LTD</t>
+          <t>QAZAFI MART LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>SC849013</t>
+          <t>16461632</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4240,12 +4240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>COMBI CARE AND REPAIR - OLLIE GIBSON LTD</t>
+          <t>ON THE MOVE FLEET LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16461168</t>
+          <t>16461636</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4278,12 +4278,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>EDI&amp;ALEX LTD</t>
+          <t>KL BUSINESS DEVELOPERS LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16460449</t>
+          <t>16461634</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>METABOLICO2 LTD</t>
+          <t>GOODWELL TEX LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>SC849016</t>
+          <t>16461615</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4354,12 +4354,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>DEESTORE LTD</t>
+          <t>BLACKEYE PULSE LIMITED</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16460510</t>
+          <t>16461644</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
+          <t>AXON HEALTH SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16460582</t>
+          <t>16461612</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4430,12 +4430,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>MISBAH GOODS LTD</t>
+          <t>NUZZLE GROUP LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16460377</t>
+          <t>16461645</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>H A REGISTRATIONS LTD</t>
+          <t>TACO INC LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16460586</t>
+          <t>16461646</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4506,12 +4506,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DELWAR INVESTMENTS LIMITED</t>
+          <t>ROOSYS LIMITED</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16460585</t>
+          <t>16461647</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4532,24 +4532,24 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>PRESSED &amp; FRESH LTD</t>
+          <t>AISTRIOLOGY LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16460587</t>
+          <t>16461642</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4582,12 +4582,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>TADSTARMAN LTD</t>
+          <t>DANCRAFT LLP</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16460579</t>
+          <t>OC456792</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4608,24 +4608,24 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AMATHYST LTD</t>
+          <t>NICTHEBOY TECHNOLOGY LTD.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16460595</t>
+          <t>16460520</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4658,12 +4658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>BEEL WORLDWIDE SERVICES LTD</t>
+          <t>SKINNY SISTERS LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16460594</t>
+          <t>16460411</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4696,12 +4696,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>STRIPCO LTD</t>
+          <t>OPULENTIA DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16460564</t>
+          <t>16460833</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4734,12 +4734,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CLOCK IT TECH LTD</t>
+          <t>BUILDERS SCOPE LIMITED</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16460573</t>
+          <t>16460514</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4772,12 +4772,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>MIGHTY MARGATE CIC</t>
+          <t>A.M.K WIND LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>16460626</t>
+          <t>NI729588</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4810,12 +4810,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>VIRTUAL CO. UK LTD</t>
+          <t>AERIX LIMITED</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16460502</t>
+          <t>16460775</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4848,12 +4848,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>STYLED BY LC LTD</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16460563</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>FAMILY COMMREPORT LTD</t>
+          <t>TREASURE ISLAND COINS &amp; COLLECTIBLES LIMITED</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16460356</t>
+          <t>16460780</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4924,12 +4924,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
+          <t>STRUCTURE DART LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16460478</t>
+          <t>16461096</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4962,12 +4962,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>AAH MART LTD</t>
+          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16460464</t>
+          <t>SC848970</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5000,12 +5000,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>BANDOS BY ADEBISI LTD</t>
+          <t>TRAVEL NOW GROUP LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16460361</t>
+          <t>16460847</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5038,12 +5038,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>VITANOVA LEARNING LIMITED</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16460384</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MONEY MART LTD</t>
+          <t>SINOBANG CONSULTING SERVICE LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16460383</t>
+          <t>16460779</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MEARNS CLEANING SERVICES LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16460387</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5152,12 +5152,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>IMPERIUM ECHELON LTD</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16460493</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5190,12 +5190,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>ABSAILING NDT LTD</t>
+          <t>EXTERIOR EDGE LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16460462</t>
+          <t>16460426</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5228,12 +5228,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>THE GOBLIN WORKSHOP LTD</t>
+          <t>BUILDASSIST SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16460465</t>
+          <t>16460452</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
+          <t>KVP VENTURES LIMITED</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16460353</t>
+          <t>16460424</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5292,24 +5292,24 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>TAHI STUDIO LIMITED</t>
+          <t>SPIDOCRAFT LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16461197</t>
+          <t>16460439</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5330,7 +5330,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H129" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>NXT GEN INTERNATIONAL LTD</t>
+          <t>CNL.JJ.ENTERTAINMENT LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16461199</t>
+          <t>16461082</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5380,12 +5380,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SAFECLEAN GROUP LIMITED</t>
+          <t>KATIE LEVI LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16461198</t>
+          <t>16461078</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5418,12 +5418,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>RIONEST LTD</t>
+          <t>EBONY PROPERTY LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>SC849015</t>
+          <t>16461086</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5456,12 +5456,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CORE YOU MEDIA LTD</t>
+          <t>BG DUCTWORK LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16460709</t>
+          <t>16461100</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5494,12 +5494,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>COREMARINE SOLUTIONS CIC</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16460663</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5520,24 +5520,24 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>PRACTICE MAKES PERFECT LTD</t>
+          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16460388</t>
+          <t>16460407</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5570,12 +5570,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
+          <t>HEART OF TOWN II LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16460442</t>
+          <t>16460410</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5608,12 +5608,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>ETECH VENTURE LIMITED</t>
+          <t>HALTON-BROWNE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16460372</t>
+          <t>16460805</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5646,12 +5646,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOTAMI LTD</t>
+          <t>BILLION SCENTS LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16460531</t>
+          <t>16460413</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -5684,12 +5684,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>PEARTREE GARAGE LTD</t>
+          <t>FARIS ELHADI GLOBAL . LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16460535</t>
+          <t>16460498</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5722,12 +5722,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>ALFA HG LTD</t>
+          <t>COREPERFORMANCEUK LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16460543</t>
+          <t>16461105</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>JAMIL TALIB LTD</t>
+          <t>PEAR GREEN REAL ESTATES LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16460389</t>
+          <t>16461085</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>C &amp; D ENVIRONMENT LIMITED</t>
+          <t>ARTMARRA LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16460548</t>
+          <t>16461097</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -5836,12 +5836,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>THE SOL COLLECTION LTD</t>
+          <t>CSP SURVEYING LIMITED</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16460547</t>
+          <t>SC849008</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -5874,12 +5874,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>CONTINENTAL COACHES LTD</t>
+          <t>TILFORD SOUTHWEST LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16460551</t>
+          <t>16461098</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -5912,12 +5912,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>LIMITLESSCONTRACTS LTD</t>
+          <t>OCONNOR SAFETY SPECIALISTS LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16460553</t>
+          <t>NI729607</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -5950,12 +5950,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>TONPA LTD</t>
+          <t>SK&amp;SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16460471</t>
+          <t>16461108</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -5988,12 +5988,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>CLASSFORGE LTD</t>
+          <t>HEALTH WORLD TOURISM COMPANY LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16460436</t>
+          <t>16461107</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6026,12 +6026,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MAAM CO. LTD</t>
+          <t>ANAM CARA JEWELLERY LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SC848972</t>
+          <t>16460516</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6064,12 +6064,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>LASHESBYS LIMITED</t>
+          <t>CLOSUR LIMITED</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>SC848973</t>
+          <t>16460556</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6102,12 +6102,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
+          <t>LASHESBYS LIMITED</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16460430</t>
+          <t>SC848973</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6140,12 +6140,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ANAM CARA JEWELLERY LTD</t>
+          <t>RESTORCARE HEALTH LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16460516</t>
+          <t>16460404</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6178,12 +6178,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>MELAKA COLLEGE CIC</t>
+          <t>COACHED BY JESS LIMITED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16460783</t>
+          <t>16460392</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6216,12 +6216,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>RICH LOGISTICS LTD</t>
+          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16460512</t>
+          <t>16460403</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6254,12 +6254,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>JJ BROS CONSTRUCTION LTD</t>
+          <t>ARORA MATERIALS LIMITED</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16460519</t>
+          <t>16460405</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6280,7 +6280,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
@@ -6292,12 +6292,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>DMOJ 2025 LIMITED</t>
+          <t>CC GARAGE LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16460446</t>
+          <t>16460397</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6330,12 +6330,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>CLIFTON DOG TRAINING LTD</t>
+          <t>GS GEPE II SIDECAR IV GP LLP</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16460445</t>
+          <t>SO308186</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6356,24 +6356,24 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>DELTA ROMEO ONE LIMITED</t>
+          <t>HAYES PARTNERS LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16460495</t>
+          <t>16460412</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6394,24 +6394,24 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>J W PUBS NE LTD</t>
+          <t>NPP RF2 LIMITED</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16460482</t>
+          <t>16460409</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6444,12 +6444,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>KINTBURY ECO CENTRE CIC</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16460500</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6482,12 +6482,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MAITI HOMES LIMITED</t>
+          <t>AMGT HOLDING LTD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16460530</t>
+          <t>16460401</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6520,12 +6520,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ASHTON PROPERTY HOLDING LTD</t>
+          <t>PARDS MART LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16460486</t>
+          <t>16460414</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>LUNIFY LTD</t>
+          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16460802</t>
+          <t>16460615</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6584,24 +6584,24 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>K&amp;C CLEANING AND PROPERTY MANAGEMENT LTD</t>
+          <t>TRIZITION LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16460803</t>
+          <t>16460611</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6634,12 +6634,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>ADM(GB) LTD</t>
+          <t>KINGS BARBER BOLTON LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>SC848982</t>
+          <t>16460636</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -6672,12 +6672,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>CHESED MAINTENANCE SERVICES CIC</t>
+          <t>PADELHAUS (STRATFORD) LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16460809</t>
+          <t>16460627</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -6710,12 +6710,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ASSURED VENDING GROUP LTD</t>
+          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16460810</t>
+          <t>16460624</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -6748,12 +6748,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>TNKLOGISTICS LIMITED</t>
+          <t>UNCOMFORTABLE CHATS LIMITED</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16460447</t>
+          <t>16460394</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6786,12 +6786,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>NEON LOGISTICS LIMITED</t>
+          <t>CORNISH IT CONSULTING LTD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16460453</t>
+          <t>16460395</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -6824,12 +6824,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>A&amp;A OPTICS LTD</t>
+          <t>MUORICA NEXOS LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>SC848975</t>
+          <t>16461214</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>VIVID MART LTD</t>
+          <t>PROTO DSGN LIMITED</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16460370</t>
+          <t>16460406</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -6900,12 +6900,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>DEXKAANE SERVICES LIMITED</t>
+          <t>MOSU VENTURES LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16460419</t>
+          <t>16461209</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6926,24 +6926,24 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AGS STRUCTURAL OUTPUTS LTD</t>
+          <t>GREENHILLS 2 LIMITED</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>16460420</t>
+          <t>SC849017</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -6976,12 +6976,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>NEW CROSS LOCAL LIMITED</t>
+          <t>FOOTBALL IS FOR THE FANS LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16460417</t>
+          <t>16461167</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7014,12 +7014,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>INJECTIVE AESTHETICS LTD</t>
+          <t>AMINO RESTAURANT LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16460415</t>
+          <t>16461171</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7052,12 +7052,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
+          <t>YANG HAIJUN LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16460408</t>
+          <t>16460671</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7090,12 +7090,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>RATHDOWN LTD</t>
+          <t>DERICA SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16460398</t>
+          <t>16460357</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7128,12 +7128,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>HOLMCROFT LIMITED</t>
+          <t>SMART SKILLS ACADEMY LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>OE033935</t>
+          <t>16460568</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7143,7 +7143,7 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E177" t="inlineStr"/>
@@ -7154,7 +7154,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7166,12 +7166,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>XYZ COMMERCE LTD</t>
+          <t>THE EMMANUEL CENTRE CIC</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16460489</t>
+          <t>16460695</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7204,12 +7204,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>FIND YOUR INDUSTRY LTD</t>
+          <t>WENSUM MEDIATION LIMITED</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16460362</t>
+          <t>16460696</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7242,12 +7242,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>LC COURIERS LTD</t>
+          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16460390</t>
+          <t>16460690</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7280,12 +7280,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
+          <t>LXG LTD</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16460374</t>
+          <t>16460686</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7318,12 +7318,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
+          <t>SIMPLY MLC LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16460375</t>
+          <t>16460691</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7356,12 +7356,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>LUXCOMMERCE LTD</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16460360</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7394,12 +7394,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>CLEARLABS PERFORMANCE LTD</t>
+          <t>BARKADEMY LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16460364</t>
+          <t>16460454</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7432,12 +7432,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>ACCORD FIRE DOORS LTD</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16460363</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7470,12 +7470,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>LITBUILD LTD</t>
+          <t>INAYA HEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16460368</t>
+          <t>16460657</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7508,12 +7508,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>MAK'S TRADERS LTD</t>
+          <t>GOWERTON GOLF RANGE LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16460355</t>
+          <t>16460710</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -7546,12 +7546,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>SKYFREIGHTGLOBAL LTD</t>
+          <t>DB RAIL INFRASTRUCTURE LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16460366</t>
+          <t>16460719</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7572,7 +7572,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7584,12 +7584,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>GMS7 LIMITED</t>
+          <t>STUDIO FOUNDLING LIMITED</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16460386</t>
+          <t>16460717</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7622,12 +7622,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>LA AUTOMOTIVE LTD</t>
+          <t>JBNC LIMITED</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16460421</t>
+          <t>16460484</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7660,12 +7660,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>TIMBRA PROJECTS LTD</t>
+          <t>TRIPLE J HOUSING LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16460396</t>
+          <t>16460681</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -7698,12 +7698,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>DOME DYNAMICS LTD</t>
+          <t>DXI DAILY NECESSITIES CO., LTD.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16460416</t>
+          <t>16460679</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -7736,12 +7736,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>CINNABAR HEALTH TRADING CO., LTD</t>
+          <t>PREVENTR ACTIVE FIRE LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16460515</t>
+          <t>16460677</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -7774,12 +7774,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
+          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16460487</t>
+          <t>16460640</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -7812,12 +7812,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
+          <t>T-REX (GUILDFORD) LIMITED</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16460400</t>
+          <t>16460637</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -7850,12 +7850,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>SMARTY SPROUTS LTD</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16460399</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -7888,12 +7888,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>MASR PROPERTIES LTD</t>
+          <t>HORUSKY LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16460367</t>
+          <t>16460558</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -7926,12 +7926,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>SHOWBIZ PRODUCTIONS LTD</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16460496</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -7964,12 +7964,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>CLOSUR LIMITED</t>
+          <t>FAST FREE WEBSITES LIMITED</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16460556</t>
+          <t>16460451</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -8002,12 +8002,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>RED DRAGON ELECTRICAL LTD</t>
+          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16460788</t>
+          <t>16460569</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8040,12 +8040,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>4D CAPITAL PROPCO (44) LIMITED</t>
+          <t>SCP RESOURCE CONSULTING LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16461269</t>
+          <t>16461047</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8066,24 +8066,24 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>SYMPLANO LTD</t>
+          <t>BLOOMSBURY EAST LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16460787</t>
+          <t>16460616</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8116,12 +8116,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>MOTIVATION AND PROSPERITY LTD</t>
+          <t>YAKO CASINO LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16460379</t>
+          <t>16460391</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8154,12 +8154,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>CLARITY VENTURE SUPPORT LTD</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16460376</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8192,12 +8192,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>AA SELLER HUB LTD</t>
+          <t>INFINITE CARDS LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16460385</t>
+          <t>16460713</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -8230,12 +8230,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>PAVITA LOGISTICS LTD</t>
+          <t>SAMVIV PARTNERS LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16460373</t>
+          <t>16460672</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8256,24 +8256,24 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>MINESHOCK LABS LTD</t>
+          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16460393</t>
+          <t>16460669</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8294,7 +8294,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
@@ -8306,12 +8306,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>PREMSPY HOLDING LIMITED</t>
+          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>SC848971</t>
+          <t>OC456787</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8332,24 +8332,24 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>NOMAD RIG LTD</t>
+          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16460571</t>
+          <t>16460402</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8370,7 +8370,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -8382,12 +8382,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>THE SPICE INVADERS LTD</t>
+          <t>SURREYSIDECOMPS LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16460505</t>
+          <t>16460422</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8420,12 +8420,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>HEALTHY SWEETS UK LTD</t>
+          <t>MAAM CO. LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16460418</t>
+          <t>SC848972</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -8458,12 +8458,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>DEE BEE TRADING LTD</t>
+          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16460511</t>
+          <t>16460694</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -8496,12 +8496,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>TINGEYS AIRPORTS LTD</t>
+          <t>HOMEASE LTD</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16460815</t>
+          <t>16460666</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -8534,12 +8534,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>MYSOL CORPORATION LIMITED</t>
+          <t>SADORP GLOBAL HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16460819</t>
+          <t>16460692</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -8572,12 +8572,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>NRM CONSULTING LIMITED</t>
+          <t>INNOVATION MT LTD</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16460848</t>
+          <t>16460646</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -8610,12 +8610,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>GMEDVEDGROUP LTD</t>
+          <t>SARASI LTD</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16460434</t>
+          <t>16460670</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -8648,12 +8648,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>WAYS FORWARD CIC</t>
+          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16460827</t>
+          <t>16460659</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -8686,12 +8686,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MESH OPERATIONS LTD</t>
+          <t>BRANWELL PROJECTS LIMITED</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16460841</t>
+          <t>16460653</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8712,7 +8712,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
@@ -8724,12 +8724,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MYSTIC PARTNERS &amp; CO LTD</t>
+          <t>MAYTREE ELITE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16460843</t>
+          <t>16460650</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8750,24 +8750,24 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>ARBITREND LTD</t>
+          <t>MEDIA WEB PRO LTD</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16460844</t>
+          <t>16460644</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -8800,12 +8800,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>THE GOOD CLUB BRAND LIMITED</t>
+          <t>ASPC CONTENT CO LTD</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16460845</t>
+          <t>16460643</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -8838,12 +8838,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BLISSFUL LIFE GLOBAL LTD</t>
+          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>16460842</t>
+          <t>16460649</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -8876,12 +8876,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>THE BEAUTY COLLECTIVE (NW) LTD</t>
+          <t>PULSE SUMMIT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16460830</t>
+          <t>16461206</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8902,24 +8902,24 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>H2 ASSET MANAGEMENT LIMITED</t>
+          <t>BROWNS INVESTMENT GROUP LTD</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16460839</t>
+          <t>16461631</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -8952,12 +8952,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>OPULENTIA DEVELOPMENT LTD</t>
+          <t>SSMC INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16460833</t>
+          <t>16461213</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8978,24 +8978,24 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>SPIDOCRAFT LTD</t>
+          <t>STRIPCO LTD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16460439</t>
+          <t>16460564</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9028,12 +9028,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>KVP VENTURES LIMITED</t>
+          <t>PRACTICE MAKES PERFECT LTD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>16460424</t>
+          <t>16460388</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9054,24 +9054,24 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>BUILDASSIST SERVICES LIMITED</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>16460452</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9092,7 +9092,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -9104,12 +9104,12 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>EXTERIOR EDGE LTD</t>
+          <t>SOTAMI LTD</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>16460426</t>
+          <t>16460531</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9142,12 +9142,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>MASTER THE CHAIN LTD</t>
+          <t>PEARTREE GARAGE LTD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>16460358</t>
+          <t>16460535</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -9180,12 +9180,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>TRUE NORTH JOINERY LTD</t>
+          <t>ALFA HG LTD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>16460359</t>
+          <t>16460543</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9206,7 +9206,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -9218,12 +9218,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>SINOBANG CONSULTING SERVICE LIMITED</t>
+          <t>STYLED BY LC LTD</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>16460779</t>
+          <t>16460563</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -9256,12 +9256,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>FONETHICS SOLUTIONS LTD</t>
+          <t>JAMIL TALIB LTD</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>SC848969</t>
+          <t>16460389</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -9294,12 +9294,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>TRAVEL NOW GROUP LTD</t>
+          <t>C &amp; D ENVIRONMENT LIMITED</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>16460847</t>
+          <t>16460548</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -9332,12 +9332,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
+          <t>THE SOL COLLECTION LTD</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SC848970</t>
+          <t>16460547</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9358,7 +9358,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
@@ -9370,12 +9370,12 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>STRUCTURE DART LTD</t>
+          <t>CONTINENTAL COACHES LTD</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>16461096</t>
+          <t>16460551</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -9408,12 +9408,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>TREASURE ISLAND COINS &amp; COLLECTIBLES LIMITED</t>
+          <t>LIMITLESSCONTRACTS LTD</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>16460780</t>
+          <t>16460553</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -9446,12 +9446,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>NARCISSIST APPAREL LTD</t>
+          <t>TONPA LTD</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>16460378</t>
+          <t>16460471</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>AERIX LIMITED</t>
+          <t>CLASSFORGE LTD</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>16460775</t>
+          <t>16460436</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -9522,12 +9522,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>A.M.K WIND LTD</t>
+          <t>VIRTUAL CO. UK LTD</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>NI729588</t>
+          <t>16460502</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -9560,12 +9560,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>CNL.JJ.ENTERTAINMENT LTD</t>
+          <t>MIGHTY MARGATE CIC</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>16461082</t>
+          <t>16460626</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -9586,7 +9586,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
@@ -9598,12 +9598,12 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>KATIE LEVI LTD</t>
+          <t>COREMARINE SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>16461078</t>
+          <t>16460663</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -9636,12 +9636,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>EBONY PROPERTY LTD</t>
+          <t>CORE YOU MEDIA LTD</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>16461086</t>
+          <t>16460709</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -9674,12 +9674,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>PEAR GREEN REAL ESTATES LTD</t>
+          <t>RIONEST LTD</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>16461085</t>
+          <t>SC849015</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -9712,12 +9712,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>HEALTH WORLD TOURISM COMPANY LTD</t>
+          <t>MONEY MART LTD</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>16461107</t>
+          <t>16460383</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -9750,12 +9750,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SK&amp;SONS PROPERTIES LTD</t>
+          <t>BOWDEN SPRING LIMITED</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>16461108</t>
+          <t>16461175</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -9788,12 +9788,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>OCONNOR SAFETY SPECIALISTS LTD</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>NI729607</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -9826,12 +9826,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TILFORD SOUTHWEST LTD</t>
+          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>16461098</t>
+          <t>16460478</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -9864,12 +9864,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>CSP SURVEYING LIMITED</t>
+          <t>AAH MART LTD</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SC849008</t>
+          <t>16460464</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -9902,12 +9902,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>ARTMARRA LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>16461097</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -9940,12 +9940,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>COREPERFORMANCEUK LTD</t>
+          <t>VITANOVA LEARNING LIMITED</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>16461105</t>
+          <t>16460384</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -9978,12 +9978,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>BG DUCTWORK LTD</t>
+          <t>MEARNS CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>16461100</t>
+          <t>16460387</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -10016,12 +10016,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>FARIS ELHADI GLOBAL . LTD</t>
+          <t>SAFECLEAN GROUP LIMITED</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>16460498</t>
+          <t>16461198</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -10054,12 +10054,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BILLION SCENTS LTD</t>
+          <t>IMPERIUM ECHELON LTD</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>16460413</t>
+          <t>16460493</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -10092,12 +10092,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>HALTON-BROWNE PROPERTIES LTD</t>
+          <t>ABSAILING NDT LTD</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>16460805</t>
+          <t>16460462</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -10130,12 +10130,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>HEART OF TOWN II LIMITED</t>
+          <t>THE GOBLIN WORKSHOP LTD</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>16460410</t>
+          <t>16460465</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -10168,12 +10168,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>16460407</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -10206,12 +10206,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
+          <t>TAHI STUDIO LIMITED</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16460503</t>
+          <t>16461197</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -10232,24 +10232,24 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>BUILDERS SCOPE LIMITED</t>
+          <t>NXT GEN INTERNATIONAL LTD</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>16460514</t>
+          <t>16461199</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -10282,12 +10282,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>SKINNY SISTERS LTD</t>
+          <t>CLOCK IT TECH LTD</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>16460411</t>
+          <t>16460573</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -10320,12 +10320,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>X1 UK SOLUTIONS LIMITED</t>
+          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>16460527</t>
+          <t>16460442</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -10358,12 +10358,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>NICTHEBOY TECHNOLOGY LTD.</t>
+          <t>BEEL WORLDWIDE SERVICES LTD</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>16460520</t>
+          <t>16460594</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -10396,12 +10396,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>LAZIZA BIRYANI LTD</t>
+          <t>TUK TALENT LTD</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>16460770</t>
+          <t>16461265</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -10434,12 +10434,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>BBON BAKES LTD</t>
+          <t>CRISPY GLEN LTD</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SC848981</t>
+          <t>SC849027</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -10472,12 +10472,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>LOGENTIA LTD</t>
+          <t>REIGNING MEDIA LIMITED</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>16460448</t>
+          <t>16461275</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -10510,17 +10510,17 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>SOULFUL SYNERGY LTD</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16461224</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
@@ -10531,12 +10531,12 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -10548,17 +10548,17 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>CODALYTICS LIMITED</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16461182</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
@@ -10569,12 +10569,12 @@
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -10586,17 +10586,17 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>MEHRAS PISHGAM SADRA EXPO LTD</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16461195</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
@@ -10607,12 +10607,12 @@
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -10624,17 +10624,17 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>VELMI LTD</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16461185</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
@@ -10645,12 +10645,12 @@
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -10662,17 +10662,17 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>FRANCE COMMERCE LTD</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16461192</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
@@ -10683,12 +10683,12 @@
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -10700,17 +10700,17 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>BALDAN FLOORING LIMITED</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16461191</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
@@ -10721,12 +10721,12 @@
       <c r="E271" t="inlineStr"/>
       <c r="F271" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -10738,17 +10738,17 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>E J WHITE &amp; SON (SCAFFOLDING) LTD</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16461193</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D272" t="inlineStr">
@@ -10759,12 +10759,12 @@
       <c r="E272" t="inlineStr"/>
       <c r="F272" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -10776,17 +10776,17 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>GREENLYTICS AI LTD</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16461189</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D273" t="inlineStr">
@@ -10797,12 +10797,12 @@
       <c r="E273" t="inlineStr"/>
       <c r="F273" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -10814,17 +10814,17 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>BM SERWIS LTD</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16461219</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
@@ -10835,12 +10835,12 @@
       <c r="E274" t="inlineStr"/>
       <c r="F274" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -10852,17 +10852,17 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>PJ MANSWORTH (ALED) LIMITED</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16461216</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D275" t="inlineStr">
@@ -10873,12 +10873,12 @@
       <c r="E275" t="inlineStr"/>
       <c r="F275" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -10890,17 +10890,17 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>GILES &amp; STERLING YOUNG LIMITED</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16461174</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D276" t="inlineStr">
@@ -10911,12 +10911,12 @@
       <c r="E276" t="inlineStr"/>
       <c r="F276" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -10928,17 +10928,17 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>AMATHYST LTD</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16460595</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D277" t="inlineStr">
@@ -10949,12 +10949,12 @@
       <c r="E277" t="inlineStr"/>
       <c r="F277" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -10966,17 +10966,17 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>BOUNDLESS RISE LIMITED</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16461176</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D278" t="inlineStr">
@@ -10987,12 +10987,12 @@
       <c r="E278" t="inlineStr"/>
       <c r="F278" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -11004,17 +11004,17 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>KGM CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16461264</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D279" t="inlineStr">
@@ -11025,34 +11025,34 @@
       <c r="E279" t="inlineStr"/>
       <c r="F279" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>NERIA VICTER LTD</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16461177</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D280" t="inlineStr">
@@ -11063,12 +11063,12 @@
       <c r="E280" t="inlineStr"/>
       <c r="F280" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -11080,17 +11080,17 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>SW2 CONSTRUCTION LIMITED</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16461262</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D281" t="inlineStr">
@@ -11101,12 +11101,12 @@
       <c r="E281" t="inlineStr"/>
       <c r="F281" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -11118,17 +11118,17 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>METABOLICO2 LTD</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>SC849016</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D282" t="inlineStr">
@@ -11139,12 +11139,12 @@
       <c r="E282" t="inlineStr"/>
       <c r="F282" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -11156,17 +11156,17 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>FUNCTION.ALL.OVER LTD</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16461272</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D283" t="inlineStr">
@@ -11177,12 +11177,12 @@
       <c r="E283" t="inlineStr"/>
       <c r="F283" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -11194,17 +11194,17 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>PRESSED &amp; FRESH LTD</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16460587</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D284" t="inlineStr">
@@ -11215,12 +11215,12 @@
       <c r="E284" t="inlineStr"/>
       <c r="F284" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -11232,17 +11232,17 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>DELWAR INVESTMENTS LIMITED</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16460585</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D285" t="inlineStr">
@@ -11253,34 +11253,34 @@
       <c r="E285" t="inlineStr"/>
       <c r="F285" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>H A REGISTRATIONS LTD</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16460586</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D286" t="inlineStr">
@@ -11291,12 +11291,12 @@
       <c r="E286" t="inlineStr"/>
       <c r="F286" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -11308,17 +11308,17 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D287" t="inlineStr">
@@ -11329,12 +11329,12 @@
       <c r="E287" t="inlineStr"/>
       <c r="F287" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -11346,17 +11346,17 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>DEESTORE LTD</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16460510</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D288" t="inlineStr">
@@ -11367,12 +11367,12 @@
       <c r="E288" t="inlineStr"/>
       <c r="F288" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -11384,17 +11384,17 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16460582</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D289" t="inlineStr">
@@ -11405,12 +11405,12 @@
       <c r="E289" t="inlineStr"/>
       <c r="F289" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -11422,17 +11422,17 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>EDI&amp;ALEX LTD</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>16460449</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D290" t="inlineStr">
@@ -11443,12 +11443,12 @@
       <c r="E290" t="inlineStr"/>
       <c r="F290" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -11460,17 +11460,17 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>COMBI CARE AND REPAIR - OLLIE GIBSON LTD</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16461168</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D291" t="inlineStr">
@@ -11481,12 +11481,12 @@
       <c r="E291" t="inlineStr"/>
       <c r="F291" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -11498,17 +11498,17 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>NORDIX FREIGHT LTD</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>SC849013</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D292" t="inlineStr">
@@ -11519,12 +11519,12 @@
       <c r="E292" t="inlineStr"/>
       <c r="F292" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -11536,17 +11536,17 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>MUNCHIES KEBAB DESERT LTD</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16461260</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D293" t="inlineStr">
@@ -11557,12 +11557,12 @@
       <c r="E293" t="inlineStr"/>
       <c r="F293" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -11574,17 +11574,17 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>GROUND MORTGAGE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16461278</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D294" t="inlineStr">
@@ -11595,12 +11595,12 @@
       <c r="E294" t="inlineStr"/>
       <c r="F294" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -11612,17 +11612,17 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>AMARA WELLS LTD</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>SC849026</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D295" t="inlineStr">
@@ -11633,12 +11633,12 @@
       <c r="E295" t="inlineStr"/>
       <c r="F295" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -11650,17 +11650,17 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>TADSTARMAN LTD</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16460579</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D296" t="inlineStr">
@@ -11671,12 +11671,12 @@
       <c r="E296" t="inlineStr"/>
       <c r="F296" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -11688,12 +11688,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -11726,12 +11726,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -11764,12 +11764,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -11802,12 +11802,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -11840,12 +11840,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -11878,12 +11878,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -11916,12 +11916,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11954,12 +11954,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11992,12 +11992,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -12030,12 +12030,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -12068,12 +12068,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -12106,12 +12106,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -12144,12 +12144,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -12182,12 +12182,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -12220,12 +12220,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -12258,12 +12258,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -12296,12 +12296,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -12334,12 +12334,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -12365,19 +12365,19 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -12410,12 +12410,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -12448,12 +12448,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -12486,12 +12486,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12524,12 +12524,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -12562,12 +12562,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>CTLO LTD</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456701</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -12600,12 +12600,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12638,12 +12638,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -12676,12 +12676,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -12714,12 +12714,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -12752,12 +12752,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12790,12 +12790,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -12828,12 +12828,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -12866,12 +12866,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12904,12 +12904,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12942,12 +12942,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -12980,12 +12980,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -13018,12 +13018,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -13056,12 +13056,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -13094,12 +13094,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>HOUSE OF RODEOS LTD</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -13132,12 +13132,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -13170,12 +13170,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -13208,12 +13208,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -13246,12 +13246,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -13284,12 +13284,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -13322,12 +13322,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -13360,12 +13360,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -13398,12 +13398,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -13436,12 +13436,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -13474,12 +13474,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -13512,12 +13512,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -13550,12 +13550,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -13588,12 +13588,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -13626,12 +13626,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>AMIKOBA LTD</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16459545</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -13664,12 +13664,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -13702,12 +13702,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -13733,19 +13733,19 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -13778,12 +13778,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -13816,12 +13816,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -13854,12 +13854,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -13892,12 +13892,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -13930,12 +13930,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -13968,12 +13968,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -14006,12 +14006,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -14044,12 +14044,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>FINTIVITY LTD</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -14082,12 +14082,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -14120,12 +14120,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -14158,12 +14158,12 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>FITCARDIOLOGY LTD</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16457244</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -14196,12 +14196,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -14234,12 +14234,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -14272,12 +14272,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>CTPROPS LIMITED</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -14302,6 +14302,1184 @@
         </is>
       </c>
       <c r="H365" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>BUILTBRITE LTD</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>16457962</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E366" t="inlineStr"/>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G366" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H366" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>INDEXIE LTD</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>16459546</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G367" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H367" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>16456754</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E368" t="inlineStr"/>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G368" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H368" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>LGAM PROPERTIES LTD</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>16457957</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E369" t="inlineStr"/>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G369" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H369" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>16456756</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E370" t="inlineStr"/>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G370" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H370" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>NEW MOUNT DAISY LIMITED</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>16457237</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E371" t="inlineStr"/>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G371" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H371" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>16459543</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G372" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H372" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>TASHAN MEDIA LTD</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>16459523</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E373" t="inlineStr"/>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G373" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H373" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>FASHLER LTD</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>16459082</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E374" t="inlineStr"/>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G374" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H374" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>16456227</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G375" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H375" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>16459062</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E376" t="inlineStr"/>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G376" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H376" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>NEWMINERALS LTD</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>16455878</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E377" t="inlineStr"/>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G377" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H377" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>YSGARLAD PROPERTIES LTD</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>16457268</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G378" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H378" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>GUIDED BRAKE SERVICE LTD</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>16457264</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G379" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H379" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>PROOFENANCE LTD</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>16457943</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G380" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H380" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>CALIBRE LDN LIMITED</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>16457945</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G381" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H381" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>NEHHEALTHCARE LTD</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>16456708</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G382" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H382" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>POWERS ELECTRICAL LTD</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>16457270</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G383" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H383" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>M S GROUP FIRST UK LIMITED</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>16459057</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G384" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H384" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>PANEER CRAFT LTD. LIMITED</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>16457973</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G385" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H385" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>CAZAM PROPERTY LTD</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>16459061</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G386" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H386" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>LEADANICS LIMITED</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>16457965</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G387" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H387" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>LEOFRIC LTD</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>16456712</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G388" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H388" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>OMR ELECTRICAL LTD</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>16457261</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G389" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H389" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>GODMADE LTD</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>16459074</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G390" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H390" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>16459078</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G391" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H391" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>16459064</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G392" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H392" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>16459077</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G393" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H393" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>SSFBN LIMITED</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>16459541</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G394" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H394" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>HOLYWELL HOMES LTD</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>16457259</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G395" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H395" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>FLIP IT GLOBAL LTD</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>16456758</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G396" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H396" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H396"/>
+  <dimension ref="A1:H407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>MAK'S TRADERS LTD</t>
+          <t>YAKO CASINO LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16460355</t>
+          <t>16460391</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>MOTIVATION AND PROSPERITY LTD</t>
+          <t>SURREYSIDECOMPS LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460379</t>
+          <t>16460422</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SYMPLANO LTD</t>
+          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16460787</t>
+          <t>16460402</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4D CAPITAL PROPCO (44) LIMITED</t>
+          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16461269</t>
+          <t>OC456787</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,24 +656,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>RED DRAGON ELECTRICAL LTD</t>
+          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16460788</t>
+          <t>16460669</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AMPERSAND MANAGEMENT UK LTD</t>
+          <t>SAMVIV PARTNERS LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460662</t>
+          <t>16460672</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SHOWBIZ PRODUCTIONS LTD</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460496</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MASR PROPERTIES LTD</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16460367</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SMARTY SPROUTS LTD</t>
+          <t>BLOOMSBURY EAST LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16460399</t>
+          <t>16460616</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
+          <t>ALFA HG LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460400</t>
+          <t>16460543</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -884,7 +884,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
+          <t>SCP RESOURCE CONSULTING LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16460487</t>
+          <t>16461047</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CINNABAR HEALTH TRADING CO., LTD</t>
+          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460515</t>
+          <t>16460569</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>DOME DYNAMICS LTD</t>
+          <t>FAST FREE WEBSITES LIMITED</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460416</t>
+          <t>16460451</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>TIMBRA PROJECTS LTD</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460396</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LA AUTOMOTIVE LTD</t>
+          <t>HORUSKY LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460421</t>
+          <t>16460558</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>GMS7 LIMITED</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460386</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CLARITY VENTURE SUPPORT LTD</t>
+          <t>T-REX (GUILDFORD) LIMITED</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460376</t>
+          <t>16460637</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AA SELLER HUB LTD</t>
+          <t>MAAM CO. LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16460385</t>
+          <t>SC848972</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PAVITA LOGISTICS LTD</t>
+          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460373</t>
+          <t>16460694</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>NRM CONSULTING LIMITED</t>
+          <t>HOMEASE LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460848</t>
+          <t>16460666</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>THE GOOD CLUB BRAND LIMITED</t>
+          <t>SADORP GLOBAL HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460845</t>
+          <t>16460692</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ARBITREND LTD</t>
+          <t>SOTAMI LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460844</t>
+          <t>16460531</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>MYSTIC PARTNERS &amp; CO LTD</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16460843</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1378,24 +1378,24 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MESH OPERATIONS LTD</t>
+          <t>PRACTICE MAKES PERFECT LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16460841</t>
+          <t>16460388</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>WAYS FORWARD CIC</t>
+          <t>STRIPCO LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16460827</t>
+          <t>16460564</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>GMEDVEDGROUP LTD</t>
+          <t>SSMC INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16460434</t>
+          <t>16461213</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1492,24 +1492,24 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>MYSOL CORPORATION LIMITED</t>
+          <t>BROWNS INVESTMENT GROUP LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16460819</t>
+          <t>16461631</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>MINESHOCK LABS LTD</t>
+          <t>PULSE SUMMIT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16460393</t>
+          <t>16461206</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1568,24 +1568,24 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TINGEYS AIRPORTS LTD</t>
+          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16460815</t>
+          <t>16460649</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>DEE BEE TRADING LTD</t>
+          <t>ASPC CONTENT CO LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16460511</t>
+          <t>16460643</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HEALTHY SWEETS UK LTD</t>
+          <t>MEDIA WEB PRO LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16460418</t>
+          <t>16460644</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>THE SPICE INVADERS LTD</t>
+          <t>MAYTREE ELITE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16460505</t>
+          <t>16460650</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>NOMAD RIG LTD</t>
+          <t>BRANWELL PROJECTS LIMITED</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16460571</t>
+          <t>16460653</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>PREMSPY HOLDING LIMITED</t>
+          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>SC848971</t>
+          <t>16460659</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SKYFREIGHTGLOBAL LTD</t>
+          <t>SARASI LTD</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16460366</t>
+          <t>16460670</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>LITBUILD LTD</t>
+          <t>INNOVATION MT LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16460368</t>
+          <t>16460646</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>THE BEAUTY COLLECTIVE (NW) LTD</t>
+          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16460830</t>
+          <t>16460640</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>ACCORD FIRE DOORS LTD</t>
+          <t>PREVENTR ACTIVE FIRE LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16460363</t>
+          <t>16460677</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASSURED VENDING GROUP LTD</t>
+          <t>DXI DAILY NECESSITIES CO., LTD.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16460810</t>
+          <t>16460679</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHESED MAINTENANCE SERVICES CIC</t>
+          <t>FOOTBALL IS FOR THE FANS LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16460809</t>
+          <t>16461167</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ADM(GB) LTD</t>
+          <t>MOSU VENTURES LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SC848982</t>
+          <t>16461209</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2062,24 +2062,24 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>K&amp;C CLEANING AND PROPERTY MANAGEMENT LTD</t>
+          <t>PROTO DSGN LIMITED</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16460803</t>
+          <t>16460406</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>LUNIFY LTD</t>
+          <t>MUORICA NEXOS LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16460802</t>
+          <t>16461214</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ASHTON PROPERTY HOLDING LTD</t>
+          <t>CORNISH IT CONSULTING LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16460486</t>
+          <t>16460395</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>MAITI HOMES LIMITED</t>
+          <t>UNCOMFORTABLE CHATS LIMITED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16460530</t>
+          <t>16460394</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>KINTBURY ECO CENTRE CIC</t>
+          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16460500</t>
+          <t>16460624</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>J W PUBS NE LTD</t>
+          <t>PADELHAUS (STRATFORD) LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16460482</t>
+          <t>16460627</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>DELTA ROMEO ONE LIMITED</t>
+          <t>KINGS BARBER BOLTON LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16460495</t>
+          <t>16460636</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CLIFTON DOG TRAINING LTD</t>
+          <t>TRIZITION LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16460445</t>
+          <t>16460611</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2378,12 +2378,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>DMOJ 2025 LIMITED</t>
+          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16460446</t>
+          <t>16460615</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2404,24 +2404,24 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>JJ BROS CONSTRUCTION LTD</t>
+          <t>PARDS MART LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16460519</t>
+          <t>16460414</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>RICH LOGISTICS LTD</t>
+          <t>AMGT HOLDING LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16460512</t>
+          <t>16460401</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>MELAKA COLLEGE CIC</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16460783</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>TNKLOGISTICS LIMITED</t>
+          <t>NPP RF2 LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16460447</t>
+          <t>16460409</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>NEON LOGISTICS LIMITED</t>
+          <t>HAYES PARTNERS LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16460453</t>
+          <t>16460412</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2594,24 +2594,24 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A&amp;A OPTICS LTD</t>
+          <t>GREENHILLS 2 LIMITED</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SC848975</t>
+          <t>SC849017</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>XYZ COMMERCE LTD</t>
+          <t>AMINO RESTAURANT LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16460489</t>
+          <t>16461171</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CLEARLABS PERFORMANCE LTD</t>
+          <t>TRIPLE J HOUSING LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16460364</t>
+          <t>16460681</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LUXCOMMERCE LTD</t>
+          <t>YANG HAIJUN LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16460360</t>
+          <t>16460671</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
+          <t>JBNC LIMITED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16460375</t>
+          <t>16460484</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
+          <t>STUDIO FOUNDLING LIMITED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16460374</t>
+          <t>16460717</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>LC COURIERS LTD</t>
+          <t>DB RAIL INFRASTRUCTURE LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16460390</t>
+          <t>16460719</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>FIND YOUR INDUSTRY LTD</t>
+          <t>GOWERTON GOLF RANGE LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16460362</t>
+          <t>16460710</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HOLMCROFT LIMITED</t>
+          <t>INAYA HEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>OE033935</t>
+          <t>16460657</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2925,7 +2925,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -2936,7 +2936,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>VIVID MART LTD</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16460370</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>RATHDOWN LTD</t>
+          <t>BARKADEMY LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16460398</t>
+          <t>16460454</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16460408</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>INJECTIVE AESTHETICS LTD</t>
+          <t>SIMPLY MLC LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16460415</t>
+          <t>16460691</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>NEW CROSS LOCAL LIMITED</t>
+          <t>LXG LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16460417</t>
+          <t>16460686</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>AGS STRUCTURAL OUTPUTS LTD</t>
+          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16460420</t>
+          <t>16460690</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DEXKAANE SERVICES LIMITED</t>
+          <t>WENSUM MEDIATION LIMITED</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16460419</t>
+          <t>16460696</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>BLISSFUL LIFE GLOBAL LTD</t>
+          <t>THE EMMANUEL CENTRE CIC</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16460842</t>
+          <t>16460695</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>H2 ASSET MANAGEMENT LIMITED</t>
+          <t>SMART SKILLS ACADEMY LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16460839</t>
+          <t>16460568</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
+          <t>DERICA SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16460430</t>
+          <t>16460357</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3316,7 +3316,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>X1 UK SOLUTIONS LIMITED</t>
+          <t>PEARTREE GARAGE LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16460527</t>
+          <t>16460535</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ECOMEXUS LTD</t>
+          <t>STYLED BY LC LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16461607</t>
+          <t>16460563</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>YOUR LOCAL PROPERTY HUB LIMITED</t>
+          <t>CC GARAGE LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16461603</t>
+          <t>16460397</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3430,7 +3430,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -3442,12 +3442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>ECOMM SHARK LTD</t>
+          <t>NERIA VICTER LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16461605</t>
+          <t>16461177</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MICHAEL MACKENZIE ENTERPRISES LTD</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>SC849048</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PARASETS LTD</t>
+          <t>H A REGISTRATIONS LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16461657</t>
+          <t>16460586</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MAZAJ WHOLESALE LTD</t>
+          <t>DELWAR INVESTMENTS LIMITED</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16461658</t>
+          <t>16460585</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3582,24 +3582,24 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>AREAVERTA TECHNOLOGIES LOGISTICS &amp; FACILITIES MANAGEMENT LTD</t>
+          <t>PRESSED &amp; FRESH LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16461652</t>
+          <t>16460587</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>LAWNHOPPER (RUNCORN) LIMITED</t>
+          <t>FUNCTION.ALL.OVER LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16461653</t>
+          <t>16461272</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>KT16 RESTAURANT LIMITED</t>
+          <t>METABOLICO2 LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16461656</t>
+          <t>SC849016</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>DPAREKH’S LTD</t>
+          <t>SW2 CONSTRUCTION LIMITED</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16461659</t>
+          <t>16461262</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>RISE AND SHINE HOMES LTD</t>
+          <t>KGM CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16461593</t>
+          <t>16461264</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>PLANET POSITIVE GROUP LTD</t>
+          <t>JAMIL TALIB LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16461597</t>
+          <t>16460389</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LOGENTIA LTD</t>
+          <t>BOUNDLESS RISE LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16460448</t>
+          <t>16461176</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>BBON BAKES LTD</t>
+          <t>AMATHYST LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>SC848981</t>
+          <t>16460595</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>LAZIZA BIRYANI LTD</t>
+          <t>GILES &amp; STERLING YOUNG LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16460770</t>
+          <t>16461174</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>KNOOPS (LSC) LTD</t>
+          <t>PJ MANSWORTH (ALED) LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16461602</t>
+          <t>16461216</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>M.FATY LIMITED</t>
+          <t>BM SERWIS LTD</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16461586</t>
+          <t>16461219</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HAMPTON HOUSE CARE SERVICES LTD</t>
+          <t>GREENLYTICS AI LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16461590</t>
+          <t>16461189</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>GB AGENT LTD</t>
+          <t>E J WHITE &amp; SON (SCAFFOLDING) LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16461614</t>
+          <t>16461193</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>KLOUDBAR LTD</t>
+          <t>DEESTORE LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16461621</t>
+          <t>16460510</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MALIK MANSIONS LTD</t>
+          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16461623</t>
+          <t>16460582</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TO BE CROWNED GROUP LIMITED</t>
+          <t>EDI&amp;ALEX LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16461630</t>
+          <t>16460449</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>QAZAFI MART LTD</t>
+          <t>COMBI CARE AND REPAIR - OLLIE GIBSON LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16461632</t>
+          <t>16461168</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4240,12 +4240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ON THE MOVE FLEET LTD</t>
+          <t>ECOLORA LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16461636</t>
+          <t>16462082</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4278,12 +4278,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>KL BUSINESS DEVELOPERS LTD</t>
+          <t>RIRA HOMES LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>16461634</t>
+          <t>SC849074</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>GOODWELL TEX LTD</t>
+          <t>BASALTON LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16461615</t>
+          <t>16462076</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4354,12 +4354,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BLACKEYE PULSE LIMITED</t>
+          <t>BOOK NOOK RETREATS LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>16461644</t>
+          <t>SC849072</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>AXON HEALTH SOLUTIONS LTD</t>
+          <t>LOVE ENGLISH LTD</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>16461612</t>
+          <t>SC849071</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4430,12 +4430,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>NUZZLE GROUP LTD</t>
+          <t>WPR FREEHOLD LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16461645</t>
+          <t>16462071</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>TACO INC LTD</t>
+          <t>M &amp; BTY LTD., LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16461646</t>
+          <t>16462062</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4506,12 +4506,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ROOSYS LIMITED</t>
+          <t>LTW CONSULTING LTD</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16461647</t>
+          <t>16462060</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
@@ -4544,12 +4544,12 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AISTRIOLOGY LTD</t>
+          <t>AALSA LTD</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16461642</t>
+          <t>16462059</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4582,12 +4582,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>DANCRAFT LLP</t>
+          <t>EMBER AUTOMATION LIMITED</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>OC456792</t>
+          <t>16462055</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4608,24 +4608,24 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>NICTHEBOY TECHNOLOGY LTD.</t>
+          <t>TADSTARMAN LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16460520</t>
+          <t>16460579</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4658,12 +4658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SKINNY SISTERS LTD</t>
+          <t>AMARA WELLS LTD</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>16460411</t>
+          <t>SC849026</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4696,12 +4696,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>OPULENTIA DEVELOPMENT LTD</t>
+          <t>GROUND MORTGAGE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16460833</t>
+          <t>16461278</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4734,12 +4734,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>BUILDERS SCOPE LIMITED</t>
+          <t>MUNCHIES KEBAB DESERT LTD</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16460514</t>
+          <t>16461260</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4772,12 +4772,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A.M.K WIND LTD</t>
+          <t>NORDIX FREIGHT LTD</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NI729588</t>
+          <t>SC849013</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4810,12 +4810,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>AERIX LIMITED</t>
+          <t>BALDAN FLOORING LIMITED</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16460775</t>
+          <t>16461191</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4848,12 +4848,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>NARCISSIST APPAREL LTD</t>
+          <t>FRANCE COMMERCE LTD</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16460378</t>
+          <t>16461192</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>TREASURE ISLAND COINS &amp; COLLECTIBLES LIMITED</t>
+          <t>VELMI LTD</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16460780</t>
+          <t>16461185</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4924,12 +4924,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>STRUCTURE DART LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16461096</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4962,12 +4962,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
+          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>SC848970</t>
+          <t>16460478</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5000,12 +5000,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>TRAVEL NOW GROUP LTD</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16460847</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5038,12 +5038,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>FONETHICS SOLUTIONS LTD</t>
+          <t>BOWDEN SPRING LIMITED</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>SC848969</t>
+          <t>16461175</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SINOBANG CONSULTING SERVICE LIMITED</t>
+          <t>MONEY MART LTD</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16460779</t>
+          <t>16460383</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>TRUE NORTH JOINERY LTD</t>
+          <t>RIONEST LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>16460359</t>
+          <t>SC849015</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5152,12 +5152,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>MASTER THE CHAIN LTD</t>
+          <t>CORE YOU MEDIA LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16460358</t>
+          <t>16460709</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5190,12 +5190,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>EXTERIOR EDGE LTD</t>
+          <t>COREMARINE SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16460426</t>
+          <t>16460663</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5228,12 +5228,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>BUILDASSIST SERVICES LIMITED</t>
+          <t>MIGHTY MARGATE CIC</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16460452</t>
+          <t>16460626</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>KVP VENTURES LIMITED</t>
+          <t>VIRTUAL CO. UK LTD</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16460424</t>
+          <t>16460502</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5297,19 +5297,19 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SPIDOCRAFT LTD</t>
+          <t>CLASSFORGE LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16460439</t>
+          <t>16460436</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>CNL.JJ.ENTERTAINMENT LTD</t>
+          <t>TONPA LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16461082</t>
+          <t>16460471</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5380,12 +5380,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>KATIE LEVI LTD</t>
+          <t>LIMITLESSCONTRACTS LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16461078</t>
+          <t>16460553</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5418,12 +5418,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>EBONY PROPERTY LTD</t>
+          <t>CONTINENTAL COACHES LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16461086</t>
+          <t>16460551</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5456,12 +5456,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>BG DUCTWORK LTD</t>
+          <t>THE SOL COLLECTION LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16461100</t>
+          <t>16460547</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5494,12 +5494,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
+          <t>C &amp; D ENVIRONMENT LIMITED</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16460503</t>
+          <t>16460548</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5525,19 +5525,19 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
+          <t>AAH MART LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16460407</t>
+          <t>16460464</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5570,12 +5570,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HEART OF TOWN II LIMITED</t>
+          <t>VITANOVA LEARNING LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16460410</t>
+          <t>16460384</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5608,12 +5608,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HALTON-BROWNE PROPERTIES LTD</t>
+          <t>MEHRAS PISHGAM SADRA EXPO LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16460805</t>
+          <t>16461195</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5646,12 +5646,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>BILLION SCENTS LTD</t>
+          <t>MEARNS CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16460413</t>
+          <t>16460387</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -5684,12 +5684,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>FARIS ELHADI GLOBAL . LTD</t>
+          <t>CODALYTICS LIMITED</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16460498</t>
+          <t>16461182</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5722,12 +5722,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>COREPERFORMANCEUK LTD</t>
+          <t>SOULFUL SYNERGY LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16461105</t>
+          <t>16461224</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>PEAR GREEN REAL ESTATES LTD</t>
+          <t>REIGNING MEDIA LIMITED</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16461085</t>
+          <t>16461275</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>ARTMARRA LTD</t>
+          <t>CRISPY GLEN LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>16461097</t>
+          <t>SC849027</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -5836,12 +5836,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CSP SURVEYING LIMITED</t>
+          <t>TUK TALENT LTD</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>SC849008</t>
+          <t>16461265</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -5874,12 +5874,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>TILFORD SOUTHWEST LTD</t>
+          <t>BEEL WORLDWIDE SERVICES LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16461098</t>
+          <t>16460594</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -5912,12 +5912,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>OCONNOR SAFETY SPECIALISTS LTD</t>
+          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>NI729607</t>
+          <t>16460442</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -5950,12 +5950,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SK&amp;SONS PROPERTIES LTD</t>
+          <t>CLOCK IT TECH LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16461108</t>
+          <t>16460573</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -5988,12 +5988,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HEALTH WORLD TOURISM COMPANY LTD</t>
+          <t>NXT GEN INTERNATIONAL LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16461107</t>
+          <t>16461199</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6026,12 +6026,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ANAM CARA JEWELLERY LTD</t>
+          <t>TAHI STUDIO LIMITED</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16460516</t>
+          <t>16461197</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6064,12 +6064,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>CLOSUR LIMITED</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16460556</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6102,12 +6102,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>LASHESBYS LIMITED</t>
+          <t>THE GOBLIN WORKSHOP LTD</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>SC848973</t>
+          <t>16460465</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6140,12 +6140,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>RESTORCARE HEALTH LTD</t>
+          <t>ABSAILING NDT LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16460404</t>
+          <t>16460462</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6178,12 +6178,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>COACHED BY JESS LIMITED</t>
+          <t>IMPERIUM ECHELON LTD</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16460392</t>
+          <t>16460493</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6216,12 +6216,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
+          <t>SAFECLEAN GROUP LIMITED</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16460403</t>
+          <t>16461198</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6254,12 +6254,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>ARORA MATERIALS LIMITED</t>
+          <t>GS GEPE II SIDECAR IV GP LLP</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>16460405</t>
+          <t>SO308186</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6285,19 +6285,19 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>CC GARAGE LTD</t>
+          <t>INFINITE CARDS LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16460397</t>
+          <t>16460713</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6330,12 +6330,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>GS GEPE II SIDECAR IV GP LLP</t>
+          <t>ARORA MATERIALS LIMITED</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>SO308186</t>
+          <t>16460405</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6361,19 +6361,19 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HAYES PARTNERS LTD</t>
+          <t>DELTA ROMEO ONE LIMITED</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16460412</t>
+          <t>16460495</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6394,24 +6394,24 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NPP RF2 LIMITED</t>
+          <t>NEON LOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16460409</t>
+          <t>16460453</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6432,7 +6432,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
@@ -6444,12 +6444,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>ROAMING RETAIL LIMITED</t>
+          <t>TNKLOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16460382</t>
+          <t>16460447</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6482,12 +6482,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>AMGT HOLDING LTD</t>
+          <t>MELAKA COLLEGE CIC</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16460401</t>
+          <t>16460783</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6520,12 +6520,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>PARDS MART LTD</t>
+          <t>RICH LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16460414</t>
+          <t>16460512</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
+          <t>JJ BROS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16460615</t>
+          <t>16460519</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6584,24 +6584,24 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>TRIZITION LTD</t>
+          <t>DMOJ 2025 LIMITED</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16460611</t>
+          <t>16460446</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6622,7 +6622,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
@@ -6634,12 +6634,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>KINGS BARBER BOLTON LTD</t>
+          <t>CLIFTON DOG TRAINING LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16460636</t>
+          <t>16460445</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -6672,12 +6672,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>PADELHAUS (STRATFORD) LTD</t>
+          <t>J W PUBS NE LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16460627</t>
+          <t>16460482</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -6710,12 +6710,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
+          <t>ECOMEXUS LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16460624</t>
+          <t>16461607</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -6748,12 +6748,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>UNCOMFORTABLE CHATS LIMITED</t>
+          <t>KINTBURY ECO CENTRE CIC</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16460394</t>
+          <t>16460500</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6786,12 +6786,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>CORNISH IT CONSULTING LTD</t>
+          <t>MAITI HOMES LIMITED</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16460395</t>
+          <t>16460530</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -6824,12 +6824,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>MUORICA NEXOS LTD</t>
+          <t>ASHTON PROPERTY HOLDING LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16461214</t>
+          <t>16460486</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>PROTO DSGN LIMITED</t>
+          <t>LUNIFY LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16460406</t>
+          <t>16460802</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -6900,12 +6900,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>MOSU VENTURES LTD</t>
+          <t>K&amp;C CLEANING AND PROPERTY MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16461209</t>
+          <t>16460803</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6926,24 +6926,24 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>GREENHILLS 2 LIMITED</t>
+          <t>ADM(GB) LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SC849017</t>
+          <t>SC848982</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6964,7 +6964,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
@@ -6976,12 +6976,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>FOOTBALL IS FOR THE FANS LTD</t>
+          <t>CHESED MAINTENANCE SERVICES CIC</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16461167</t>
+          <t>16460809</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7014,12 +7014,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>AMINO RESTAURANT LTD</t>
+          <t>A&amp;A OPTICS LTD</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>16461171</t>
+          <t>SC848975</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7052,12 +7052,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>YANG HAIJUN LTD</t>
+          <t>XYZ COMMERCE LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16460671</t>
+          <t>16460489</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7090,12 +7090,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>DERICA SOLUTIONS LTD</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16460357</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7128,12 +7128,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>SMART SKILLS ACADEMY LTD</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16460568</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7166,12 +7166,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>THE EMMANUEL CENTRE CIC</t>
+          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16460695</t>
+          <t>16460430</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7204,12 +7204,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>WENSUM MEDIATION LIMITED</t>
+          <t>H2 ASSET MANAGEMENT LIMITED</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16460696</t>
+          <t>16460839</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7242,12 +7242,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
+          <t>BLISSFUL LIFE GLOBAL LTD</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16460690</t>
+          <t>16460842</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7280,12 +7280,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>LXG LTD</t>
+          <t>DEXKAANE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16460686</t>
+          <t>16460419</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7318,12 +7318,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>SIMPLY MLC LTD</t>
+          <t>AGS STRUCTURAL OUTPUTS LTD</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16460691</t>
+          <t>16460420</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7356,12 +7356,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>BY FATOU JAI LTD</t>
+          <t>NEW CROSS LOCAL LIMITED</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16460371</t>
+          <t>16460417</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7394,12 +7394,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>BARKADEMY LTD</t>
+          <t>INJECTIVE AESTHETICS LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16460454</t>
+          <t>16460415</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7432,12 +7432,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>OMID'S ENTERPRISE LTD</t>
+          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16460381</t>
+          <t>16460408</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -7470,12 +7470,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>INAYA HEALTHCARE LTD</t>
+          <t>RATHDOWN LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16460657</t>
+          <t>16460398</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7508,12 +7508,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>GOWERTON GOLF RANGE LTD</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16460710</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
@@ -7546,12 +7546,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>DB RAIL INFRASTRUCTURE LTD</t>
+          <t>HOLMCROFT LIMITED</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>16460719</t>
+          <t>OE033935</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7584,12 +7584,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>STUDIO FOUNDLING LIMITED</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16460717</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7622,12 +7622,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>JBNC LIMITED</t>
+          <t>LC COURIERS LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16460484</t>
+          <t>16460390</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7660,12 +7660,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>TRIPLE J HOUSING LTD</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16460681</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -7698,12 +7698,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>DXI DAILY NECESSITIES CO., LTD.</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16460679</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -7736,12 +7736,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>PREVENTR ACTIVE FIRE LTD</t>
+          <t>ASSURED VENDING GROUP LTD</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16460677</t>
+          <t>16460810</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -7774,12 +7774,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16460640</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -7812,12 +7812,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>T-REX (GUILDFORD) LIMITED</t>
+          <t>THE BEAUTY COLLECTIVE (NW) LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16460637</t>
+          <t>16460830</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -7850,12 +7850,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>CLEANING MONK LTD</t>
+          <t>AA SELLER HUB LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16460369</t>
+          <t>16460385</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -7888,12 +7888,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HORUSKY LTD</t>
+          <t>GMS7 LIMITED</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16460558</t>
+          <t>16460386</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -7926,12 +7926,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>ORIENT CANTEEN LTD</t>
+          <t>LA AUTOMOTIVE LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16460365</t>
+          <t>16460421</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -7964,12 +7964,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>FAST FREE WEBSITES LIMITED</t>
+          <t>TIMBRA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16460451</t>
+          <t>16460396</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8002,12 +8002,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
+          <t>DOME DYNAMICS LTD</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16460569</t>
+          <t>16460416</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8040,12 +8040,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>SCP RESOURCE CONSULTING LTD</t>
+          <t>CINNABAR HEALTH TRADING CO., LTD</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16461047</t>
+          <t>16460515</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8078,12 +8078,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BLOOMSBURY EAST LTD</t>
+          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16460616</t>
+          <t>16460487</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8116,12 +8116,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>YAKO CASINO LTD</t>
+          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16460391</t>
+          <t>16460400</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8154,12 +8154,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>2BCLOTHING LTD</t>
+          <t>SMARTY SPROUTS LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16460354</t>
+          <t>16460399</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -8192,12 +8192,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>INFINITE CARDS LTD</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16460713</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
@@ -8230,12 +8230,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SAMVIV PARTNERS LTD</t>
+          <t>SHOWBIZ PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16460672</t>
+          <t>16460496</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8256,24 +8256,24 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
+          <t>AMPERSAND MANAGEMENT UK LTD</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16460669</t>
+          <t>16460662</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8306,12 +8306,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
+          <t>RED DRAGON ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>OC456787</t>
+          <t>16460788</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8332,24 +8332,24 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
+          <t>4D CAPITAL PROPCO (44) LIMITED</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16460402</t>
+          <t>16461269</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8370,24 +8370,24 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SURREYSIDECOMPS LTD</t>
+          <t>SYMPLANO LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16460422</t>
+          <t>16460787</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8420,12 +8420,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MAAM CO. LTD</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>SC848972</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -8458,12 +8458,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16460694</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -8496,12 +8496,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>HOMEASE LTD</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16460666</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -8534,12 +8534,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>SADORP GLOBAL HOLDINGS LTD</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16460692</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -8572,12 +8572,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>INNOVATION MT LTD</t>
+          <t>NRM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16460646</t>
+          <t>16460848</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -8610,12 +8610,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SARASI LTD</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16460670</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -8648,12 +8648,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
+          <t>PREMSPY HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>16460659</t>
+          <t>SC848971</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -8686,12 +8686,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>BRANWELL PROJECTS LIMITED</t>
+          <t>NOMAD RIG LTD</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16460653</t>
+          <t>16460571</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8724,12 +8724,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MAYTREE ELITE PROPERTIES LTD</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16460650</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -8762,12 +8762,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MEDIA WEB PRO LTD</t>
+          <t>HEALTHY SWEETS UK LTD</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16460644</t>
+          <t>16460418</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -8800,12 +8800,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>ASPC CONTENT CO LTD</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16460643</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -8838,12 +8838,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
+          <t>TINGEYS AIRPORTS LTD</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>16460649</t>
+          <t>16460815</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -8876,12 +8876,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>PULSE SUMMIT CAPITAL LTD</t>
+          <t>MINESHOCK LABS LTD</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16461206</t>
+          <t>16460393</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8902,24 +8902,24 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>BROWNS INVESTMENT GROUP LTD</t>
+          <t>MYSOL CORPORATION LIMITED</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16461631</t>
+          <t>16460819</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8940,7 +8940,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -8952,12 +8952,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>SSMC INVESTMENTS LTD</t>
+          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16461213</t>
+          <t>16460403</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8978,24 +8978,24 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>STRIPCO LTD</t>
+          <t>WAYS FORWARD CIC</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16460564</t>
+          <t>16460827</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9028,12 +9028,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>PRACTICE MAKES PERFECT LTD</t>
+          <t>MESH OPERATIONS LTD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>16460388</t>
+          <t>16460841</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9066,12 +9066,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>ETECH VENTURE LIMITED</t>
+          <t>MYSTIC PARTNERS &amp; CO LTD</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>16460372</t>
+          <t>16460843</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9092,24 +9092,24 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>SOTAMI LTD</t>
+          <t>ARBITREND LTD</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>16460531</t>
+          <t>16460844</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9142,12 +9142,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>PEARTREE GARAGE LTD</t>
+          <t>THE GOOD CLUB BRAND LIMITED</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>16460535</t>
+          <t>16460845</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -9180,12 +9180,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>ALFA HG LTD</t>
+          <t>X1 UK SOLUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>16460543</t>
+          <t>16460527</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9218,12 +9218,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>STYLED BY LC LTD</t>
+          <t>GMEDVEDGROUP LTD</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>16460563</t>
+          <t>16460434</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -9256,12 +9256,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>JAMIL TALIB LTD</t>
+          <t>YOUR LOCAL PROPERTY HUB LIMITED</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16460389</t>
+          <t>16461603</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -9294,12 +9294,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>C &amp; D ENVIRONMENT LIMITED</t>
+          <t>BUILDASSIST SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>16460548</t>
+          <t>16460452</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9332,12 +9332,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>THE SOL COLLECTION LTD</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>16460547</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9363,19 +9363,19 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>CONTINENTAL COACHES LTD</t>
+          <t>BG DUCTWORK LTD</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>16460551</t>
+          <t>16461100</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -9408,12 +9408,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>LIMITLESSCONTRACTS LTD</t>
+          <t>EBONY PROPERTY LTD</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>16460553</t>
+          <t>16461086</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -9446,12 +9446,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>TONPA LTD</t>
+          <t>KATIE LEVI LTD</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>16460471</t>
+          <t>16461078</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CLASSFORGE LTD</t>
+          <t>CNL.JJ.ENTERTAINMENT LTD</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>16460436</t>
+          <t>16461082</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -9522,12 +9522,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>VIRTUAL CO. UK LTD</t>
+          <t>SPIDOCRAFT LTD</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>16460502</t>
+          <t>16460439</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -9560,12 +9560,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>MIGHTY MARGATE CIC</t>
+          <t>KVP VENTURES LIMITED</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>16460626</t>
+          <t>16460424</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -9586,24 +9586,24 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>COREMARINE SOLUTIONS CIC</t>
+          <t>EXTERIOR EDGE LTD</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>16460663</t>
+          <t>16460426</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -9636,12 +9636,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>CORE YOU MEDIA LTD</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>16460709</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -9674,12 +9674,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>RIONEST LTD</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>SC849015</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -9712,12 +9712,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>MONEY MART LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>16460383</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -9750,12 +9750,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>BOWDEN SPRING LIMITED</t>
+          <t>SINOBANG CONSULTING SERVICE LIMITED</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>16461175</t>
+          <t>16460779</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -9788,12 +9788,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>FAMILY COMMREPORT LTD</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>16460356</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9826,12 +9826,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
+          <t>TRAVEL NOW GROUP LTD</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>16460478</t>
+          <t>16460847</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -9864,12 +9864,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>AAH MART LTD</t>
+          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>16460464</t>
+          <t>SC848970</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -9902,12 +9902,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>BANDOS BY ADEBISI LTD</t>
+          <t>STRUCTURE DART LTD</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>16460361</t>
+          <t>16461096</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -9940,12 +9940,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>VITANOVA LEARNING LIMITED</t>
+          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>16460384</t>
+          <t>16460407</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -9978,12 +9978,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MEARNS CLEANING SERVICES LTD</t>
+          <t>HEART OF TOWN II LIMITED</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>16460387</t>
+          <t>16460410</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -10016,12 +10016,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>SAFECLEAN GROUP LIMITED</t>
+          <t>HALTON-BROWNE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>16461198</t>
+          <t>16460805</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -10054,12 +10054,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>IMPERIUM ECHELON LTD</t>
+          <t>BILLION SCENTS LTD</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>16460493</t>
+          <t>16460413</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -10092,12 +10092,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>ABSAILING NDT LTD</t>
+          <t>COACHED BY JESS LIMITED</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>16460462</t>
+          <t>16460392</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -10130,12 +10130,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>THE GOBLIN WORKSHOP LTD</t>
+          <t>RESTORCARE HEALTH LTD</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>16460465</t>
+          <t>16460404</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -10168,12 +10168,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
+          <t>LASHESBYS LIMITED</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>16460353</t>
+          <t>SC848973</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -10194,7 +10194,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H257" t="inlineStr">
@@ -10206,12 +10206,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>TAHI STUDIO LIMITED</t>
+          <t>CLOSUR LIMITED</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16461197</t>
+          <t>16460556</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -10232,7 +10232,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H258" t="inlineStr">
@@ -10244,12 +10244,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>NXT GEN INTERNATIONAL LTD</t>
+          <t>ANAM CARA JEWELLERY LTD</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>16461199</t>
+          <t>16460516</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -10270,7 +10270,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H259" t="inlineStr">
@@ -10282,12 +10282,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>CLOCK IT TECH LTD</t>
+          <t>HEALTH WORLD TOURISM COMPANY LTD</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>16460573</t>
+          <t>16461107</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -10320,12 +10320,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
+          <t>SK&amp;SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>16460442</t>
+          <t>16461108</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -10358,12 +10358,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>BEEL WORLDWIDE SERVICES LTD</t>
+          <t>OCONNOR SAFETY SPECIALISTS LTD</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>16460594</t>
+          <t>NI729607</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -10396,12 +10396,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TUK TALENT LTD</t>
+          <t>TILFORD SOUTHWEST LTD</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>16461265</t>
+          <t>16461098</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -10434,12 +10434,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CRISPY GLEN LTD</t>
+          <t>CSP SURVEYING LIMITED</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SC849027</t>
+          <t>SC849008</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -10472,12 +10472,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>REIGNING MEDIA LIMITED</t>
+          <t>ECOMM SHARK LTD</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>16461275</t>
+          <t>16461605</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -10510,12 +10510,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>SOULFUL SYNERGY LTD</t>
+          <t>ARTMARRA LTD</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>16461224</t>
+          <t>16461097</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -10548,12 +10548,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>CODALYTICS LIMITED</t>
+          <t>PEAR GREEN REAL ESTATES LTD</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>16461182</t>
+          <t>16461085</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -10586,12 +10586,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>MEHRAS PISHGAM SADRA EXPO LTD</t>
+          <t>COREPERFORMANCEUK LTD</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16461195</t>
+          <t>16461105</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -10612,7 +10612,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -10624,12 +10624,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>VELMI LTD</t>
+          <t>FARIS ELHADI GLOBAL . LTD</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>16461185</t>
+          <t>16460498</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -10662,12 +10662,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>FRANCE COMMERCE LTD</t>
+          <t>TREASURE ISLAND COINS &amp; COLLECTIBLES LIMITED</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>16461192</t>
+          <t>16460780</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -10700,12 +10700,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>BALDAN FLOORING LIMITED</t>
+          <t>TALENT MATTERS UK CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>16461191</t>
+          <t>16462085</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -10738,12 +10738,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>E J WHITE &amp; SON (SCAFFOLDING) LTD</t>
+          <t>AERIX LIMITED</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>16461193</t>
+          <t>16460775</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -10776,12 +10776,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>GREENLYTICS AI LTD</t>
+          <t>KLOUDBAR LTD</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>16461189</t>
+          <t>16461621</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -10814,12 +10814,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>BM SERWIS LTD</t>
+          <t>HAMPTON HOUSE CARE SERVICES LTD</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>16461219</t>
+          <t>16461590</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -10852,12 +10852,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>PJ MANSWORTH (ALED) LIMITED</t>
+          <t>M.FATY LIMITED</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>16461216</t>
+          <t>16461586</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -10890,12 +10890,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>GILES &amp; STERLING YOUNG LIMITED</t>
+          <t>KNOOPS (LSC) LTD</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>16461174</t>
+          <t>16461602</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -10928,12 +10928,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>AMATHYST LTD</t>
+          <t>LAZIZA BIRYANI LTD</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>16460595</t>
+          <t>16460770</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -10966,12 +10966,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>BOUNDLESS RISE LIMITED</t>
+          <t>MICHAEL MACKENZIE ENTERPRISES LTD</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>16461176</t>
+          <t>SC849048</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -11004,12 +11004,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>KGM CONSTRUCTION LTD</t>
+          <t>PARASETS LTD</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>16461264</t>
+          <t>16461657</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -11042,12 +11042,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>NERIA VICTER LTD</t>
+          <t>MAZAJ WHOLESALE LTD</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>16461177</t>
+          <t>16461658</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -11080,12 +11080,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>SW2 CONSTRUCTION LIMITED</t>
+          <t>LAWNHOPPER (RUNCORN) LIMITED</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>16461262</t>
+          <t>16461653</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -11106,7 +11106,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -11118,12 +11118,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>METABOLICO2 LTD</t>
+          <t>KT16 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>SC849016</t>
+          <t>16461656</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -11156,12 +11156,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>FUNCTION.ALL.OVER LTD</t>
+          <t>DPAREKH’S LTD</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>16461272</t>
+          <t>16461659</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -11194,12 +11194,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>PRESSED &amp; FRESH LTD</t>
+          <t>RISE AND SHINE HOMES LTD</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>16460587</t>
+          <t>16461593</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -11232,12 +11232,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>DELWAR INVESTMENTS LIMITED</t>
+          <t>PLANET POSITIVE GROUP LTD</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>16460585</t>
+          <t>16461597</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -11258,24 +11258,24 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>H A REGISTRATIONS LTD</t>
+          <t>LOGENTIA LTD</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>16460586</t>
+          <t>16460448</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -11308,12 +11308,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>MISBAH GOODS LTD</t>
+          <t>A.M.K WIND LTD</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>16460377</t>
+          <t>NI729588</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -11346,12 +11346,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>DEESTORE LTD</t>
+          <t>BBON BAKES LTD</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>16460510</t>
+          <t>SC848981</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -11384,12 +11384,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
+          <t>GB AGENT LTD</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>16460582</t>
+          <t>16461614</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -11422,12 +11422,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>EDI&amp;ALEX LTD</t>
+          <t>AREAVERTA TECHNOLOGIES LOGISTICS &amp; FACILITIES MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>16460449</t>
+          <t>16461652</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -11448,7 +11448,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -11460,12 +11460,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>COMBI CARE AND REPAIR - OLLIE GIBSON LTD</t>
+          <t>MALIK MANSIONS LTD</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>16461168</t>
+          <t>16461623</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -11498,12 +11498,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>NORDIX FREIGHT LTD</t>
+          <t>TACO INC LTD</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>SC849013</t>
+          <t>16461646</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -11524,7 +11524,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -11536,12 +11536,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>MUNCHIES KEBAB DESERT LTD</t>
+          <t>BUILDERS SCOPE LIMITED</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>16461260</t>
+          <t>16460514</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -11574,12 +11574,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>GROUND MORTGAGE SERVICES LIMITED</t>
+          <t>TO BE CROWNED GROUP LIMITED</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>16461278</t>
+          <t>16461630</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -11612,12 +11612,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>AMARA WELLS LTD</t>
+          <t>SKINNY SISTERS LTD</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>SC849026</t>
+          <t>16460411</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -11650,12 +11650,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>TADSTARMAN LTD</t>
+          <t>NICTHEBOY TECHNOLOGY LTD.</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>16460579</t>
+          <t>16460520</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -11688,17 +11688,17 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>OPULENTIA DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16460833</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D297" t="inlineStr">
@@ -11709,12 +11709,12 @@
       <c r="E297" t="inlineStr"/>
       <c r="F297" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -11726,17 +11726,17 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>AISTRIOLOGY LTD</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16461642</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D298" t="inlineStr">
@@ -11747,12 +11747,12 @@
       <c r="E298" t="inlineStr"/>
       <c r="F298" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -11764,17 +11764,17 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>ROOSYS LIMITED</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16461647</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D299" t="inlineStr">
@@ -11785,12 +11785,12 @@
       <c r="E299" t="inlineStr"/>
       <c r="F299" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -11802,17 +11802,17 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>DANCRAFT LLP</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>OC456792</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D300" t="inlineStr">
@@ -11823,34 +11823,34 @@
       <c r="E300" t="inlineStr"/>
       <c r="F300" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>NUZZLE GROUP LTD</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16461645</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D301" t="inlineStr">
@@ -11861,12 +11861,12 @@
       <c r="E301" t="inlineStr"/>
       <c r="F301" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -11878,17 +11878,17 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>AXON HEALTH SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16461612</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D302" t="inlineStr">
@@ -11899,12 +11899,12 @@
       <c r="E302" t="inlineStr"/>
       <c r="F302" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -11916,17 +11916,17 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>BLACKEYE PULSE LIMITED</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16461644</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D303" t="inlineStr">
@@ -11937,12 +11937,12 @@
       <c r="E303" t="inlineStr"/>
       <c r="F303" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -11954,17 +11954,17 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>GOODWELL TEX LTD</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16461615</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D304" t="inlineStr">
@@ -11975,12 +11975,12 @@
       <c r="E304" t="inlineStr"/>
       <c r="F304" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -11992,17 +11992,17 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>KL BUSINESS DEVELOPERS LTD</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16461634</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D305" t="inlineStr">
@@ -12013,12 +12013,12 @@
       <c r="E305" t="inlineStr"/>
       <c r="F305" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -12030,17 +12030,17 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>ON THE MOVE FLEET LTD</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16461636</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D306" t="inlineStr">
@@ -12051,12 +12051,12 @@
       <c r="E306" t="inlineStr"/>
       <c r="F306" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -12068,17 +12068,17 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>QAZAFI MART LTD</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16461632</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="D307" t="inlineStr">
@@ -12089,12 +12089,12 @@
       <c r="E307" t="inlineStr"/>
       <c r="F307" t="inlineStr">
         <is>
-          <t>2025-05-19</t>
+          <t>2025-05-20</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>21:36:29</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -12106,12 +12106,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -12144,12 +12144,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -12182,12 +12182,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>NEW MOUNT DAISY LIMITED</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -12220,12 +12220,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -12258,12 +12258,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -12296,12 +12296,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -12334,12 +12334,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -12365,19 +12365,19 @@
       </c>
       <c r="H314" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -12410,12 +12410,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>CTPROPS LIMITED</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -12448,12 +12448,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -12486,12 +12486,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12524,12 +12524,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -12562,12 +12562,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>CTLO LTD</t>
+          <t>FITCARDIOLOGY LTD</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>16456701</t>
+          <t>16457244</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -12600,12 +12600,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12638,12 +12638,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -12676,12 +12676,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>FINTIVITY LTD</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -12714,12 +12714,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -12752,12 +12752,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12790,12 +12790,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -12828,12 +12828,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -12866,12 +12866,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>FASHLER LTD</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12904,12 +12904,12 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12942,12 +12942,12 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -12980,12 +12980,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>NEWMINERALS LTD</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16455878</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -13018,12 +13018,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -13056,12 +13056,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -13094,12 +13094,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -13132,12 +13132,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -13170,12 +13170,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -13208,12 +13208,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -13246,12 +13246,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -13284,12 +13284,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -13322,12 +13322,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>LEOFRIC LTD</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -13360,12 +13360,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -13398,12 +13398,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -13436,12 +13436,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -13474,12 +13474,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -13512,12 +13512,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -13550,12 +13550,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -13588,12 +13588,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -13626,12 +13626,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -13664,12 +13664,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -13702,12 +13702,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -13733,19 +13733,19 @@
       </c>
       <c r="H350" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -13778,12 +13778,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -13816,12 +13816,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -13854,12 +13854,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -13892,12 +13892,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -13930,12 +13930,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -13968,12 +13968,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -14006,12 +14006,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -14044,12 +14044,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -14082,12 +14082,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -14120,12 +14120,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -14151,19 +14151,19 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -14196,12 +14196,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -14234,12 +14234,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -14272,12 +14272,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -14310,12 +14310,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -14348,12 +14348,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -14386,12 +14386,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -14424,12 +14424,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -14462,12 +14462,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -14500,12 +14500,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -14538,12 +14538,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -14576,12 +14576,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -14614,12 +14614,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -14652,12 +14652,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -14690,12 +14690,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -14728,12 +14728,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -14766,12 +14766,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -14804,12 +14804,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -14842,12 +14842,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -14880,12 +14880,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -14918,12 +14918,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -14956,12 +14956,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -14987,19 +14987,19 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -15032,12 +15032,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>AMIKOBA LTD</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16459545</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -15070,12 +15070,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -15108,12 +15108,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -15146,12 +15146,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -15184,12 +15184,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -15222,12 +15222,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -15260,12 +15260,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -15298,12 +15298,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -15336,12 +15336,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -15374,12 +15374,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -15412,12 +15412,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -15450,12 +15450,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -15480,6 +15480,424 @@
         </is>
       </c>
       <c r="H396" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>BKK EQUESTRIAN LTD</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>16456733</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G397" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H397" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>HOUSE OF RODEOS LTD</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>16456218</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>THE CHAIR SALON LONDON LTD</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>16459512</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>16456203</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>INP SERVICES LTD</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>16459069</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>16459520</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>16459059</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>STOA PROJECTS LTD</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>16456212</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>METAHAVEN LTD</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>16457273</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>EVO AVIATION LIMITED</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>16456253</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>CTLO LTD</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>16456701</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr">
+        <is>
+          <t>2025-05-19</t>
+        </is>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>21:36:29</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
         <is>
           <t>Other</t>
         </is>

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YAKO CASINO LTD</t>
+          <t>SMARTY SPROUTS LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16460391</t>
+          <t>16460399</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SURREYSIDECOMPS LTD</t>
+          <t>MOTIVATION AND PROSPERITY LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460422</t>
+          <t>16460379</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -580,7 +580,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -592,12 +592,12 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
+          <t>SYMPLANO LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16460402</t>
+          <t>16460787</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
+          <t>4D CAPITAL PROPCO (44) LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OC456787</t>
+          <t>16461269</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -656,24 +656,24 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
+          <t>RED DRAGON ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16460669</t>
+          <t>16460788</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -694,7 +694,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SAMVIV PARTNERS LTD</t>
+          <t>AMPERSAND MANAGEMENT UK LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460672</t>
+          <t>16460662</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MAK'S TRADERS LTD</t>
+          <t>SHOWBIZ PRODUCTIONS LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460355</t>
+          <t>16460496</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -770,7 +770,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2BCLOTHING LTD</t>
+          <t>YAKO CASINO LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16460354</t>
+          <t>16460391</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BLOOMSBURY EAST LTD</t>
+          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16460616</t>
+          <t>16460400</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -846,7 +846,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ALFA HG LTD</t>
+          <t>GMEDVEDGROUP LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460543</t>
+          <t>16460434</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SCP RESOURCE CONSULTING LTD</t>
+          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16461047</t>
+          <t>16460487</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
+          <t>CINNABAR HEALTH TRADING CO., LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460569</t>
+          <t>16460515</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>FAST FREE WEBSITES LIMITED</t>
+          <t>DOME DYNAMICS LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460451</t>
+          <t>16460416</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ORIENT CANTEEN LTD</t>
+          <t>TIMBRA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460365</t>
+          <t>16460396</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1036,7 +1036,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -1048,12 +1048,12 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HORUSKY LTD</t>
+          <t>LA AUTOMOTIVE LTD</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460558</t>
+          <t>16460421</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CLEANING MONK LTD</t>
+          <t>GMS7 LIMITED</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460369</t>
+          <t>16460386</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>T-REX (GUILDFORD) LIMITED</t>
+          <t>AA SELLER HUB LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460637</t>
+          <t>16460385</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1150,7 +1150,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>MAAM CO. LTD</t>
+          <t>CLARITY VENTURE SUPPORT LTD</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SC848972</t>
+          <t>16460376</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1188,7 +1188,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
+          <t>PAVITA LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460694</t>
+          <t>16460373</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HOMEASE LTD</t>
+          <t>LITBUILD LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460666</t>
+          <t>16460368</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1264,7 +1264,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SADORP GLOBAL HOLDINGS LTD</t>
+          <t>NRM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460692</t>
+          <t>16460848</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1302,7 +1302,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOTAMI LTD</t>
+          <t>THE GOOD CLUB BRAND LIMITED</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460531</t>
+          <t>16460845</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1340,7 +1340,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ETECH VENTURE LIMITED</t>
+          <t>ARBITREND LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16460372</t>
+          <t>16460844</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>PRACTICE MAKES PERFECT LTD</t>
+          <t>MYSTIC PARTNERS &amp; CO LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16460388</t>
+          <t>16460843</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1416,24 +1416,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>STRIPCO LTD</t>
+          <t>MESH OPERATIONS LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16460564</t>
+          <t>16460841</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1454,7 +1454,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SSMC INVESTMENTS LTD</t>
+          <t>WAYS FORWARD CIC</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16461213</t>
+          <t>16460827</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1492,24 +1492,24 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>BROWNS INVESTMENT GROUP LTD</t>
+          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16461631</t>
+          <t>16460403</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>PULSE SUMMIT CAPITAL LTD</t>
+          <t>MYSOL CORPORATION LIMITED</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16461206</t>
+          <t>16460819</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1568,24 +1568,24 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
+          <t>MINESHOCK LABS LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16460649</t>
+          <t>16460393</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>ASPC CONTENT CO LTD</t>
+          <t>TINGEYS AIRPORTS LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16460643</t>
+          <t>16460815</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1644,7 +1644,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>MEDIA WEB PRO LTD</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16460644</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1682,7 +1682,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MAYTREE ELITE PROPERTIES LTD</t>
+          <t>HEALTHY SWEETS UK LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16460650</t>
+          <t>16460418</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>BRANWELL PROJECTS LIMITED</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16460653</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1758,7 +1758,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
+          <t>NOMAD RIG LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16460659</t>
+          <t>16460571</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SARASI LTD</t>
+          <t>PREMSPY HOLDING LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16460670</t>
+          <t>SC848971</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>INNOVATION MT LTD</t>
+          <t>SKYFREIGHTGLOBAL LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16460646</t>
+          <t>16460366</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1872,7 +1872,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
+          <t>THE BEAUTY COLLECTIVE (NW) LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16460640</t>
+          <t>16460830</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>PREVENTR ACTIVE FIRE LTD</t>
+          <t>ACCORD FIRE DOORS LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16460677</t>
+          <t>16460363</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1948,7 +1948,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>DXI DAILY NECESSITIES CO., LTD.</t>
+          <t>ASSURED VENDING GROUP LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16460679</t>
+          <t>16460810</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FOOTBALL IS FOR THE FANS LTD</t>
+          <t>A&amp;A OPTICS LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16461167</t>
+          <t>SC848975</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2024,7 +2024,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>MOSU VENTURES LTD</t>
+          <t>ADM(GB) LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16461209</t>
+          <t>SC848982</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2062,24 +2062,24 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>PROTO DSGN LIMITED</t>
+          <t>K&amp;C CLEANING AND PROPERTY MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16460406</t>
+          <t>16460803</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2100,7 +2100,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MUORICA NEXOS LTD</t>
+          <t>LUNIFY LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16461214</t>
+          <t>16460802</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2138,7 +2138,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CORNISH IT CONSULTING LTD</t>
+          <t>ASHTON PROPERTY HOLDING LTD</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16460395</t>
+          <t>16460486</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2176,7 +2176,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>UNCOMFORTABLE CHATS LIMITED</t>
+          <t>MAITI HOMES LIMITED</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16460394</t>
+          <t>16460530</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2214,7 +2214,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
+          <t>KINTBURY ECO CENTRE CIC</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16460624</t>
+          <t>16460500</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PADELHAUS (STRATFORD) LTD</t>
+          <t>ECOMEXUS LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16460627</t>
+          <t>16461607</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>KINGS BARBER BOLTON LTD</t>
+          <t>J W PUBS NE LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16460636</t>
+          <t>16460482</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TRIZITION LTD</t>
+          <t>CLIFTON DOG TRAINING LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16460611</t>
+          <t>16460445</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -2378,12 +2378,12 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
+          <t>DMOJ 2025 LIMITED</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>16460615</t>
+          <t>16460446</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2404,24 +2404,24 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>PARDS MART LTD</t>
+          <t>JJ BROS CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16460414</t>
+          <t>16460519</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2442,7 +2442,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>AMGT HOLDING LTD</t>
+          <t>RICH LOGISTICS LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16460401</t>
+          <t>16460512</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>ROAMING RETAIL LIMITED</t>
+          <t>MELAKA COLLEGE CIC</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16460382</t>
+          <t>16460783</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2518,7 +2518,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>NPP RF2 LIMITED</t>
+          <t>TNKLOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16460409</t>
+          <t>16460447</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HAYES PARTNERS LTD</t>
+          <t>NEON LOGISTICS LIMITED</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16460412</t>
+          <t>16460453</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2594,24 +2594,24 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>GREENHILLS 2 LIMITED</t>
+          <t>CHESED MAINTENANCE SERVICES CIC</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>SC849017</t>
+          <t>16460809</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2632,7 +2632,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AMINO RESTAURANT LTD</t>
+          <t>XYZ COMMERCE LTD</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16461171</t>
+          <t>16460489</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2670,7 +2670,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TRIPLE J HOUSING LTD</t>
+          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16460681</t>
+          <t>16460375</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2708,7 +2708,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>YANG HAIJUN LTD</t>
+          <t>CLEARLABS PERFORMANCE LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16460671</t>
+          <t>16460364</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2746,7 +2746,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>JBNC LIMITED</t>
+          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16460484</t>
+          <t>16460374</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>STUDIO FOUNDLING LIMITED</t>
+          <t>LC COURIERS LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16460717</t>
+          <t>16460390</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2822,7 +2822,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -2834,12 +2834,12 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>DB RAIL INFRASTRUCTURE LTD</t>
+          <t>FIND YOUR INDUSTRY LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16460719</t>
+          <t>16460362</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>GOWERTON GOLF RANGE LTD</t>
+          <t>HOLMCROFT LIMITED</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16460710</t>
+          <t>OE033935</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2887,7 +2887,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>INAYA HEALTHCARE LTD</t>
+          <t>VIVID MART LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16460657</t>
+          <t>16460370</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2936,7 +2936,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>OMID'S ENTERPRISE LTD</t>
+          <t>RATHDOWN LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16460381</t>
+          <t>16460398</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2974,7 +2974,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>BARKADEMY LTD</t>
+          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16460454</t>
+          <t>16460408</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>BY FATOU JAI LTD</t>
+          <t>INJECTIVE AESTHETICS LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16460371</t>
+          <t>16460415</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SIMPLY MLC LTD</t>
+          <t>NEW CROSS LOCAL LIMITED</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16460691</t>
+          <t>16460417</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3088,7 +3088,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>LXG LTD</t>
+          <t>AGS STRUCTURAL OUTPUTS LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16460686</t>
+          <t>16460420</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3126,7 +3126,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
+          <t>DEXKAANE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16460690</t>
+          <t>16460419</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3164,7 +3164,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>WENSUM MEDIATION LIMITED</t>
+          <t>BLISSFUL LIFE GLOBAL LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16460696</t>
+          <t>16460842</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3202,7 +3202,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>THE EMMANUEL CENTRE CIC</t>
+          <t>H2 ASSET MANAGEMENT LIMITED</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16460695</t>
+          <t>16460839</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3240,7 +3240,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SMART SKILLS ACADEMY LTD</t>
+          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16460568</t>
+          <t>16460430</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3278,7 +3278,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
@@ -3290,12 +3290,12 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>DERICA SOLUTIONS LTD</t>
+          <t>LUXCOMMERCE LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16460357</t>
+          <t>16460360</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>PEARTREE GARAGE LTD</t>
+          <t>X1 UK SOLUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16460535</t>
+          <t>16460527</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>STYLED BY LC LTD</t>
+          <t>YOUR LOCAL PROPERTY HUB LIMITED</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16460563</t>
+          <t>16461603</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CC GARAGE LTD</t>
+          <t>ARORA MATERIALS LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>16460397</t>
+          <t>16460405</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3442,12 +3442,12 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>NERIA VICTER LTD</t>
+          <t>LAWNHOPPER (RUNCORN) LIMITED</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16461177</t>
+          <t>16461653</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3468,7 +3468,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
@@ -3480,12 +3480,12 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>MISBAH GOODS LTD</t>
+          <t>BBON BAKES LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16460377</t>
+          <t>SC848981</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3506,7 +3506,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>H A REGISTRATIONS LTD</t>
+          <t>A.M.K WIND LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16460586</t>
+          <t>NI729588</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3544,7 +3544,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>DELWAR INVESTMENTS LIMITED</t>
+          <t>LOGENTIA LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16460585</t>
+          <t>16460448</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3582,24 +3582,24 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>PRESSED &amp; FRESH LTD</t>
+          <t>PLANET POSITIVE GROUP LTD</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16460587</t>
+          <t>16461597</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3620,7 +3620,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>FUNCTION.ALL.OVER LTD</t>
+          <t>RISE AND SHINE HOMES LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16461272</t>
+          <t>16461593</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>METABOLICO2 LTD</t>
+          <t>DPAREKH’S LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>SC849016</t>
+          <t>16461659</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3696,7 +3696,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SW2 CONSTRUCTION LIMITED</t>
+          <t>KT16 RESTAURANT LIMITED</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16461262</t>
+          <t>16461656</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3734,7 +3734,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>KGM CONSTRUCTION LTD</t>
+          <t>MAZAJ WHOLESALE LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16461264</t>
+          <t>16461658</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3772,7 +3772,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>JAMIL TALIB LTD</t>
+          <t>BUILDASSIST SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16460389</t>
+          <t>16460452</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3810,7 +3810,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>BOUNDLESS RISE LIMITED</t>
+          <t>PARASETS LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16461176</t>
+          <t>16461657</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -3860,12 +3860,12 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>AMATHYST LTD</t>
+          <t>MICHAEL MACKENZIE ENTERPRISES LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16460595</t>
+          <t>SC849048</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3886,7 +3886,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>GILES &amp; STERLING YOUNG LIMITED</t>
+          <t>LAZIZA BIRYANI LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16461174</t>
+          <t>16460770</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>PJ MANSWORTH (ALED) LIMITED</t>
+          <t>KNOOPS (LSC) LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16461216</t>
+          <t>16461602</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3962,7 +3962,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>BM SERWIS LTD</t>
+          <t>M.FATY LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16461219</t>
+          <t>16461586</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4000,7 +4000,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GREENLYTICS AI LTD</t>
+          <t>HAMPTON HOUSE CARE SERVICES LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16461189</t>
+          <t>16461590</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4038,7 +4038,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>E J WHITE &amp; SON (SCAFFOLDING) LTD</t>
+          <t>KLOUDBAR LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16461193</t>
+          <t>16461621</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4076,7 +4076,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>DEESTORE LTD</t>
+          <t>GB AGENT LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16460510</t>
+          <t>16461614</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
+          <t>AREAVERTA TECHNOLOGIES LOGISTICS &amp; FACILITIES MANAGEMENT LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16460582</t>
+          <t>16461652</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4152,7 +4152,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>EDI&amp;ALEX LTD</t>
+          <t>MALIK MANSIONS LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16460449</t>
+          <t>16461623</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4190,7 +4190,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>COMBI CARE AND REPAIR - OLLIE GIBSON LTD</t>
+          <t>TACO INC LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16461168</t>
+          <t>16461646</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
@@ -4240,12 +4240,12 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ECOLORA LTD</t>
+          <t>QAZAFI MART LTD</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>16462082</t>
+          <t>16461632</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -4266,7 +4266,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
@@ -4278,12 +4278,12 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>RIRA HOMES LTD</t>
+          <t>ON THE MOVE FLEET LTD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>SC849074</t>
+          <t>16461636</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
@@ -4316,12 +4316,12 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>BASALTON LTD</t>
+          <t>KL BUSINESS DEVELOPERS LTD</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>16462076</t>
+          <t>16461634</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -4342,7 +4342,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
@@ -4354,12 +4354,12 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>BOOK NOOK RETREATS LTD</t>
+          <t>GOODWELL TEX LTD</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>SC849072</t>
+          <t>16461615</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -4380,7 +4380,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
@@ -4392,12 +4392,12 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>LOVE ENGLISH LTD</t>
+          <t>BLACKEYE PULSE LIMITED</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>SC849071</t>
+          <t>16461644</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -4418,7 +4418,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
@@ -4430,12 +4430,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>WPR FREEHOLD LTD</t>
+          <t>AXON HEALTH SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>16462071</t>
+          <t>16461612</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
@@ -4468,12 +4468,12 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>M &amp; BTY LTD., LTD</t>
+          <t>NUZZLE GROUP LTD</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>16462062</t>
+          <t>16461645</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -4494,7 +4494,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
@@ -4506,12 +4506,12 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>LTW CONSULTING LTD</t>
+          <t>DANCRAFT LLP</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>16462060</t>
+          <t>OC456792</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -4532,24 +4532,24 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>AALSA LTD</t>
+          <t>ROOSYS LIMITED</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>16462059</t>
+          <t>16461647</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -4570,7 +4570,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
@@ -4582,12 +4582,12 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>EMBER AUTOMATION LIMITED</t>
+          <t>AISTRIOLOGY LTD</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>16462055</t>
+          <t>16461642</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -4608,7 +4608,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
@@ -4620,12 +4620,12 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>TADSTARMAN LTD</t>
+          <t>OPULENTIA DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>16460579</t>
+          <t>16460833</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -4646,7 +4646,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
@@ -4658,12 +4658,12 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>AMARA WELLS LTD</t>
+          <t>NICTHEBOY TECHNOLOGY LTD.</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>SC849026</t>
+          <t>16460520</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -4684,7 +4684,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
@@ -4696,12 +4696,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>GROUND MORTGAGE SERVICES LIMITED</t>
+          <t>SKINNY SISTERS LTD</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>16461278</t>
+          <t>16460411</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -4722,7 +4722,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
@@ -4734,12 +4734,12 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>MUNCHIES KEBAB DESERT LTD</t>
+          <t>TO BE CROWNED GROUP LIMITED</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>16461260</t>
+          <t>16461630</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
@@ -4772,12 +4772,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NORDIX FREIGHT LTD</t>
+          <t>BUILDERS SCOPE LIMITED</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>SC849013</t>
+          <t>16460514</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -4798,7 +4798,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
@@ -4810,12 +4810,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>BALDAN FLOORING LIMITED</t>
+          <t>AERIX LIMITED</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>16461191</t>
+          <t>16460775</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -4836,7 +4836,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
@@ -4848,12 +4848,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>FRANCE COMMERCE LTD</t>
+          <t>TALENT MATTERS UK CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>16461192</t>
+          <t>16462085</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
@@ -4886,12 +4886,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>VELMI LTD</t>
+          <t>TREASURE ISLAND COINS &amp; COLLECTIBLES LIMITED</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>16461185</t>
+          <t>16460780</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
@@ -4924,12 +4924,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>BANDOS BY ADEBISI LTD</t>
+          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>16460361</t>
+          <t>16460407</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
@@ -4962,12 +4962,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
+          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>16460478</t>
+          <t>SC848970</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -4988,7 +4988,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
@@ -5000,12 +5000,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>FAMILY COMMREPORT LTD</t>
+          <t>TRAVEL NOW GROUP LTD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>16460356</t>
+          <t>16460847</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
@@ -5038,12 +5038,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>BOWDEN SPRING LIMITED</t>
+          <t>FONETHICS SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>16461175</t>
+          <t>SC848969</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -5064,7 +5064,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
@@ -5076,12 +5076,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>MONEY MART LTD</t>
+          <t>SINOBANG CONSULTING SERVICE LIMITED</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>16460383</t>
+          <t>16460779</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
@@ -5114,12 +5114,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>RIONEST LTD</t>
+          <t>TRUE NORTH JOINERY LTD</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>SC849015</t>
+          <t>16460359</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -5140,7 +5140,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
@@ -5152,12 +5152,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>CORE YOU MEDIA LTD</t>
+          <t>MASTER THE CHAIN LTD</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>16460709</t>
+          <t>16460358</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -5178,7 +5178,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
@@ -5190,12 +5190,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>COREMARINE SOLUTIONS CIC</t>
+          <t>NARCISSIST APPAREL LTD</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>16460663</t>
+          <t>16460378</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -5216,7 +5216,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
@@ -5228,12 +5228,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>MIGHTY MARGATE CIC</t>
+          <t>EXTERIOR EDGE LTD</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>16460626</t>
+          <t>16460426</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -5254,7 +5254,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
@@ -5266,12 +5266,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>VIRTUAL CO. UK LTD</t>
+          <t>KVP VENTURES LIMITED</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>16460502</t>
+          <t>16460424</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5297,19 +5297,19 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>CLASSFORGE LTD</t>
+          <t>SPIDOCRAFT LTD</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>16460436</t>
+          <t>16460439</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -5342,12 +5342,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>TONPA LTD</t>
+          <t>CNL.JJ.ENTERTAINMENT LTD</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>16460471</t>
+          <t>16461082</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -5368,7 +5368,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H130" t="inlineStr">
@@ -5380,12 +5380,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>LIMITLESSCONTRACTS LTD</t>
+          <t>KATIE LEVI LTD</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>16460553</t>
+          <t>16461078</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -5406,7 +5406,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H131" t="inlineStr">
@@ -5418,12 +5418,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CONTINENTAL COACHES LTD</t>
+          <t>EBONY PROPERTY LTD</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>16460551</t>
+          <t>16461086</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H132" t="inlineStr">
@@ -5456,12 +5456,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>THE SOL COLLECTION LTD</t>
+          <t>BG DUCTWORK LTD</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>16460547</t>
+          <t>16461100</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -5482,7 +5482,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H133" t="inlineStr">
@@ -5494,12 +5494,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>C &amp; D ENVIRONMENT LIMITED</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>16460548</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -5525,19 +5525,19 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>AAH MART LTD</t>
+          <t>STRUCTURE DART LTD</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>16460464</t>
+          <t>16461096</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -5558,7 +5558,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H135" t="inlineStr">
@@ -5570,12 +5570,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>VITANOVA LEARNING LIMITED</t>
+          <t>HEART OF TOWN II LIMITED</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>16460384</t>
+          <t>16460410</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H136" t="inlineStr">
@@ -5608,12 +5608,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>MEHRAS PISHGAM SADRA EXPO LTD</t>
+          <t>FARIS ELHADI GLOBAL . LTD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>16461195</t>
+          <t>16460498</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -5634,7 +5634,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H137" t="inlineStr">
@@ -5646,12 +5646,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>MEARNS CLEANING SERVICES LTD</t>
+          <t>HALTON-BROWNE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>16460387</t>
+          <t>16460805</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -5672,7 +5672,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H138" t="inlineStr">
@@ -5684,12 +5684,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CODALYTICS LIMITED</t>
+          <t>COREPERFORMANCEUK LTD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>16461182</t>
+          <t>16461105</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -5710,7 +5710,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H139" t="inlineStr">
@@ -5722,12 +5722,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOULFUL SYNERGY LTD</t>
+          <t>PEAR GREEN REAL ESTATES LTD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>16461224</t>
+          <t>16461085</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -5748,7 +5748,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H140" t="inlineStr">
@@ -5760,12 +5760,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>REIGNING MEDIA LIMITED</t>
+          <t>ARTMARRA LTD</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>16461275</t>
+          <t>16461097</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -5786,7 +5786,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H141" t="inlineStr">
@@ -5798,12 +5798,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CRISPY GLEN LTD</t>
+          <t>ECOMM SHARK LTD</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>SC849027</t>
+          <t>16461605</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H142" t="inlineStr">
@@ -5836,12 +5836,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>TUK TALENT LTD</t>
+          <t>CSP SURVEYING LIMITED</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>16461265</t>
+          <t>SC849008</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H143" t="inlineStr">
@@ -5874,12 +5874,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>BEEL WORLDWIDE SERVICES LTD</t>
+          <t>TILFORD SOUTHWEST LTD</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>16460594</t>
+          <t>16461098</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -5900,7 +5900,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H144" t="inlineStr">
@@ -5912,12 +5912,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
+          <t>OCONNOR SAFETY SPECIALISTS LTD</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>16460442</t>
+          <t>NI729607</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H145" t="inlineStr">
@@ -5950,12 +5950,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>CLOCK IT TECH LTD</t>
+          <t>SK&amp;SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>16460573</t>
+          <t>16461108</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -5976,7 +5976,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H146" t="inlineStr">
@@ -5988,12 +5988,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>NXT GEN INTERNATIONAL LTD</t>
+          <t>HEALTH WORLD TOURISM COMPANY LTD</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>16461199</t>
+          <t>16461107</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -6014,7 +6014,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H147" t="inlineStr">
@@ -6026,12 +6026,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>TAHI STUDIO LIMITED</t>
+          <t>ANAM CARA JEWELLERY LTD</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>16461197</t>
+          <t>16460516</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -6052,7 +6052,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H148" t="inlineStr">
@@ -6064,12 +6064,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
+          <t>CLOSUR LIMITED</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>16460353</t>
+          <t>16460556</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -6090,7 +6090,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H149" t="inlineStr">
@@ -6102,12 +6102,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>THE GOBLIN WORKSHOP LTD</t>
+          <t>LASHESBYS LIMITED</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>16460465</t>
+          <t>SC848973</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -6140,12 +6140,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ABSAILING NDT LTD</t>
+          <t>RESTORCARE HEALTH LTD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>16460462</t>
+          <t>16460404</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -6166,7 +6166,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
@@ -6178,12 +6178,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>IMPERIUM ECHELON LTD</t>
+          <t>COACHED BY JESS LIMITED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>16460493</t>
+          <t>16460392</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
@@ -6216,12 +6216,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SAFECLEAN GROUP LIMITED</t>
+          <t>BILLION SCENTS LTD</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>16461198</t>
+          <t>16460413</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -6242,7 +6242,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
@@ -6254,12 +6254,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>GS GEPE II SIDECAR IV GP LLP</t>
+          <t>DELTA ROMEO ONE LIMITED</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>SO308186</t>
+          <t>16460495</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -6280,24 +6280,24 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>INFINITE CARDS LTD</t>
+          <t>MASR PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>16460713</t>
+          <t>16460367</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -6318,7 +6318,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>07:32:31</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
@@ -6330,12 +6330,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>ARORA MATERIALS LIMITED</t>
+          <t>INFINITE CARDS LTD</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>16460405</t>
+          <t>16460713</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
@@ -6368,12 +6368,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>DELTA ROMEO ONE LIMITED</t>
+          <t>KINGS BARBER BOLTON LTD</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>16460495</t>
+          <t>16460636</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -6394,7 +6394,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
@@ -6406,12 +6406,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>NEON LOGISTICS LIMITED</t>
+          <t>HAYES PARTNERS LTD</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>16460453</t>
+          <t>16460412</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -6432,24 +6432,24 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>TNKLOGISTICS LIMITED</t>
+          <t>NPP RF2 LIMITED</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>16460447</t>
+          <t>16460409</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -6470,7 +6470,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
@@ -6482,12 +6482,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>MELAKA COLLEGE CIC</t>
+          <t>ROAMING RETAIL LIMITED</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>16460783</t>
+          <t>16460382</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -6508,7 +6508,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H160" t="inlineStr">
@@ -6520,12 +6520,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>RICH LOGISTICS LTD</t>
+          <t>AMGT HOLDING LTD</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>16460512</t>
+          <t>16460401</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -6546,7 +6546,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H161" t="inlineStr">
@@ -6558,12 +6558,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>JJ BROS CONSTRUCTION LTD</t>
+          <t>PARDS MART LTD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>16460519</t>
+          <t>16460414</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -6584,7 +6584,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H162" t="inlineStr">
@@ -6596,12 +6596,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>DMOJ 2025 LIMITED</t>
+          <t>GLOBAL SQUARE INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>16460446</t>
+          <t>16460615</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -6622,24 +6622,24 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>CLIFTON DOG TRAINING LTD</t>
+          <t>TRIZITION LTD</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>16460445</t>
+          <t>16460611</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -6660,7 +6660,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
@@ -6672,12 +6672,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>J W PUBS NE LTD</t>
+          <t>PADELHAUS (STRATFORD) LTD</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>16460482</t>
+          <t>16460627</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -6698,7 +6698,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
@@ -6710,12 +6710,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>ECOMEXUS LTD</t>
+          <t>STYLED BY LC LTD</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>16461607</t>
+          <t>16460563</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -6736,7 +6736,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
@@ -6748,12 +6748,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>KINTBURY ECO CENTRE CIC</t>
+          <t>THE BRIDGE PROJECT (LONDON) C.I.C.</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>16460500</t>
+          <t>16460624</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -6774,7 +6774,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
@@ -6786,12 +6786,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>MAITI HOMES LIMITED</t>
+          <t>UNCOMFORTABLE CHATS LIMITED</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>16460530</t>
+          <t>16460394</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -6812,7 +6812,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
@@ -6824,12 +6824,12 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>ASHTON PROPERTY HOLDING LTD</t>
+          <t>CORNISH IT CONSULTING LTD</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>16460486</t>
+          <t>16460395</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -6850,7 +6850,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H169" t="inlineStr">
@@ -6862,12 +6862,12 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>LUNIFY LTD</t>
+          <t>MUORICA NEXOS LTD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>16460802</t>
+          <t>16461214</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -6888,7 +6888,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
@@ -6900,12 +6900,12 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>K&amp;C CLEANING AND PROPERTY MANAGEMENT LTD</t>
+          <t>PROTO DSGN LIMITED</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>16460803</t>
+          <t>16460406</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -6926,7 +6926,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
@@ -6938,12 +6938,12 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>ADM(GB) LTD</t>
+          <t>MOSU VENTURES LTD</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>SC848982</t>
+          <t>16461209</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -6964,24 +6964,24 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>CHESED MAINTENANCE SERVICES CIC</t>
+          <t>FOOTBALL IS FOR THE FANS LTD</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>16460809</t>
+          <t>16461167</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -7002,7 +7002,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H173" t="inlineStr">
@@ -7014,12 +7014,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>A&amp;A OPTICS LTD</t>
+          <t>GREENHILLS 2 LIMITED</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>SC848975</t>
+          <t>SC849017</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -7040,7 +7040,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H174" t="inlineStr">
@@ -7052,12 +7052,12 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>XYZ COMMERCE LTD</t>
+          <t>AMINO RESTAURANT LTD</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>16460489</t>
+          <t>16461171</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -7078,7 +7078,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H175" t="inlineStr">
@@ -7090,12 +7090,12 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>CLEARLABS PERFORMANCE LTD</t>
+          <t>TRIPLE J HOUSING LTD</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>16460364</t>
+          <t>16460681</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -7116,7 +7116,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
@@ -7128,12 +7128,12 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>LUXCOMMERCE LTD</t>
+          <t>YANG HAIJUN LTD</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>16460360</t>
+          <t>16460671</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -7154,7 +7154,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
@@ -7166,12 +7166,12 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>MERSEY DEVELOPMENT &amp; CONSTRUCTION LTD</t>
+          <t>DERICA SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>16460430</t>
+          <t>16460357</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -7192,7 +7192,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H178" t="inlineStr">
@@ -7204,12 +7204,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>H2 ASSET MANAGEMENT LIMITED</t>
+          <t>SMART SKILLS ACADEMY LTD</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>16460839</t>
+          <t>16460568</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -7230,7 +7230,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H179" t="inlineStr">
@@ -7242,12 +7242,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>BLISSFUL LIFE GLOBAL LTD</t>
+          <t>THE EMMANUEL CENTRE CIC</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>16460842</t>
+          <t>16460695</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -7268,7 +7268,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H180" t="inlineStr">
@@ -7280,12 +7280,12 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>DEXKAANE SERVICES LIMITED</t>
+          <t>WENSUM MEDIATION LIMITED</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>16460419</t>
+          <t>16460696</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -7306,7 +7306,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H181" t="inlineStr">
@@ -7318,12 +7318,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>AGS STRUCTURAL OUTPUTS LTD</t>
+          <t>SOCKS AND SANDALS ESTATES LIMITED</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>16460420</t>
+          <t>16460690</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -7344,7 +7344,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H182" t="inlineStr">
@@ -7356,12 +7356,12 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>NEW CROSS LOCAL LIMITED</t>
+          <t>LXG LTD</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>16460417</t>
+          <t>16460686</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -7382,7 +7382,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H183" t="inlineStr">
@@ -7394,12 +7394,12 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>INJECTIVE AESTHETICS LTD</t>
+          <t>SIMPLY MLC LTD</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>16460415</t>
+          <t>16460691</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -7420,7 +7420,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H184" t="inlineStr">
@@ -7432,12 +7432,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>RUBU MAJAZ ALMUTAMAYIZAH LTD</t>
+          <t>BY FATOU JAI LTD</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>16460408</t>
+          <t>16460371</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -7458,7 +7458,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H185" t="inlineStr">
@@ -7470,12 +7470,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>RATHDOWN LTD</t>
+          <t>BARKADEMY LTD</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>16460398</t>
+          <t>16460454</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -7496,7 +7496,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
@@ -7508,12 +7508,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>VIVID MART LTD</t>
+          <t>OMID'S ENTERPRISE LTD</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>16460370</t>
+          <t>16460381</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -7546,12 +7546,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>HOLMCROFT LIMITED</t>
+          <t>INAYA HEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>OE033935</t>
+          <t>16460657</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E188" t="inlineStr"/>
@@ -7572,7 +7572,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
@@ -7584,12 +7584,12 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>FIND YOUR INDUSTRY LTD</t>
+          <t>GOWERTON GOLF RANGE LTD</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>16460362</t>
+          <t>16460710</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -7610,7 +7610,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
@@ -7622,12 +7622,12 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>LC COURIERS LTD</t>
+          <t>DB RAIL INFRASTRUCTURE LTD</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>16460390</t>
+          <t>16460719</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -7648,7 +7648,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
@@ -7660,12 +7660,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>APEX PLUMBING AND HEATING SOLUTIONS LTD</t>
+          <t>STUDIO FOUNDLING LIMITED</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>16460374</t>
+          <t>16460717</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -7686,7 +7686,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H191" t="inlineStr">
@@ -7698,12 +7698,12 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>BA CORP SOLUTIONS &amp; EVENTS LTD</t>
+          <t>JBNC LIMITED</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>16460375</t>
+          <t>16460484</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H192" t="inlineStr">
@@ -7736,12 +7736,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>ASSURED VENDING GROUP LTD</t>
+          <t>DXI DAILY NECESSITIES CO., LTD.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>16460810</t>
+          <t>16460679</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H193" t="inlineStr">
@@ -7774,12 +7774,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>ACCORD FIRE DOORS LTD</t>
+          <t>PREVENTR ACTIVE FIRE LTD</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>16460363</t>
+          <t>16460677</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -7800,7 +7800,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H194" t="inlineStr">
@@ -7812,12 +7812,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>THE BEAUTY COLLECTIVE (NW) LTD</t>
+          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>16460830</t>
+          <t>16460640</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H195" t="inlineStr">
@@ -7850,12 +7850,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AA SELLER HUB LTD</t>
+          <t>MAAM CO. LTD</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>16460385</t>
+          <t>SC848972</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -7876,7 +7876,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H196" t="inlineStr">
@@ -7888,12 +7888,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>GMS7 LIMITED</t>
+          <t>CLEANING MONK LTD</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>16460386</t>
+          <t>16460369</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -7914,7 +7914,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>04:43:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H197" t="inlineStr">
@@ -7926,12 +7926,12 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>LA AUTOMOTIVE LTD</t>
+          <t>HORUSKY LTD</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>16460421</t>
+          <t>16460558</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -7952,7 +7952,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H198" t="inlineStr">
@@ -7964,12 +7964,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>TIMBRA PROJECTS LTD</t>
+          <t>ORIENT CANTEEN LTD</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>16460396</t>
+          <t>16460365</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H199" t="inlineStr">
@@ -8002,12 +8002,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>DOME DYNAMICS LTD</t>
+          <t>FAST FREE WEBSITES LIMITED</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>16460416</t>
+          <t>16460451</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -8028,7 +8028,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H200" t="inlineStr">
@@ -8040,12 +8040,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>CINNABAR HEALTH TRADING CO., LTD</t>
+          <t>PM EMPLOYMENT SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>16460515</t>
+          <t>16460569</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -8066,7 +8066,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H201" t="inlineStr">
@@ -8078,12 +8078,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>BH PROPERTY MAINTENANCE &amp; MANAGEMENT LTD</t>
+          <t>SCP RESOURCE CONSULTING LTD</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>16460487</t>
+          <t>16461047</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -8104,7 +8104,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>08:52:24</t>
         </is>
       </c>
       <c r="H202" t="inlineStr">
@@ -8116,12 +8116,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>CALLAN’S CHILDREN COMPLEX CARE COMPANY LIMITED</t>
+          <t>ALFA HG LTD</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>16460400</t>
+          <t>16460543</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -8142,7 +8142,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H203" t="inlineStr">
@@ -8154,12 +8154,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>SMARTY SPROUTS LTD</t>
+          <t>BLOOMSBURY EAST LTD</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>16460399</t>
+          <t>16460616</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -8180,7 +8180,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H204" t="inlineStr">
@@ -8192,12 +8192,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>MASR PROPERTIES LTD</t>
+          <t>2BCLOTHING LTD</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>16460367</t>
+          <t>16460354</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -8230,12 +8230,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>SHOWBIZ PRODUCTIONS LTD</t>
+          <t>MAK'S TRADERS LTD</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>16460496</t>
+          <t>16460355</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -8256,7 +8256,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
@@ -8268,12 +8268,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>AMPERSAND MANAGEMENT UK LTD</t>
+          <t>SAMVIV PARTNERS LTD</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>16460662</t>
+          <t>16460672</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -8299,19 +8299,19 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>RED DRAGON ELECTRICAL LTD</t>
+          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>16460788</t>
+          <t>16460669</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -8332,7 +8332,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
@@ -8344,12 +8344,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>4D CAPITAL PROPCO (44) LIMITED</t>
+          <t>FUTURE ENTERPRISES &amp; HOLDING LLP</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>16461269</t>
+          <t>OC456787</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -8370,24 +8370,24 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>09:38:51</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>SYMPLANO LTD</t>
+          <t>MAURYA &amp; SONS PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>16460787</t>
+          <t>16460402</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -8420,12 +8420,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MOTIVATION AND PROSPERITY LTD</t>
+          <t>SURREYSIDECOMPS LTD</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>16460379</t>
+          <t>16460422</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -8446,7 +8446,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -8458,12 +8458,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>CLARITY VENTURE SUPPORT LTD</t>
+          <t>T-REX (GUILDFORD) LIMITED</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>16460376</t>
+          <t>16460637</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -8484,7 +8484,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -8496,12 +8496,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>PAVITA LOGISTICS LTD</t>
+          <t>ACE ELECTRICALS CONTRACTOR LIMITED</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>16460373</t>
+          <t>16460694</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -8522,7 +8522,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
@@ -8534,12 +8534,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>LITBUILD LTD</t>
+          <t>INNOVATION MT LTD</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>16460368</t>
+          <t>16460646</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -8560,7 +8560,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
@@ -8572,12 +8572,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>NRM CONSULTING LIMITED</t>
+          <t>HOMEASE LTD</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>16460848</t>
+          <t>16460666</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -8598,7 +8598,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
@@ -8610,12 +8610,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>SKYFREIGHTGLOBAL LTD</t>
+          <t>SARASI LTD</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>16460366</t>
+          <t>16460670</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -8636,7 +8636,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
@@ -8648,12 +8648,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>PREMSPY HOLDING LIMITED</t>
+          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>SC848971</t>
+          <t>16460659</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -8674,7 +8674,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -8686,12 +8686,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>NOMAD RIG LTD</t>
+          <t>BRANWELL PROJECTS LIMITED</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16460571</t>
+          <t>16460653</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -8724,12 +8724,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>THE SPICE INVADERS LTD</t>
+          <t>MAYTREE ELITE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16460505</t>
+          <t>16460650</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -8750,7 +8750,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -8762,12 +8762,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>HEALTHY SWEETS UK LTD</t>
+          <t>MEDIA WEB PRO LTD</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>16460418</t>
+          <t>16460644</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
@@ -8800,12 +8800,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>DEE BEE TRADING LTD</t>
+          <t>ASPC CONTENT CO LTD</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>16460511</t>
+          <t>16460643</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -8826,7 +8826,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
@@ -8838,12 +8838,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>TINGEYS AIRPORTS LTD</t>
+          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>16460815</t>
+          <t>16460649</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -8864,7 +8864,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
@@ -8876,12 +8876,12 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MINESHOCK LABS LTD</t>
+          <t>PULSE SUMMIT CAPITAL LTD</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>16460393</t>
+          <t>16461206</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -8902,24 +8902,24 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MYSOL CORPORATION LIMITED</t>
+          <t>GS GEPE II SIDECAR IV GP LLP</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>16460819</t>
+          <t>SO308186</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -8940,24 +8940,24 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>THE BROW CLINIC &amp; BEYOND LTD</t>
+          <t>SSMC INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>16460403</t>
+          <t>16461213</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -8978,24 +8978,24 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>WAYS FORWARD CIC</t>
+          <t>STRIPCO LTD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>16460827</t>
+          <t>16460564</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -9016,7 +9016,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -9028,12 +9028,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>MESH OPERATIONS LTD</t>
+          <t>PRACTICE MAKES PERFECT LTD</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>16460841</t>
+          <t>16460388</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -9054,7 +9054,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -9066,12 +9066,12 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>MYSTIC PARTNERS &amp; CO LTD</t>
+          <t>ETECH VENTURE LIMITED</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>16460843</t>
+          <t>16460372</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -9092,24 +9092,24 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>ARBITREND LTD</t>
+          <t>SOTAMI LTD</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>16460844</t>
+          <t>16460531</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -9130,7 +9130,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -9142,12 +9142,12 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>THE GOOD CLUB BRAND LIMITED</t>
+          <t>SADORP GLOBAL HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>16460845</t>
+          <t>16460692</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -9168,7 +9168,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
@@ -9180,12 +9180,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>X1 UK SOLUTIONS LIMITED</t>
+          <t>PEARTREE GARAGE LTD</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>16460527</t>
+          <t>16460535</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -9218,12 +9218,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>GMEDVEDGROUP LTD</t>
+          <t>BROWNS INVESTMENT GROUP LTD</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>16460434</t>
+          <t>16461631</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -9244,7 +9244,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>10:44:26</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
@@ -9256,12 +9256,12 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>YOUR LOCAL PROPERTY HUB LIMITED</t>
+          <t>CC GARAGE LTD</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>16461603</t>
+          <t>16460397</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
@@ -9294,12 +9294,12 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>BUILDASSIST SERVICES LIMITED</t>
+          <t>MIGHTY MARGATE CIC</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>16460452</t>
+          <t>16460626</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -9332,12 +9332,12 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
+          <t>C &amp; D ENVIRONMENT LIMITED</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>16460503</t>
+          <t>16460548</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -9363,19 +9363,19 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>BG DUCTWORK LTD</t>
+          <t>THE SOL COLLECTION LTD</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>16461100</t>
+          <t>16460547</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -9396,7 +9396,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H236" t="inlineStr">
@@ -9408,12 +9408,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>EBONY PROPERTY LTD</t>
+          <t>CONTINENTAL COACHES LTD</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>16461086</t>
+          <t>16460551</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -9434,7 +9434,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
@@ -9446,12 +9446,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>KATIE LEVI LTD</t>
+          <t>LIMITLESSCONTRACTS LTD</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>16461078</t>
+          <t>16460553</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -9472,7 +9472,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
@@ -9484,12 +9484,12 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>CNL.JJ.ENTERTAINMENT LTD</t>
+          <t>TONPA LTD</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>16461082</t>
+          <t>16460471</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -9510,7 +9510,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
@@ -9522,12 +9522,12 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>SPIDOCRAFT LTD</t>
+          <t>CLASSFORGE LTD</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>16460439</t>
+          <t>16460436</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -9560,12 +9560,12 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>KVP VENTURES LIMITED</t>
+          <t>VIRTUAL CO. UK LTD</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>16460424</t>
+          <t>16460502</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -9591,19 +9591,19 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>EXTERIOR EDGE LTD</t>
+          <t>COREMARINE SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>16460426</t>
+          <t>16460663</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -9624,7 +9624,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
@@ -9636,12 +9636,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>NARCISSIST APPAREL LTD</t>
+          <t>FRANCE COMMERCE LTD</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>16460378</t>
+          <t>16461192</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -9662,7 +9662,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
@@ -9674,12 +9674,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>MASTER THE CHAIN LTD</t>
+          <t>CORE YOU MEDIA LTD</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>16460358</t>
+          <t>16460709</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -9700,7 +9700,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -9712,12 +9712,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>TRUE NORTH JOINERY LTD</t>
+          <t>RIONEST LTD</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>16460359</t>
+          <t>SC849015</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -9738,7 +9738,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -9750,12 +9750,12 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>SINOBANG CONSULTING SERVICE LIMITED</t>
+          <t>MONEY MART LTD</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>16460779</t>
+          <t>16460383</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -9788,12 +9788,12 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>FONETHICS SOLUTIONS LTD</t>
+          <t>BOWDEN SPRING LIMITED</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>SC848969</t>
+          <t>16461175</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>03:31:34</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -9826,12 +9826,12 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>TRAVEL NOW GROUP LTD</t>
+          <t>FAMILY COMMREPORT LTD</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>16460847</t>
+          <t>16460356</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -9852,7 +9852,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
@@ -9864,12 +9864,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>ARDPEATON DEVELOPMENTS LIMITED</t>
+          <t>SPOTLESS CROWN CLEANING SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>SC848970</t>
+          <t>16460478</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -9890,7 +9890,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -9902,12 +9902,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>STRUCTURE DART LTD</t>
+          <t>BANDOS BY ADEBISI LTD</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>16461096</t>
+          <t>16460361</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -9928,7 +9928,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
@@ -9940,12 +9940,12 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>KILIMANJARO MAVENS TREKS &amp; SAFARIS LTD</t>
+          <t>AAH MART LTD</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>16460407</t>
+          <t>16460464</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -9966,7 +9966,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -9978,12 +9978,12 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>HEART OF TOWN II LIMITED</t>
+          <t>VITANOVA LEARNING LIMITED</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>16460410</t>
+          <t>16460384</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H252" t="inlineStr">
@@ -10016,12 +10016,12 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>HALTON-BROWNE PROPERTIES LTD</t>
+          <t>MEHRAS PISHGAM SADRA EXPO LTD</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>16460805</t>
+          <t>16461195</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -10042,7 +10042,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H253" t="inlineStr">
@@ -10054,12 +10054,12 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>BILLION SCENTS LTD</t>
+          <t>MEARNS CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>16460413</t>
+          <t>16460387</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -10080,7 +10080,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>04:43:32</t>
         </is>
       </c>
       <c r="H254" t="inlineStr">
@@ -10092,12 +10092,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>COACHED BY JESS LIMITED</t>
+          <t>NERIA VICTER LTD</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>16460392</t>
+          <t>16461177</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H255" t="inlineStr">
@@ -10130,12 +10130,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>RESTORCARE HEALTH LTD</t>
+          <t>SAFECLEAN GROUP LIMITED</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>16460404</t>
+          <t>16461198</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -10156,7 +10156,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H256" t="inlineStr">
@@ -10168,12 +10168,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>LASHESBYS LIMITED</t>
+          <t>IMPERIUM ECHELON LTD</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>SC848973</t>
+          <t>16460493</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -10206,12 +10206,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>CLOSUR LIMITED</t>
+          <t>ABSAILING NDT LTD</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>16460556</t>
+          <t>16460462</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -10244,12 +10244,12 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>ANAM CARA JEWELLERY LTD</t>
+          <t>THE GOBLIN WORKSHOP LTD</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>16460516</t>
+          <t>16460465</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -10282,12 +10282,12 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>HEALTH WORLD TOURISM COMPANY LTD</t>
+          <t>M&amp;S SOCIAL CARE CONSULTANTS LTD</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>16461107</t>
+          <t>16460353</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H260" t="inlineStr">
@@ -10320,12 +10320,12 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>SK&amp;SONS PROPERTIES LTD</t>
+          <t>TAHI STUDIO LIMITED</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>16461108</t>
+          <t>16461197</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -10346,7 +10346,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H261" t="inlineStr">
@@ -10358,12 +10358,12 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>OCONNOR SAFETY SPECIALISTS LTD</t>
+          <t>NXT GEN INTERNATIONAL LTD</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>NI729607</t>
+          <t>16461199</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -10384,7 +10384,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H262" t="inlineStr">
@@ -10396,12 +10396,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>TILFORD SOUTHWEST LTD</t>
+          <t>CLOCK IT TECH LTD</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>16461098</t>
+          <t>16460573</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -10422,7 +10422,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H263" t="inlineStr">
@@ -10434,12 +10434,12 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>CSP SURVEYING LIMITED</t>
+          <t>GOFF BIRD TATTOO AND PIERCING LTD</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>SC849008</t>
+          <t>16460442</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H264" t="inlineStr">
@@ -10472,12 +10472,12 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>ECOMM SHARK LTD</t>
+          <t>BEEL WORLDWIDE SERVICES LTD</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>16461605</t>
+          <t>16460594</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -10498,7 +10498,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H265" t="inlineStr">
@@ -10510,12 +10510,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ARTMARRA LTD</t>
+          <t>TUK TALENT LTD</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>16461097</t>
+          <t>16461265</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -10536,7 +10536,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H266" t="inlineStr">
@@ -10548,12 +10548,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>PEAR GREEN REAL ESTATES LTD</t>
+          <t>CRISPY GLEN LTD</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>16461085</t>
+          <t>SC849027</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -10574,7 +10574,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H267" t="inlineStr">
@@ -10586,12 +10586,12 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>COREPERFORMANCEUK LTD</t>
+          <t>SOULFUL SYNERGY LTD</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>16461105</t>
+          <t>16461224</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -10612,7 +10612,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H268" t="inlineStr">
@@ -10624,12 +10624,12 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>FARIS ELHADI GLOBAL . LTD</t>
+          <t>CODALYTICS LIMITED</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>16460498</t>
+          <t>16461182</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -10650,7 +10650,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H269" t="inlineStr">
@@ -10662,12 +10662,12 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>TREASURE ISLAND COINS &amp; COLLECTIBLES LIMITED</t>
+          <t>VELMI LTD</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>16460780</t>
+          <t>16461185</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -10688,7 +10688,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H270" t="inlineStr">
@@ -10700,12 +10700,12 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>TALENT MATTERS UK CONSULTING LIMITED</t>
+          <t>REIGNING MEDIA LIMITED</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>16462085</t>
+          <t>16461275</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -10726,7 +10726,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>11:28:41</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H271" t="inlineStr">
@@ -10738,12 +10738,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>AERIX LIMITED</t>
+          <t>BALDAN FLOORING LIMITED</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>16460775</t>
+          <t>16461191</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -10764,7 +10764,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H272" t="inlineStr">
@@ -10776,12 +10776,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>KLOUDBAR LTD</t>
+          <t>DEESTORE LTD</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>16461621</t>
+          <t>16460510</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H273" t="inlineStr">
@@ -10814,12 +10814,12 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>HAMPTON HOUSE CARE SERVICES LTD</t>
+          <t>GREENLYTICS AI LTD</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>16461590</t>
+          <t>16461189</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H274" t="inlineStr">
@@ -10852,12 +10852,12 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>M.FATY LIMITED</t>
+          <t>BM SERWIS LTD</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>16461586</t>
+          <t>16461219</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -10878,7 +10878,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H275" t="inlineStr">
@@ -10890,12 +10890,12 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>KNOOPS (LSC) LTD</t>
+          <t>PJ MANSWORTH (ALED) LIMITED</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>16461602</t>
+          <t>16461216</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -10916,7 +10916,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H276" t="inlineStr">
@@ -10928,12 +10928,12 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>LAZIZA BIRYANI LTD</t>
+          <t>GILES &amp; STERLING YOUNG LIMITED</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>16460770</t>
+          <t>16461174</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -10954,7 +10954,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H277" t="inlineStr">
@@ -10966,12 +10966,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>MICHAEL MACKENZIE ENTERPRISES LTD</t>
+          <t>AMATHYST LTD</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>SC849048</t>
+          <t>16460595</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -10992,7 +10992,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H278" t="inlineStr">
@@ -11004,12 +11004,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>PARASETS LTD</t>
+          <t>BOUNDLESS RISE LIMITED</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>16461657</t>
+          <t>16461176</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -11030,7 +11030,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -11042,12 +11042,12 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>MAZAJ WHOLESALE LTD</t>
+          <t>JAMIL TALIB LTD</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>16461658</t>
+          <t>16460389</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -11068,7 +11068,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>05:39:32</t>
         </is>
       </c>
       <c r="H280" t="inlineStr">
@@ -11080,12 +11080,12 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>LAWNHOPPER (RUNCORN) LIMITED</t>
+          <t>KGM CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>16461653</t>
+          <t>16461264</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -11106,7 +11106,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H281" t="inlineStr">
@@ -11118,12 +11118,12 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>KT16 RESTAURANT LIMITED</t>
+          <t>METABOLICO2 LTD</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>16461656</t>
+          <t>SC849016</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H282" t="inlineStr">
@@ -11156,12 +11156,12 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>DPAREKH’S LTD</t>
+          <t>FUNCTION.ALL.OVER LTD</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>16461659</t>
+          <t>16461272</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -11182,7 +11182,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H283" t="inlineStr">
@@ -11194,12 +11194,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>RISE AND SHINE HOMES LTD</t>
+          <t>PRESSED &amp; FRESH LTD</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>16461593</t>
+          <t>16460587</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -11220,7 +11220,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H284" t="inlineStr">
@@ -11232,12 +11232,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>PLANET POSITIVE GROUP LTD</t>
+          <t>DELWAR INVESTMENTS LIMITED</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>16461597</t>
+          <t>16460585</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -11258,24 +11258,24 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>LOGENTIA LTD</t>
+          <t>H A REGISTRATIONS LTD</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>16460448</t>
+          <t>16460586</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -11296,7 +11296,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H286" t="inlineStr">
@@ -11308,12 +11308,12 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>A.M.K WIND LTD</t>
+          <t>NORDIX FREIGHT LTD</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>NI729588</t>
+          <t>SC849013</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -11334,7 +11334,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H287" t="inlineStr">
@@ -11346,12 +11346,12 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>BBON BAKES LTD</t>
+          <t>MISBAH GOODS LTD</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>SC848981</t>
+          <t>16460377</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -11372,7 +11372,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>03:31:34</t>
         </is>
       </c>
       <c r="H288" t="inlineStr">
@@ -11384,12 +11384,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>GB AGENT LTD</t>
+          <t>E J WHITE &amp; SON (SCAFFOLDING) LTD</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>16461614</t>
+          <t>16461193</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -11410,7 +11410,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H289" t="inlineStr">
@@ -11422,12 +11422,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>AREAVERTA TECHNOLOGIES LOGISTICS &amp; FACILITIES MANAGEMENT LTD</t>
+          <t>SW2 CONSTRUCTION LIMITED</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>16461652</t>
+          <t>16461262</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -11448,7 +11448,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H290" t="inlineStr">
@@ -11460,12 +11460,12 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>MALIK MANSIONS LTD</t>
+          <t>MERIDIYAN GLOBAL CONSULTING LTD</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>16461623</t>
+          <t>16460582</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H291" t="inlineStr">
@@ -11498,12 +11498,12 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>TACO INC LTD</t>
+          <t>WPR FREEHOLD LTD</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>16461646</t>
+          <t>16462071</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -11524,7 +11524,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H292" t="inlineStr">
@@ -11536,12 +11536,12 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>BUILDERS SCOPE LIMITED</t>
+          <t>GROUND MORTGAGE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>16460514</t>
+          <t>16461278</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -11562,7 +11562,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
@@ -11574,12 +11574,12 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>TO BE CROWNED GROUP LIMITED</t>
+          <t>EDI&amp;ALEX LTD</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>16461630</t>
+          <t>16460449</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -11600,7 +11600,7 @@
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>06:52:20</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
@@ -11612,12 +11612,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>SKINNY SISTERS LTD</t>
+          <t>AMARA WELLS LTD</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>16460411</t>
+          <t>SC849026</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -11638,7 +11638,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>05:39:32</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
@@ -11650,12 +11650,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>NICTHEBOY TECHNOLOGY LTD.</t>
+          <t>TADSTARMAN LTD</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>16460520</t>
+          <t>16460579</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -11676,7 +11676,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>06:52:20</t>
+          <t>07:32:31</t>
         </is>
       </c>
       <c r="H296" t="inlineStr">
@@ -11688,12 +11688,12 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>OPULENTIA DEVELOPMENT LTD</t>
+          <t>AALSA LTD</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>16460833</t>
+          <t>16462059</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -11714,7 +11714,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>08:52:24</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H297" t="inlineStr">
@@ -11726,12 +11726,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>AISTRIOLOGY LTD</t>
+          <t>LTW CONSULTING LTD</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>16461642</t>
+          <t>16462060</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
@@ -11764,12 +11764,12 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>ROOSYS LIMITED</t>
+          <t>M &amp; BTY LTD., LTD</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>16461647</t>
+          <t>16462062</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -11790,7 +11790,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
@@ -11802,12 +11802,12 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>DANCRAFT LLP</t>
+          <t>EMBER AUTOMATION LIMITED</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>OC456792</t>
+          <t>16462055</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -11828,24 +11828,24 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>NUZZLE GROUP LTD</t>
+          <t>LOVE ENGLISH LTD</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>16461645</t>
+          <t>SC849071</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -11866,7 +11866,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
@@ -11878,12 +11878,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>AXON HEALTH SOLUTIONS LTD</t>
+          <t>RIRA HOMES LTD</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>16461612</t>
+          <t>SC849074</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -11904,7 +11904,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
@@ -11916,12 +11916,12 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>BLACKEYE PULSE LIMITED</t>
+          <t>COMBI CARE AND REPAIR - OLLIE GIBSON LTD</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>16461644</t>
+          <t>16461168</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -11942,7 +11942,7 @@
       </c>
       <c r="G303" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H303" t="inlineStr">
@@ -11954,12 +11954,12 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>GOODWELL TEX LTD</t>
+          <t>ECOLORA LTD</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>16461615</t>
+          <t>16462082</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -11980,7 +11980,7 @@
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
@@ -11992,12 +11992,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>KL BUSINESS DEVELOPERS LTD</t>
+          <t>MUNCHIES KEBAB DESERT LTD</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>16461634</t>
+          <t>16461260</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>09:38:51</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
@@ -12030,12 +12030,12 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>ON THE MOVE FLEET LTD</t>
+          <t>BASALTON LTD</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>16461636</t>
+          <t>16462076</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -12056,7 +12056,7 @@
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
@@ -12068,12 +12068,12 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>QAZAFI MART LTD</t>
+          <t>BOOK NOOK RETREATS LTD</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>16461632</t>
+          <t>SC849072</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -12094,7 +12094,7 @@
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>10:44:26</t>
+          <t>11:28:41</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
@@ -12106,12 +12106,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>TASHAN MEDIA LTD</t>
+          <t>CLARK AND CO DESIGN LIMITED</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>16459523</t>
+          <t>16459516</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -12144,12 +12144,12 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
+          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>16459543</t>
+          <t>16457230</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -12182,12 +12182,12 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>NEW MOUNT DAISY LIMITED</t>
+          <t>UKG BB HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>16457237</t>
+          <t>16456246</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -12220,12 +12220,12 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
+          <t>MILLE TRADING LTD</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>16456756</t>
+          <t>16459518</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -12258,12 +12258,12 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>LGAM PROPERTIES LTD</t>
+          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>16457957</t>
+          <t>16457267</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -12296,12 +12296,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
+          <t>MAPLE (510) LIMITED</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>16456754</t>
+          <t>16457954</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -12334,12 +12334,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>INDEXIE LTD</t>
+          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>16459546</t>
+          <t>16456208</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -12372,12 +12372,12 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>BUILTBRITE LTD</t>
+          <t>CHIMNEY CHAPS LTD</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>16457962</t>
+          <t>16456261</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -12410,12 +12410,12 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>CTPROPS LIMITED</t>
+          <t>SPYRO APPAREL LTD</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>16459084</t>
+          <t>16459515</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -12448,12 +12448,12 @@
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
+          <t>GLIMORA GLOBAL LTD</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>16456242</t>
+          <t>16457265</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -12486,12 +12486,12 @@
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>FARYAL ENTERPRISE LIMITED</t>
+          <t>GK ZYGALA LIMITED</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>16456748</t>
+          <t>16457953</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -12524,12 +12524,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>BREEZY HOMES LIMITED</t>
+          <t>DRIVERIGHT REPAIRS LTD</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>16456709</t>
+          <t>16459058</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -12562,12 +12562,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>FITCARDIOLOGY LTD</t>
+          <t>CAMBRIDGE VETS LTD</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>16457244</t>
+          <t>16457975</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -12600,12 +12600,12 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
+          <t>LOUD AND CLEAR COACHING LIMITED</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>16456250</t>
+          <t>16459549</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -12638,12 +12638,12 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>DEVIPROX LTD</t>
+          <t>JC DEEP TECH LTD</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>16457970</t>
+          <t>16456256</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -12676,12 +12676,12 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>FINTIVITY LTD</t>
+          <t>CLICKSPHARE CRAFT LTD</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>16459072</t>
+          <t>16459521</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -12714,12 +12714,12 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>S&amp;S ISTITHMĀR LTD</t>
+          <t>OILMYCAR LTD</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>16459522</t>
+          <t>16456706</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -12752,12 +12752,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>OPM ILL GO SHOP 4U LTD</t>
+          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>16456764</t>
+          <t>16459514</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -12790,12 +12790,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>JAI-HO STAFFING LTD</t>
+          <t>ELLISA'S BEAUTY LTD</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>16456221</t>
+          <t>16456750</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -12828,12 +12828,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>WINDOW CLEANING SOUTHEND LTD</t>
+          <t>J.R'S SOUTHERN TWIST LTD</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>16456227</t>
+          <t>16459542</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -12866,12 +12866,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>FASHLER LTD</t>
+          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>16459082</t>
+          <t>16457272</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -12897,19 +12897,19 @@
       </c>
       <c r="H328" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Investments</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
+          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>16459078</t>
+          <t>LP024176</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -12935,19 +12935,19 @@
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>SHOTTON CURRY HOUSE LIMITED</t>
+          <t>SOCIAL SLOT LTD</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>16459062</t>
+          <t>16456245</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -12980,12 +12980,12 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>NEWMINERALS LTD</t>
+          <t>HAUS OF PALETTE LTD</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>16455878</t>
+          <t>16456236</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
@@ -13018,12 +13018,12 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>FLIP IT GLOBAL LTD</t>
+          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>16456758</t>
+          <t>16456203</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -13056,12 +13056,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>HOLYWELL HOMES LTD</t>
+          <t>WGHR JI LTD</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>16457259</t>
+          <t>16456731</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -13094,12 +13094,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>SSFBN LIMITED</t>
+          <t>AMIKOBA LTD</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>16459541</t>
+          <t>16459545</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -13132,12 +13132,12 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>RENTAL DISREPAIR CLAIMS LTD</t>
+          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>16459077</t>
+          <t>16457238</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
@@ -13170,12 +13170,12 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>MALHAMDALE GLAMPING LIMITED</t>
+          <t>EVO AVIATION LIMITED</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>16459064</t>
+          <t>16456253</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -13208,12 +13208,12 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>A STAR HEALTH LTD</t>
+          <t>METAHAVEN LTD</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>16456234</t>
+          <t>16457273</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -13246,12 +13246,12 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>GODMADE LTD</t>
+          <t>STOA PROJECTS LTD</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>16459074</t>
+          <t>16456212</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -13284,12 +13284,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>OMR ELECTRICAL LTD</t>
+          <t>PARKSIDE GETAWAYS LIMITED</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>16457261</t>
+          <t>16459059</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -13322,12 +13322,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>LEOFRIC LTD</t>
+          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>16456712</t>
+          <t>16459520</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -13360,12 +13360,12 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>LEADANICS LIMITED</t>
+          <t>INP SERVICES LTD</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>16457965</t>
+          <t>16459069</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
@@ -13398,12 +13398,12 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>CAZAM PROPERTY LTD</t>
+          <t>THE CHAIR SALON LONDON LTD</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>16459061</t>
+          <t>16459512</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
@@ -13436,12 +13436,12 @@
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>PANEER CRAFT LTD. LIMITED</t>
+          <t>HOUSE OF RODEOS LTD</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>16457973</t>
+          <t>16456218</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -13474,12 +13474,12 @@
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>M S GROUP FIRST UK LIMITED</t>
+          <t>BKK EQUESTRIAN LTD</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>16459057</t>
+          <t>16456733</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -13512,12 +13512,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>POWERS ELECTRICAL LTD</t>
+          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>16457270</t>
+          <t>16459547</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -13550,12 +13550,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>NEHHEALTHCARE LTD</t>
+          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>16456708</t>
+          <t>16456243</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -13588,12 +13588,12 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>CALIBRE LDN LIMITED</t>
+          <t>WANNABEE LTD</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>16457945</t>
+          <t>16459526</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
@@ -13626,12 +13626,12 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>PROOFENANCE LTD</t>
+          <t>UBAH MEDIA LAB LTD</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>16457943</t>
+          <t>16459548</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
@@ -13664,12 +13664,12 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>GUIDED BRAKE SERVICE LTD</t>
+          <t>INSPOCL LTD</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>16457264</t>
+          <t>16457967</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
@@ -13702,12 +13702,12 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>YSGARLAD PROPERTIES LTD</t>
+          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>16457268</t>
+          <t>16457279</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -13740,12 +13740,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>JANITZA UK LIMITED</t>
+          <t>ATSP FIN LTD</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>16456233</t>
+          <t>16456749</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -13778,12 +13778,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
+          <t>KINARA PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>16456735</t>
+          <t>16456244</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -13816,12 +13816,12 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>AUSTIN RICE LTD</t>
+          <t>DEHBINI LIMITED</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>NI729522</t>
+          <t>16456493</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
@@ -13854,12 +13854,12 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>PHONE STUDIO SOUTH LIMITED</t>
+          <t>JORDAN CAMPBELL LTD</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>16456765</t>
+          <t>NI729519</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
@@ -13892,12 +13892,12 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>IDCHEM CONSULTING LIMITED</t>
+          <t>Y-3 APARTMENTS LTD</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>16456205</t>
+          <t>16457262</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
@@ -13930,12 +13930,12 @@
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>MEC SURVEYORS LTD</t>
+          <t>ROCK&amp;WALLS LTD</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>16456734</t>
+          <t>16457974</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -13968,12 +13968,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>MARKETING DG LTD</t>
+          <t>FITCARDIOLOGY LTD</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>16456254</t>
+          <t>16457244</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -14006,12 +14006,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>RELIABLE STAFFING RECRUITS LIMITED</t>
+          <t>MARKETING DG LTD</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>16457238</t>
+          <t>16456254</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -14044,12 +14044,12 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>ROCK&amp;WALLS LTD</t>
+          <t>BREEZY HOMES LIMITED</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>16457974</t>
+          <t>16456709</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
@@ -14082,12 +14082,12 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>SOCIAL SLOT LTD</t>
+          <t>SHOTTON CURRY HOUSE LIMITED</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>16456245</t>
+          <t>16459062</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
@@ -14120,12 +14120,12 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>DCR HOLDINGS &amp; INVESTMENTS LTD</t>
+          <t>LATINOS TEESSIDE &amp; HISPANIC SENIORS COMMUNITY LTD</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>16457272</t>
+          <t>16459078</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
@@ -14151,19 +14151,19 @@
       </c>
       <c r="H361" t="inlineStr">
         <is>
-          <t>Investments</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>J.R'S SOUTHERN TWIST LTD</t>
+          <t>FASHLER LTD</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>16459542</t>
+          <t>16459082</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
@@ -14196,12 +14196,12 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>ELLISA'S BEAUTY LTD</t>
+          <t>WINDOW CLEANING SOUTHEND LTD</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>16456750</t>
+          <t>16456227</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -14234,12 +14234,12 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>DRIVERIGHT REPAIRS LTD</t>
+          <t>JAI-HO STAFFING LTD</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>16459058</t>
+          <t>16456221</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -14272,12 +14272,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>NORDIC COOPERATION TECHNOLOGIES LIMITED</t>
+          <t>OPM ILL GO SHOP 4U LTD</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>16459514</t>
+          <t>16456764</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -14310,12 +14310,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>OILMYCAR LTD</t>
+          <t>S&amp;S ISTITHMĀR LTD</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>16456706</t>
+          <t>16459522</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -14348,12 +14348,12 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>CLICKSPHARE CRAFT LTD</t>
+          <t>FINTIVITY LTD</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>16459521</t>
+          <t>16459072</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
@@ -14386,12 +14386,12 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>JC DEEP TECH LTD</t>
+          <t>DEVIPROX LTD</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>16456256</t>
+          <t>16457970</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
@@ -14424,12 +14424,12 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>LOUD AND CLEAR COACHING LIMITED</t>
+          <t>SWIFT BUSINESS GROWTH.AI LTD</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>16459549</t>
+          <t>16456250</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
@@ -14462,12 +14462,12 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>CAMBRIDGE VETS LTD</t>
+          <t>FARYAL ENTERPRISE LIMITED</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>16457975</t>
+          <t>16456748</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -14500,12 +14500,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>CLARK AND CO DESIGN LIMITED</t>
+          <t>MEC SURVEYORS LTD</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>16459516</t>
+          <t>16456734</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -14538,12 +14538,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>GLIMORA GLOBAL LTD</t>
+          <t>J&amp;S DISTRIBUTIONS LIMITED</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>16457265</t>
+          <t>16456242</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -14576,12 +14576,12 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>SPYRO APPAREL LTD</t>
+          <t>CTPROPS LIMITED</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>16459515</t>
+          <t>16459084</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
@@ -14614,12 +14614,12 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>CHIMNEY CHAPS LTD</t>
+          <t>BUILTBRITE LTD</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>16456261</t>
+          <t>16457962</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
@@ -14652,12 +14652,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>STEFANPERSAUDLEGACYPROJECT LIMITED</t>
+          <t>INDEXIE LTD</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>16456208</t>
+          <t>16459546</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
@@ -14690,12 +14690,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>MAPLE (510) LIMITED</t>
+          <t>KHAZAG FREIGHT SERVICES PVT LTD</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>16457954</t>
+          <t>16456754</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -14728,12 +14728,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>GK ZYGALA LIMITED</t>
+          <t>LGAM PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>16457953</t>
+          <t>16457957</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -14766,12 +14766,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>MILLE TRADING LTD</t>
+          <t>APEX PREMIER PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>16459518</t>
+          <t>16456756</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -14804,12 +14804,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>UKG BB HOLDINGS LTD</t>
+          <t>NEW MOUNT DAISY LIMITED</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>16456246</t>
+          <t>16457237</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -14842,12 +14842,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>PHOENIX CONSULTING INTERNATIONAL LIMITED</t>
+          <t>OCEANHEART MARINE SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>16457267</t>
+          <t>16459543</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -14880,12 +14880,12 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>MAJESTIC EXTERIOR CLEANING SERVICES LTD</t>
+          <t>TASHAN MEDIA LTD</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>16457230</t>
+          <t>16459523</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
@@ -14918,12 +14918,12 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>HAUS OF PALETTE LTD</t>
+          <t>NEWMINERALS LTD</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>16456236</t>
+          <t>16455878</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
@@ -14956,12 +14956,12 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>NEWCO SWANSEA SOCIAL INFRASTRUCTURE LP</t>
+          <t>FLIP IT GLOBAL LTD</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>LP024176</t>
+          <t>16456758</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
@@ -14987,19 +14987,19 @@
       </c>
       <c r="H383" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>WGHR JI LTD</t>
+          <t>HOLYWELL HOMES LTD</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>16456731</t>
+          <t>16457259</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -15032,12 +15032,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>AMIKOBA LTD</t>
+          <t>SSFBN LIMITED</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>16459545</t>
+          <t>16459541</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -15070,12 +15070,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Y-3 APARTMENTS LTD</t>
+          <t>IDCHEM CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>16457262</t>
+          <t>16456205</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -15108,12 +15108,12 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>JORDAN CAMPBELL LTD</t>
+          <t>PHONE STUDIO SOUTH LIMITED</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>NI729519</t>
+          <t>16456765</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
@@ -15146,12 +15146,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>DEHBINI LIMITED</t>
+          <t>AUSTIN RICE LTD</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>16456493</t>
+          <t>NI729522</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
@@ -15184,12 +15184,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>KINARA PROPERTIES LTD</t>
+          <t>HONG KONG XUNHUA FREIGHT LIMITED</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>16456244</t>
+          <t>16456735</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
@@ -15222,12 +15222,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>ATSP FIN LTD</t>
+          <t>JANITZA UK LIMITED</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>16456749</t>
+          <t>16456233</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -15260,12 +15260,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>FARRINGDON HOUSE FINANCIAL SERVICES LIMITED</t>
+          <t>YSGARLAD PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>16457279</t>
+          <t>16457268</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -15298,12 +15298,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>INSPOCL LTD</t>
+          <t>GUIDED BRAKE SERVICE LTD</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>16457967</t>
+          <t>16457264</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -15336,12 +15336,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>UBAH MEDIA LAB LTD</t>
+          <t>PROOFENANCE LTD</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>16459548</t>
+          <t>16457943</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -15374,12 +15374,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>WANNABEE LTD</t>
+          <t>CALIBRE LDN LIMITED</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>16459526</t>
+          <t>16457945</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
@@ -15412,12 +15412,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>B HOLLAND &amp; SONS (HOLDINGS) LTD</t>
+          <t>NEHHEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>16456243</t>
+          <t>16456708</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
@@ -15450,12 +15450,12 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>CA ELECTRICAL (YORKSHIRE) LTD</t>
+          <t>POWERS ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>16459547</t>
+          <t>16457270</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -15488,12 +15488,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>BKK EQUESTRIAN LTD</t>
+          <t>M S GROUP FIRST UK LIMITED</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>16456733</t>
+          <t>16459057</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -15526,12 +15526,12 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>HOUSE OF RODEOS LTD</t>
+          <t>PANEER CRAFT LTD. LIMITED</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>16456218</t>
+          <t>16457973</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
@@ -15564,12 +15564,12 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>THE CHAIR SALON LONDON LTD</t>
+          <t>CAZAM PROPERTY LTD</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>16459512</t>
+          <t>16459061</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -15602,12 +15602,12 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>HARRY'S OFFLICENCE &amp; TAKEAWAY LTD</t>
+          <t>LEADANICS LIMITED</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>16456203</t>
+          <t>16457965</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -15640,12 +15640,12 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>INP SERVICES LTD</t>
+          <t>LEOFRIC LTD</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>16459069</t>
+          <t>16456712</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
@@ -15678,12 +15678,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>AMIS &amp; WARD DEVELOPMENT LTD</t>
+          <t>OMR ELECTRICAL LTD</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>16459520</t>
+          <t>16457261</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
@@ -15716,12 +15716,12 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>PARKSIDE GETAWAYS LIMITED</t>
+          <t>GODMADE LTD</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>16459059</t>
+          <t>16459074</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
@@ -15754,12 +15754,12 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>STOA PROJECTS LTD</t>
+          <t>A STAR HEALTH LTD</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>16456212</t>
+          <t>16456234</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
@@ -15792,12 +15792,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>METAHAVEN LTD</t>
+          <t>MALHAMDALE GLAMPING LIMITED</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>16457273</t>
+          <t>16459064</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
@@ -15830,12 +15830,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>EVO AVIATION LIMITED</t>
+          <t>RENTAL DISREPAIR CLAIMS LTD</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>16456253</t>
+          <t>16459077</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASSURED LETTINGS AND SALES LTD</t>
+          <t>YANG HAIJUN LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16462049</t>
+          <t>16460671</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RAPID FULFILL LTD</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16462586</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,19 +585,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ASHTOWN INTERVENTION &amp; COMPLETION SERVICES LTD</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SC849120</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DANDINI PANTOMIMES LIMITED</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16462588</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>POINT BREAK 7 LTD</t>
+          <t>INNOVATION MT LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16462560</t>
+          <t>16460646</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TBT KENT LTD</t>
+          <t>BRANWELL PROJECTS LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16462558</t>
+          <t>16460653</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELLAHI PROPERTY HOLDINGS LTD</t>
+          <t>MAYTREE ELITE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16462030</t>
+          <t>16460650</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SUBLINE LTD</t>
+          <t>MEDIA WEB PRO LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16462043</t>
+          <t>16460644</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HOMELORD T LTD</t>
+          <t>ASPC CONTENT CO LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16462031</t>
+          <t>16460643</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ANITA TECHNOLOGY LTD</t>
+          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16462036</t>
+          <t>16460649</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>DAILY NOVA LTD</t>
+          <t>SARASI LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16462033</t>
+          <t>16460670</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CUT N GLOW BEAUTY LIMITED</t>
+          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16462051</t>
+          <t>16460669</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>VIRTUAL CO. UK LTD</t>
+          <t>ASSURED LETTINGS AND SALES LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16460502</t>
+          <t>16462049</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>GEOAIR SOLAR LIMITED</t>
+          <t>SAMVIV PARTNERS LTD</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16462052</t>
+          <t>16460672</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1041,19 +1041,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CSS BR ASSET LIMITED</t>
+          <t>COREMARINE SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16462021</t>
+          <t>16460663</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>LEMON TREE REAL ESTATE LIMITED</t>
+          <t>AMPERSAND MANAGEMENT UK LTD</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16462023</t>
+          <t>16460662</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>DARWIN INVEST LTD</t>
+          <t>TRIPLE J HOUSING LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16461938</t>
+          <t>16460681</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>AVIATION TOOL POOLING LLC</t>
+          <t>DXI DAILY NECESSITIES CO., LTD.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>OE033940</t>
+          <t>16460679</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>MARTIAL FITNESS (SW) LTD</t>
+          <t>PREVENTR ACTIVE FIRE LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16461940</t>
+          <t>16460677</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>JLI CONSTRUCTION LTD</t>
+          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16461948</t>
+          <t>16460640</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IVOLVIA LTD</t>
+          <t>T-REX (GUILDFORD) LIMITED</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16461947</t>
+          <t>16460637</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>B AND K FLOORING LIMITED</t>
+          <t>HOMEASE LTD</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16461926</t>
+          <t>16460666</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>LANUNE LTD</t>
+          <t>INAYA HEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16461925</t>
+          <t>16460657</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>KOMO NAIL &amp; BEAUTY LTD</t>
+          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16462578</t>
+          <t>16460659</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AR BUILDING AND GARDENING SERVICES LTD</t>
+          <t>REIGNING MEDIA LIMITED</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16462581</t>
+          <t>16461275</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>DGPI LTD</t>
+          <t>YANGLIN CHEN LIMITED</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SC849118</t>
+          <t>16461915</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1497,19 +1497,19 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>LIT BARBERS LTD</t>
+          <t>CRISPY GLEN LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>16462561</t>
+          <t>SC849027</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1542,12 +1542,12 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>LIU YUMEI LTD</t>
+          <t>KGM CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16462901</t>
+          <t>16461264</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>MAKPLAS LTD</t>
+          <t>TUK TALENT LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SC849155</t>
+          <t>16461265</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CFBUK SECURED FINANCE LTD</t>
+          <t>SW2 CONSTRUCTION LIMITED</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16462904</t>
+          <t>16461262</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>INTERA AI HOLDINGS UK LIMITED</t>
+          <t>FUNCTION.ALL.OVER LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16462908</t>
+          <t>16461272</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ALOVER VUBINH LIMITED</t>
+          <t>AMARA WELLS LTD</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>16462909</t>
+          <t>SC849026</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>COLLIN CARE HOLDINGS LIMITED</t>
+          <t>GROUND MORTGAGE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>SC849153</t>
+          <t>16461278</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>ST GEORGE CAPITAL (LAND) LIMITED</t>
+          <t>MUNCHIES KEBAB DESERT LTD</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16462880</t>
+          <t>16461260</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1801,19 +1801,19 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CAMPBELL &amp; DOIG LTD</t>
+          <t>4D CAPITAL PROPCO (44) LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SC849151</t>
+          <t>16461269</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1839,19 +1839,19 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3 MORDEN CLIFF LTD</t>
+          <t>MIRE LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16462875</t>
+          <t>16461902</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>AFROSCOT VENTURES LTD</t>
+          <t>GIG32 LIMITED</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16462878</t>
+          <t>16461898</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1915,19 +1915,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>BOWEN BUSINESS LTD</t>
+          <t>LEADALE CITY LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16462877</t>
+          <t>16461899</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1960,12 +1960,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>PAMIR MECHANICAL LTD</t>
+          <t>48 CONEY STREET LIMITED</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16462876</t>
+          <t>16461897</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>BLITHFIELD PROPERTY SOLUTIONS LTD</t>
+          <t>FND MOTORS LIMITED</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16462888</t>
+          <t>16461900</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>WIMWA LTD</t>
+          <t>ALI SHOP LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16462889</t>
+          <t>16461895</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>GASSINGITUP LTD</t>
+          <t>KASZCZUK LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16462883</t>
+          <t>16461901</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>MAYROL UK LIMITED</t>
+          <t>AMPLIFORTH CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16462870</t>
+          <t>16461904</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>MANPOD LTD</t>
+          <t>DDPT HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16462873</t>
+          <t>16461906</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>JWP INDUSTRIES LIMITED</t>
+          <t>GLOBAL CREW LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16462872</t>
+          <t>16461905</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>LEW-BUD LTD</t>
+          <t>PRIME ATHLETIC CO LTD</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16462565</t>
+          <t>16461911</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>DAVIDSON CAPITAL HOLDINGS LTD</t>
+          <t>TMS ASSETS LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>SC849117</t>
+          <t>16461913</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2295,19 +2295,19 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>ECCLES-WOOD LTD</t>
+          <t>LANYNSEN HOUSE LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>SC849115</t>
+          <t>16461918</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2340,12 +2340,12 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>THE FISH SHOP 17 LTD</t>
+          <t>LEAD INFO LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16461921</t>
+          <t>16461919</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>LEAD INFO LTD</t>
+          <t>THE FISH SHOP 17 LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16461919</t>
+          <t>16461921</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>INAYA HEALTHCARE LTD</t>
+          <t>KOMO NAIL &amp; BEAUTY LTD</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16460657</t>
+          <t>16462578</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HOMEASE LTD</t>
+          <t>B AND K FLOORING LIMITED</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16460666</t>
+          <t>16461926</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>T-REX (GUILDFORD) LIMITED</t>
+          <t>IVOLVIA LTD</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16460637</t>
+          <t>16461947</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
+          <t>JLI CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16460640</t>
+          <t>16461948</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>PREVENTR ACTIVE FIRE LTD</t>
+          <t>MARTIAL FITNESS (SW) LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16460677</t>
+          <t>16461940</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>DXI DAILY NECESSITIES CO., LTD.</t>
+          <t>AVIATION TOOL POOLING LLC</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>16460679</t>
+          <t>OE033940</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>TRIPLE J HOUSING LTD</t>
+          <t>DARWIN INVEST LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16460681</t>
+          <t>16461938</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AMPERSAND MANAGEMENT UK LTD</t>
+          <t>LEMON TREE REAL ESTATE LIMITED</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16460662</t>
+          <t>16462023</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>COREMARINE SOLUTIONS CIC</t>
+          <t>CSS BR ASSET LIMITED</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16460663</t>
+          <t>16462021</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SAMVIV PARTNERS LTD</t>
+          <t>GEOAIR SOLAR LIMITED</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16460672</t>
+          <t>16462052</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2827,19 +2827,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
+          <t>VIRTUAL CO. UK LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16460669</t>
+          <t>16460502</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>YANG HAIJUN LTD</t>
+          <t>CUT N GLOW BEAUTY LIMITED</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16460671</t>
+          <t>16462051</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SARASI LTD</t>
+          <t>DAILY NOVA LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16460670</t>
+          <t>16462033</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
+          <t>ANITA TECHNOLOGY LTD</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16460649</t>
+          <t>16462036</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>ASPC CONTENT CO LTD</t>
+          <t>HOMELORD T LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16460643</t>
+          <t>16462031</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>MEDIA WEB PRO LTD</t>
+          <t>SUBLINE LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16460644</t>
+          <t>16462043</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>MAYTREE ELITE PROPERTIES LTD</t>
+          <t>ELLAHI PROPERTY HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16460650</t>
+          <t>16462030</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>BRANWELL PROJECTS LIMITED</t>
+          <t>TBT KENT LTD</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16460653</t>
+          <t>16462558</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>INNOVATION MT LTD</t>
+          <t>POINT BREAK 7 LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16460646</t>
+          <t>16462560</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DEE BEE TRADING LTD</t>
+          <t>DANDINI PANTOMIMES LIMITED</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16460511</t>
+          <t>16462588</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>THE SPICE INVADERS LTD</t>
+          <t>ASHTOWN INTERVENTION &amp; COMPLETION SERVICES LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>16460505</t>
+          <t>SC849120</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
+          <t>RAPID FULFILL LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16460503</t>
+          <t>16462586</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3283,19 +3283,19 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
+          <t>LANUNE LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16460659</t>
+          <t>16461925</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>REIGNING MEDIA LIMITED</t>
+          <t>AR BUILDING AND GARDENING SERVICES LTD</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16461275</t>
+          <t>16462581</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>YANGLIN CHEN LIMITED</t>
+          <t>ECCLES-WOOD LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>16461915</t>
+          <t>SC849115</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CRISPY GLEN LTD</t>
+          <t>DGPI LTD</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SC849027</t>
+          <t>SC849118</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3435,19 +3435,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>LANYNSEN HOUSE LTD</t>
+          <t>DAVIDSON CAPITAL HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>16461918</t>
+          <t>SC849117</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3473,19 +3473,19 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TMS ASSETS LTD</t>
+          <t>LEW-BUD LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16461913</t>
+          <t>16462565</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>PRIME ATHLETIC CO LTD</t>
+          <t>JWP INDUSTRIES LIMITED</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16461911</t>
+          <t>16462872</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>GLOBAL CREW LTD</t>
+          <t>MANPOD LTD</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16461905</t>
+          <t>16462873</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>DDPT HOLDINGS LIMITED</t>
+          <t>MAYROL UK LIMITED</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16461906</t>
+          <t>16462870</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>AMPLIFORTH CONSULTING LIMITED</t>
+          <t>GASSINGITUP LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16461904</t>
+          <t>16462883</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>KASZCZUK LTD</t>
+          <t>WIMWA LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16461901</t>
+          <t>16462889</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>ALI SHOP LTD</t>
+          <t>BLITHFIELD PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16461895</t>
+          <t>16462888</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>FND MOTORS LIMITED</t>
+          <t>PAMIR MECHANICAL LTD</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16461900</t>
+          <t>16462876</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>48 CONEY STREET LIMITED</t>
+          <t>BOWEN BUSINESS LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16461897</t>
+          <t>16462877</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>LEADALE CITY LTD</t>
+          <t>AFROSCOT VENTURES LTD</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16461899</t>
+          <t>16462878</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3853,19 +3853,19 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>GIG32 LIMITED</t>
+          <t>3 MORDEN CLIFF LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16461898</t>
+          <t>16462875</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MIRE LTD</t>
+          <t>CAMPBELL &amp; DOIG LTD</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>16461902</t>
+          <t>SC849151</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3936,12 +3936,12 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>4D CAPITAL PROPCO (44) LIMITED</t>
+          <t>ST GEORGE CAPITAL (LAND) LIMITED</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16461269</t>
+          <t>16462880</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3974,12 +3974,12 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>MUNCHIES KEBAB DESERT LTD</t>
+          <t>COLLIN CARE HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>16461260</t>
+          <t>SC849153</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>GROUND MORTGAGE SERVICES LIMITED</t>
+          <t>ALOVER VUBINH LIMITED</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16461278</t>
+          <t>16462909</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>AMARA WELLS LTD</t>
+          <t>INTERA AI HOLDINGS UK LIMITED</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SC849026</t>
+          <t>16462908</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>FUNCTION.ALL.OVER LTD</t>
+          <t>CFBUK SECURED FINANCE LTD</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16461272</t>
+          <t>16462904</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SW2 CONSTRUCTION LIMITED</t>
+          <t>MAKPLAS LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>16461262</t>
+          <t>SC849155</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>TUK TALENT LTD</t>
+          <t>LIU YUMEI LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16461265</t>
+          <t>16462901</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>KGM CONSTRUCTION LTD</t>
+          <t>LIT BARBERS LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16461264</t>
+          <t>16462561</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>YANG HAIJUN LTD</t>
+          <t>CUT N GLOW BEAUTY LIMITED</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16460671</t>
+          <t>16462051</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
+          <t>RAPID FULFILL LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16460503</t>
+          <t>16462586</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,19 +585,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>LP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>THE SPICE INVADERS LTD</t>
+          <t>ASHTOWN INTERVENTION &amp; COMPLETION SERVICES LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>16460505</t>
+          <t>SC849120</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DEE BEE TRADING LTD</t>
+          <t>DANDINI PANTOMIMES LIMITED</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16460511</t>
+          <t>16462588</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INNOVATION MT LTD</t>
+          <t>POINT BREAK 7 LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16460646</t>
+          <t>16462560</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BRANWELL PROJECTS LIMITED</t>
+          <t>TBT KENT LTD</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16460653</t>
+          <t>16462558</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>MAYTREE ELITE PROPERTIES LTD</t>
+          <t>ELLAHI PROPERTY HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16460650</t>
+          <t>16462030</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>MEDIA WEB PRO LTD</t>
+          <t>SUBLINE LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16460644</t>
+          <t>16462043</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ASPC CONTENT CO LTD</t>
+          <t>HOMELORD T LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>16460643</t>
+          <t>16462031</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -858,12 +858,12 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
+          <t>ANITA TECHNOLOGY LTD</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>16460649</t>
+          <t>16462036</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -896,12 +896,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SARASI LTD</t>
+          <t>DAILY NOVA LTD</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>16460670</t>
+          <t>16462033</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -934,12 +934,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
+          <t>VIRTUAL CO. UK LTD</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>16460669</t>
+          <t>16460502</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -972,12 +972,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASSURED LETTINGS AND SALES LTD</t>
+          <t>YANG HAIJUN LTD</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>16462049</t>
+          <t>16460671</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1010,12 +1010,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SAMVIV PARTNERS LTD</t>
+          <t>GEOAIR SOLAR LIMITED</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>16460672</t>
+          <t>16462052</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1041,19 +1041,19 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Partners</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>COREMARINE SOLUTIONS CIC</t>
+          <t>CSS BR ASSET LIMITED</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>16460663</t>
+          <t>16462021</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1086,12 +1086,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>AMPERSAND MANAGEMENT UK LTD</t>
+          <t>LEMON TREE REAL ESTATE LIMITED</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>16460662</t>
+          <t>16462023</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1124,12 +1124,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TRIPLE J HOUSING LTD</t>
+          <t>DARWIN INVEST LTD</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>16460681</t>
+          <t>16461938</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1162,12 +1162,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>DXI DAILY NECESSITIES CO., LTD.</t>
+          <t>AVIATION TOOL POOLING LLC</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>16460679</t>
+          <t>OE033940</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>registered</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -1200,12 +1200,12 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>PREVENTR ACTIVE FIRE LTD</t>
+          <t>MARTIAL FITNESS (SW) LTD</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>16460677</t>
+          <t>16461940</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1238,12 +1238,12 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
+          <t>JLI CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>16460640</t>
+          <t>16461948</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1276,12 +1276,12 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>T-REX (GUILDFORD) LIMITED</t>
+          <t>IVOLVIA LTD</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>16460637</t>
+          <t>16461947</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1314,12 +1314,12 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HOMEASE LTD</t>
+          <t>B AND K FLOORING LIMITED</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>16460666</t>
+          <t>16461926</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1352,12 +1352,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INAYA HEALTHCARE LTD</t>
+          <t>KOMO NAIL &amp; BEAUTY LTD</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>16460657</t>
+          <t>16462578</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1390,12 +1390,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
+          <t>LANUNE LTD</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>16460659</t>
+          <t>16461925</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1428,12 +1428,12 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>REIGNING MEDIA LIMITED</t>
+          <t>AR BUILDING AND GARDENING SERVICES LTD</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>16461275</t>
+          <t>16462581</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1466,12 +1466,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>YANGLIN CHEN LIMITED</t>
+          <t>ECCLES-WOOD LTD</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>16461915</t>
+          <t>SC849115</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1504,12 +1504,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CRISPY GLEN LTD</t>
+          <t>DGPI LTD</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SC849027</t>
+          <t>SC849118</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1535,19 +1535,19 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>GP</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>KGM CONSTRUCTION LTD</t>
+          <t>LIT BARBERS LTD</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16461264</t>
+          <t>16462561</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1580,12 +1580,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>TUK TALENT LTD</t>
+          <t>LIU YUMEI LTD</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>16461265</t>
+          <t>16462901</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1618,12 +1618,12 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SW2 CONSTRUCTION LIMITED</t>
+          <t>MAKPLAS LTD</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>16461262</t>
+          <t>SC849155</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1656,12 +1656,12 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>FUNCTION.ALL.OVER LTD</t>
+          <t>CFBUK SECURED FINANCE LTD</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>16461272</t>
+          <t>16462904</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1694,12 +1694,12 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>AMARA WELLS LTD</t>
+          <t>INTERA AI HOLDINGS UK LIMITED</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>SC849026</t>
+          <t>16462908</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1732,12 +1732,12 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>GROUND MORTGAGE SERVICES LIMITED</t>
+          <t>ALOVER VUBINH LIMITED</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>16461278</t>
+          <t>16462909</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1770,12 +1770,12 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>MUNCHIES KEBAB DESERT LTD</t>
+          <t>COLLIN CARE HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>16461260</t>
+          <t>SC849153</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1808,12 +1808,12 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>4D CAPITAL PROPCO (44) LIMITED</t>
+          <t>ST GEORGE CAPITAL (LAND) LIMITED</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16461269</t>
+          <t>16462880</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1846,12 +1846,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>MIRE LTD</t>
+          <t>CAMPBELL &amp; DOIG LTD</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>16461902</t>
+          <t>SC849151</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1884,12 +1884,12 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GIG32 LIMITED</t>
+          <t>3 MORDEN CLIFF LTD</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16461898</t>
+          <t>16462875</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1922,12 +1922,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>LEADALE CITY LTD</t>
+          <t>AFROSCOT VENTURES LTD</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>16461899</t>
+          <t>16462878</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1953,19 +1953,19 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Ventures</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>48 CONEY STREET LIMITED</t>
+          <t>BOWEN BUSINESS LTD</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16461897</t>
+          <t>16462877</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1998,12 +1998,12 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>FND MOTORS LIMITED</t>
+          <t>PAMIR MECHANICAL LTD</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16461900</t>
+          <t>16462876</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2036,12 +2036,12 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>ALI SHOP LTD</t>
+          <t>BLITHFIELD PROPERTY SOLUTIONS LTD</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>16461895</t>
+          <t>16462888</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2074,12 +2074,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>KASZCZUK LTD</t>
+          <t>WIMWA LTD</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>16461901</t>
+          <t>16462889</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2112,12 +2112,12 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AMPLIFORTH CONSULTING LIMITED</t>
+          <t>GASSINGITUP LTD</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>16461904</t>
+          <t>16462883</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2150,12 +2150,12 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DDPT HOLDINGS LIMITED</t>
+          <t>MAYROL UK LIMITED</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>16461906</t>
+          <t>16462870</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2188,12 +2188,12 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>GLOBAL CREW LTD</t>
+          <t>MANPOD LTD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>16461905</t>
+          <t>16462873</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2226,12 +2226,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>PRIME ATHLETIC CO LTD</t>
+          <t>JWP INDUSTRIES LIMITED</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>16461911</t>
+          <t>16462872</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2264,12 +2264,12 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TMS ASSETS LTD</t>
+          <t>LEW-BUD LTD</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16461913</t>
+          <t>16462565</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2302,12 +2302,12 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LANYNSEN HOUSE LTD</t>
+          <t>DAVIDSON CAPITAL HOLDINGS LTD</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>16461918</t>
+          <t>SC849117</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LEAD INFO LTD</t>
+          <t>THE FISH SHOP 17 LTD</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>16461919</t>
+          <t>16461921</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2416,12 +2416,12 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>THE FISH SHOP 17 LTD</t>
+          <t>LEAD INFO LTD</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>16461921</t>
+          <t>16461919</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2454,12 +2454,12 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>KOMO NAIL &amp; BEAUTY LTD</t>
+          <t>VALLEY SEVEN DEVELOPMENTS LIMITED</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>16462578</t>
+          <t>16460659</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2492,12 +2492,12 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>B AND K FLOORING LIMITED</t>
+          <t>HOMEASE LTD</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>16461926</t>
+          <t>16460666</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2530,12 +2530,12 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>IVOLVIA LTD</t>
+          <t>T-REX (GUILDFORD) LIMITED</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>16461947</t>
+          <t>16460637</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -2568,12 +2568,12 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>JLI CONSTRUCTION LTD</t>
+          <t>MOUNTAIN SEA SHIP SERVICE CO., LTD</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>16461948</t>
+          <t>16460640</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2606,12 +2606,12 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>MARTIAL FITNESS (SW) LTD</t>
+          <t>PREVENTR ACTIVE FIRE LTD</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>16461940</t>
+          <t>16460677</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -2644,12 +2644,12 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>AVIATION TOOL POOLING LLC</t>
+          <t>DXI DAILY NECESSITIES CO., LTD.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>OE033940</t>
+          <t>16460679</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>registered</t>
+          <t>active</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -2682,12 +2682,12 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DARWIN INVEST LTD</t>
+          <t>TRIPLE J HOUSING LTD</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>16461938</t>
+          <t>16460681</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2720,12 +2720,12 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>LEMON TREE REAL ESTATE LIMITED</t>
+          <t>AMPERSAND MANAGEMENT UK LTD</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>16462023</t>
+          <t>16460662</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -2758,12 +2758,12 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CSS BR ASSET LIMITED</t>
+          <t>COREMARINE SOLUTIONS CIC</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>16462021</t>
+          <t>16460663</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -2796,12 +2796,12 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>GEOAIR SOLAR LIMITED</t>
+          <t>SAMVIV PARTNERS LTD</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>16462052</t>
+          <t>16460672</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -2827,19 +2827,19 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Partners</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>VIRTUAL CO. UK LTD</t>
+          <t>ASSURED LETTINGS AND SALES LTD</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>16460502</t>
+          <t>16462049</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -2872,12 +2872,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CUT N GLOW BEAUTY LIMITED</t>
+          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>16462051</t>
+          <t>16460669</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2910,12 +2910,12 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>DAILY NOVA LTD</t>
+          <t>SARASI LTD</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>16462033</t>
+          <t>16460670</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -2948,12 +2948,12 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ANITA TECHNOLOGY LTD</t>
+          <t>BLUEPRINT VOYAGE MEDIA COMPANY LIMITED</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>16462036</t>
+          <t>16460649</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2986,12 +2986,12 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HOMELORD T LTD</t>
+          <t>ASPC CONTENT CO LTD</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>16462031</t>
+          <t>16460643</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -3024,12 +3024,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SUBLINE LTD</t>
+          <t>MEDIA WEB PRO LTD</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>16462043</t>
+          <t>16460644</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -3062,12 +3062,12 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>ELLAHI PROPERTY HOLDINGS LTD</t>
+          <t>MAYTREE ELITE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>16462030</t>
+          <t>16460650</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -3100,12 +3100,12 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>TBT KENT LTD</t>
+          <t>BRANWELL PROJECTS LIMITED</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>16462558</t>
+          <t>16460653</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -3138,12 +3138,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>POINT BREAK 7 LTD</t>
+          <t>INNOVATION MT LTD</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>16462560</t>
+          <t>16460646</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -3176,12 +3176,12 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DANDINI PANTOMIMES LIMITED</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>16462588</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -3214,12 +3214,12 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>ASHTOWN INTERVENTION &amp; COMPLETION SERVICES LTD</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>SC849120</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -3252,12 +3252,12 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>RAPID FULFILL LTD</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>16462586</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -3283,19 +3283,19 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>LANUNE LTD</t>
+          <t>INAYA HEALTHCARE LTD</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>16461925</t>
+          <t>16460657</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -3328,12 +3328,12 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>AR BUILDING AND GARDENING SERVICES LTD</t>
+          <t>REIGNING MEDIA LIMITED</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>16462581</t>
+          <t>16461275</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -3366,12 +3366,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ECCLES-WOOD LTD</t>
+          <t>LANYNSEN HOUSE LTD</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SC849115</t>
+          <t>16461918</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -3404,12 +3404,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>DGPI LTD</t>
+          <t>YANGLIN CHEN LIMITED</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>SC849118</t>
+          <t>16461915</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -3435,19 +3435,19 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>DAVIDSON CAPITAL HOLDINGS LTD</t>
+          <t>TMS ASSETS LTD</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>SC849117</t>
+          <t>16461913</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -3473,19 +3473,19 @@
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>LEW-BUD LTD</t>
+          <t>PRIME ATHLETIC CO LTD</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>16462565</t>
+          <t>16461911</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -3518,12 +3518,12 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>JWP INDUSTRIES LIMITED</t>
+          <t>GLOBAL CREW LTD</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>16462872</t>
+          <t>16461905</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -3556,12 +3556,12 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>MANPOD LTD</t>
+          <t>DDPT HOLDINGS LIMITED</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>16462873</t>
+          <t>16461906</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -3594,12 +3594,12 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>MAYROL UK LIMITED</t>
+          <t>AMPLIFORTH CONSULTING LIMITED</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>16462870</t>
+          <t>16461904</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -3632,12 +3632,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>GASSINGITUP LTD</t>
+          <t>KASZCZUK LTD</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>16462883</t>
+          <t>16461901</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -3670,12 +3670,12 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>WIMWA LTD</t>
+          <t>ALI SHOP LTD</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>16462889</t>
+          <t>16461895</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -3708,12 +3708,12 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>BLITHFIELD PROPERTY SOLUTIONS LTD</t>
+          <t>FND MOTORS LIMITED</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>16462888</t>
+          <t>16461900</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -3746,12 +3746,12 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>PAMIR MECHANICAL LTD</t>
+          <t>48 CONEY STREET LIMITED</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>16462876</t>
+          <t>16461897</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -3784,12 +3784,12 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>BOWEN BUSINESS LTD</t>
+          <t>LEADALE CITY LTD</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>16462877</t>
+          <t>16461899</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -3822,12 +3822,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>AFROSCOT VENTURES LTD</t>
+          <t>GIG32 LIMITED</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>16462878</t>
+          <t>16461898</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -3853,19 +3853,19 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Ventures</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>3 MORDEN CLIFF LTD</t>
+          <t>MIRE LTD</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>16462875</t>
+          <t>16461902</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -3898,12 +3898,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>CAMPBELL &amp; DOIG LTD</t>
+          <t>4D CAPITAL PROPCO (44) LIMITED</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>SC849151</t>
+          <t>16461269</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -3929,19 +3929,19 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Capital</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>ST GEORGE CAPITAL (LAND) LIMITED</t>
+          <t>MUNCHIES KEBAB DESERT LTD</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>16462880</t>
+          <t>16461260</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -3967,19 +3967,19 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Capital</t>
+          <t>Other</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>COLLIN CARE HOLDINGS LIMITED</t>
+          <t>GROUND MORTGAGE SERVICES LIMITED</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>SC849153</t>
+          <t>16461278</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -4012,12 +4012,12 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>ALOVER VUBINH LIMITED</t>
+          <t>AMARA WELLS LTD</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>16462909</t>
+          <t>SC849026</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -4050,12 +4050,12 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>INTERA AI HOLDINGS UK LIMITED</t>
+          <t>FUNCTION.ALL.OVER LTD</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>16462908</t>
+          <t>16461272</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -4088,12 +4088,12 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CFBUK SECURED FINANCE LTD</t>
+          <t>SW2 CONSTRUCTION LIMITED</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>16462904</t>
+          <t>16461262</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -4126,12 +4126,12 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>MAKPLAS LTD</t>
+          <t>TUK TALENT LTD</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>SC849155</t>
+          <t>16461265</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -4164,12 +4164,12 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>LIU YUMEI LTD</t>
+          <t>KGM CONSTRUCTION LTD</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>16462901</t>
+          <t>16461264</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -4202,12 +4202,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>LIT BARBERS LTD</t>
+          <t>CRISPY GLEN LTD</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>16462561</t>
+          <t>SC849027</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">

--- a/master_companies.xlsx
+++ b/master_companies.xlsx
@@ -516,12 +516,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CUT N GLOW BEAUTY LIMITED</t>
+          <t>ST PAUL'S COURT DEVELOPMENT LTD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>16462051</t>
+          <t>16460669</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -554,12 +554,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RAPID FULFILL LTD</t>
+          <t>T GILPIN PHYSIO CONSULTANCY LTD</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16462586</t>
+          <t>16460503</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,19 +585,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>LP</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ASHTOWN INTERVENTION &amp; COMPLETION SERVICES LTD</t>
+          <t>THE SPICE INVADERS LTD</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SC849120</t>
+          <t>16460505</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -630,12 +630,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>DANDINI PANTOMIMES LIMITED</t>
+          <t>DEE BEE TRADING LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16462588</t>
+          <t>16460511</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -668,12 +668,12 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>POINT BREAK 7 LTD</t>
+          <t>INNOVATION MT LTD</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16462560</t>
+          <t>16460646</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -706,12 +706,12 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TBT KENT LTD</t>
+          <t>BRANWELL PROJECTS LIMITED</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>16462558</t>
+          <t>16460653</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -744,12 +744,12 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ELLAHI PROPERTY HOLDINGS LTD</t>
+          <t>MAYTREE ELITE PROPERTIES LTD</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>16462030</t>
+          <t>16460650</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -782,12 +782,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SUBLINE LTD</t>
+          <t>MEDIA WEB PRO LTD</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16462043</t>
+          <t>16460644</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -820,12 +820,12 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HOMELORD T LTD</t>
+          <t>ASPC CONTENT CO LTD</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-        